--- a/GraphicalLinuxSubsystem.xlsx
+++ b/GraphicalLinuxSubsystem.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="slab结构体关系" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -16,16 +16,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>struct kmem_cache 
-ffff9f0f3fabe080</t>
+    <t>参考网址：http://www.wowotech.net/memory_management/426.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>node = {0xffff9f0f3baed340, 0x0, 0x0,….}</t>
+    <t>问题：为啥kmem_cache_cpu属于用户空间数据呢？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> cpu_slab = 0x389c41803ee0, ()</t>
+    <t>参考网址：https://blog.csdn.net/lukuen/article/details/6935068</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,10 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -95,9 +97,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1119217" cy="275717"/>
@@ -108,7 +110,253 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8359140" y="5486400"/>
+          <a:off x="419100" y="5349240"/>
+          <a:ext cx="1119217" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>放置半满的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>slab</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1526636" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="文本框 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="2057400"/>
+          <a:ext cx="1526636" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>各种偏移后的大小</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1445780" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="文本框 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358140" y="3406140"/>
+          <a:ext cx="1445780" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Objsize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>实际设置大小</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1119217" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="文本框 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="7010400"/>
+          <a:ext cx="1119217" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>放置半满的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>slab</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1119217" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="文本框 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="297180" y="960120"/>
           <a:ext cx="1119217" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -157,173 +405,970 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>178904</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2374</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88672</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="组合 7"/>
+        <xdr:cNvPr id="59" name="组合 58"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="998220" y="2804160"/>
-          <a:ext cx="8891270" cy="5539740"/>
-          <a:chOff x="754380" y="2849880"/>
-          <a:chExt cx="8891270" cy="5539740"/>
+          <a:off x="178904" y="383533"/>
+          <a:ext cx="11637783" cy="5642113"/>
+          <a:chOff x="297180" y="960120"/>
+          <a:chExt cx="11634470" cy="5608320"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="48" name="组合 47"/>
+          <xdr:cNvPr id="54" name="组合 53"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="754380" y="2849880"/>
-            <a:ext cx="8891270" cy="5539740"/>
-            <a:chOff x="632460" y="2941320"/>
-            <a:chExt cx="8891270" cy="5539740"/>
+            <a:off x="297180" y="960120"/>
+            <a:ext cx="11634470" cy="5608320"/>
+            <a:chOff x="0" y="1082040"/>
+            <a:chExt cx="11634470" cy="5608320"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="34" name="组合 33"/>
+            <xdr:cNvPr id="53" name="组合 52"/>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="632460" y="2941320"/>
-              <a:ext cx="8891270" cy="5539740"/>
-              <a:chOff x="594360" y="2712720"/>
-              <a:chExt cx="8891270" cy="5539740"/>
+              <a:off x="0" y="1082040"/>
+              <a:ext cx="11634470" cy="5608320"/>
+              <a:chOff x="0" y="1082040"/>
+              <a:chExt cx="11634470" cy="5608320"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="32" name="组合 31"/>
+              <xdr:cNvPr id="44" name="组合 43"/>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="594360" y="2712720"/>
-                <a:ext cx="8891270" cy="5539740"/>
-                <a:chOff x="876300" y="2628900"/>
-                <a:chExt cx="8891270" cy="5539740"/>
+                <a:off x="0" y="1104900"/>
+                <a:ext cx="11634470" cy="5585460"/>
+                <a:chOff x="0" y="922020"/>
+                <a:chExt cx="11634470" cy="5585460"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:grpSp>
               <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="17" name="组合 16"/>
+                <xdr:cNvPr id="13" name="组合 12"/>
                 <xdr:cNvGrpSpPr/>
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
                 <a:xfrm>
-                  <a:off x="883920" y="2895600"/>
-                  <a:ext cx="8883650" cy="5273040"/>
-                  <a:chOff x="1005840" y="2804160"/>
-                  <a:chExt cx="8883650" cy="5273040"/>
+                  <a:off x="3787140" y="922020"/>
+                  <a:ext cx="7847330" cy="5585460"/>
+                  <a:chOff x="0" y="434340"/>
+                  <a:chExt cx="8891270" cy="5539740"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:grpSp>
                 <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="6" name="组合 5"/>
+                  <xdr:cNvPr id="8" name="组合 7"/>
                   <xdr:cNvGrpSpPr/>
                 </xdr:nvGrpSpPr>
                 <xdr:grpSpPr>
                   <a:xfrm>
-                    <a:off x="1005840" y="2804160"/>
-                    <a:ext cx="8883650" cy="5273040"/>
-                    <a:chOff x="617220" y="2209800"/>
-                    <a:chExt cx="8883650" cy="5273040"/>
+                    <a:off x="0" y="434340"/>
+                    <a:ext cx="8891270" cy="5539740"/>
+                    <a:chOff x="754380" y="2849880"/>
+                    <a:chExt cx="8891270" cy="5539740"/>
                   </a:xfrm>
                 </xdr:grpSpPr>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="3" name="图片 2"/>
-                    <xdr:cNvPicPr/>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-                    <a:stretch>
-                      <a:fillRect/>
-                    </a:stretch>
-                  </xdr:blipFill>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="48" name="组合 47"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="754380" y="2849880"/>
+                      <a:ext cx="8891270" cy="5539740"/>
+                      <a:chOff x="632460" y="2941320"/>
+                      <a:chExt cx="8891270" cy="5539740"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="34" name="组合 33"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="632460" y="2941320"/>
+                        <a:ext cx="8891270" cy="5539740"/>
+                        <a:chOff x="594360" y="2712720"/>
+                        <a:chExt cx="8891270" cy="5539740"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:grpSp>
+                      <xdr:nvGrpSpPr>
+                        <xdr:cNvPr id="32" name="组合 31"/>
+                        <xdr:cNvGrpSpPr/>
+                      </xdr:nvGrpSpPr>
+                      <xdr:grpSpPr>
+                        <a:xfrm>
+                          <a:off x="594360" y="2712720"/>
+                          <a:ext cx="8891270" cy="5539740"/>
+                          <a:chOff x="876300" y="2628900"/>
+                          <a:chExt cx="8891270" cy="5539740"/>
+                        </a:xfrm>
+                      </xdr:grpSpPr>
+                      <xdr:grpSp>
+                        <xdr:nvGrpSpPr>
+                          <xdr:cNvPr id="17" name="组合 16"/>
+                          <xdr:cNvGrpSpPr/>
+                        </xdr:nvGrpSpPr>
+                        <xdr:grpSpPr>
+                          <a:xfrm>
+                            <a:off x="883919" y="2895600"/>
+                            <a:ext cx="8883651" cy="5273040"/>
+                            <a:chOff x="1005839" y="2804160"/>
+                            <a:chExt cx="8883651" cy="5273040"/>
+                          </a:xfrm>
+                        </xdr:grpSpPr>
+                        <xdr:grpSp>
+                          <xdr:nvGrpSpPr>
+                            <xdr:cNvPr id="6" name="组合 5"/>
+                            <xdr:cNvGrpSpPr/>
+                          </xdr:nvGrpSpPr>
+                          <xdr:grpSpPr>
+                            <a:xfrm>
+                              <a:off x="1005839" y="2804160"/>
+                              <a:ext cx="8883651" cy="5273040"/>
+                              <a:chOff x="617219" y="2209800"/>
+                              <a:chExt cx="8883651" cy="5273040"/>
+                            </a:xfrm>
+                          </xdr:grpSpPr>
+                          <xdr:pic>
+                            <xdr:nvPicPr>
+                              <xdr:cNvPr id="3" name="图片 2"/>
+                              <xdr:cNvPicPr/>
+                            </xdr:nvPicPr>
+                            <xdr:blipFill>
+                              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                              <a:stretch>
+                                <a:fillRect/>
+                              </a:stretch>
+                            </xdr:blipFill>
+                            <xdr:spPr>
+                              <a:xfrm>
+                                <a:off x="4251960" y="2209800"/>
+                                <a:ext cx="4723765" cy="1980565"/>
+                              </a:xfrm>
+                              <a:prstGeom prst="rect">
+                                <a:avLst/>
+                              </a:prstGeom>
+                            </xdr:spPr>
+                          </xdr:pic>
+                          <xdr:pic>
+                            <xdr:nvPicPr>
+                              <xdr:cNvPr id="4" name="图片 3"/>
+                              <xdr:cNvPicPr/>
+                            </xdr:nvPicPr>
+                            <xdr:blipFill>
+                              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+                              <a:stretch>
+                                <a:fillRect/>
+                              </a:stretch>
+                            </xdr:blipFill>
+                            <xdr:spPr>
+                              <a:xfrm>
+                                <a:off x="4244340" y="5189220"/>
+                                <a:ext cx="5256530" cy="2285365"/>
+                              </a:xfrm>
+                              <a:prstGeom prst="rect">
+                                <a:avLst/>
+                              </a:prstGeom>
+                            </xdr:spPr>
+                          </xdr:pic>
+                          <xdr:pic>
+                            <xdr:nvPicPr>
+                              <xdr:cNvPr id="5" name="图片 4"/>
+                              <xdr:cNvPicPr/>
+                            </xdr:nvPicPr>
+                            <xdr:blipFill rotWithShape="1">
+                              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                              <a:srcRect r="31375" b="290"/>
+                              <a:stretch/>
+                            </xdr:blipFill>
+                            <xdr:spPr>
+                              <a:xfrm>
+                                <a:off x="617219" y="2240280"/>
+                                <a:ext cx="3619501" cy="5242560"/>
+                              </a:xfrm>
+                              <a:prstGeom prst="rect">
+                                <a:avLst/>
+                              </a:prstGeom>
+                            </xdr:spPr>
+                          </xdr:pic>
+                        </xdr:grpSp>
+                        <xdr:sp macro="" textlink="">
+                          <xdr:nvSpPr>
+                            <xdr:cNvPr id="9" name="文本框 8"/>
+                            <xdr:cNvSpPr txBox="1"/>
+                          </xdr:nvSpPr>
+                          <xdr:spPr>
+                            <a:xfrm>
+                              <a:off x="4602480" y="3040380"/>
+                              <a:ext cx="2164080" cy="205740"/>
+                            </a:xfrm>
+                            <a:prstGeom prst="rect">
+                              <a:avLst/>
+                            </a:prstGeom>
+                            <a:noFill/>
+                            <a:ln w="9525" cmpd="dbl">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                            </a:ln>
+                          </xdr:spPr>
+                          <xdr:style>
+                            <a:lnRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:lnRef>
+                            <a:fillRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:fillRef>
+                            <a:effectRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:effectRef>
+                            <a:fontRef idx="minor">
+                              <a:schemeClr val="dk1"/>
+                            </a:fontRef>
+                          </xdr:style>
+                          <xdr:txBody>
+                            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                            <a:lstStyle/>
+                            <a:p>
+                              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            </a:p>
+                          </xdr:txBody>
+                        </xdr:sp>
+                        <xdr:sp macro="" textlink="">
+                          <xdr:nvSpPr>
+                            <xdr:cNvPr id="10" name="文本框 9"/>
+                            <xdr:cNvSpPr txBox="1"/>
+                          </xdr:nvSpPr>
+                          <xdr:spPr>
+                            <a:xfrm>
+                              <a:off x="1935480" y="3200400"/>
+                              <a:ext cx="2164080" cy="205740"/>
+                            </a:xfrm>
+                            <a:prstGeom prst="rect">
+                              <a:avLst/>
+                            </a:prstGeom>
+                            <a:noFill/>
+                            <a:ln w="9525" cmpd="dbl">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                            </a:ln>
+                          </xdr:spPr>
+                          <xdr:style>
+                            <a:lnRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:lnRef>
+                            <a:fillRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:fillRef>
+                            <a:effectRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:effectRef>
+                            <a:fontRef idx="minor">
+                              <a:schemeClr val="dk1"/>
+                            </a:fontRef>
+                          </xdr:style>
+                          <xdr:txBody>
+                            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                            <a:lstStyle/>
+                            <a:p>
+                              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            </a:p>
+                          </xdr:txBody>
+                        </xdr:sp>
+                        <xdr:sp macro="" textlink="">
+                          <xdr:nvSpPr>
+                            <xdr:cNvPr id="11" name="文本框 10"/>
+                            <xdr:cNvSpPr txBox="1"/>
+                          </xdr:nvSpPr>
+                          <xdr:spPr>
+                            <a:xfrm>
+                              <a:off x="1943100" y="7520940"/>
+                              <a:ext cx="2164080" cy="205740"/>
+                            </a:xfrm>
+                            <a:prstGeom prst="rect">
+                              <a:avLst/>
+                            </a:prstGeom>
+                            <a:noFill/>
+                            <a:ln w="9525" cmpd="dbl">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                            </a:ln>
+                          </xdr:spPr>
+                          <xdr:style>
+                            <a:lnRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:lnRef>
+                            <a:fillRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:fillRef>
+                            <a:effectRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:effectRef>
+                            <a:fontRef idx="minor">
+                              <a:schemeClr val="dk1"/>
+                            </a:fontRef>
+                          </xdr:style>
+                          <xdr:txBody>
+                            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                            <a:lstStyle/>
+                            <a:p>
+                              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            </a:p>
+                          </xdr:txBody>
+                        </xdr:sp>
+                        <xdr:sp macro="" textlink="">
+                          <xdr:nvSpPr>
+                            <xdr:cNvPr id="12" name="文本框 11"/>
+                            <xdr:cNvSpPr txBox="1"/>
+                          </xdr:nvSpPr>
+                          <xdr:spPr>
+                            <a:xfrm>
+                              <a:off x="4671060" y="5981700"/>
+                              <a:ext cx="2164080" cy="205740"/>
+                            </a:xfrm>
+                            <a:prstGeom prst="rect">
+                              <a:avLst/>
+                            </a:prstGeom>
+                            <a:noFill/>
+                            <a:ln w="9525" cmpd="dbl">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                            </a:ln>
+                          </xdr:spPr>
+                          <xdr:style>
+                            <a:lnRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:lnRef>
+                            <a:fillRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:fillRef>
+                            <a:effectRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:effectRef>
+                            <a:fontRef idx="minor">
+                              <a:schemeClr val="dk1"/>
+                            </a:fontRef>
+                          </xdr:style>
+                          <xdr:txBody>
+                            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                            <a:lstStyle/>
+                            <a:p>
+                              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            </a:p>
+                          </xdr:txBody>
+                        </xdr:sp>
+                        <xdr:cxnSp macro="">
+                          <xdr:nvCxnSpPr>
+                            <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+                            <xdr:cNvCxnSpPr>
+                              <a:stCxn id="10" idx="3"/>
+                            </xdr:cNvCxnSpPr>
+                          </xdr:nvCxnSpPr>
+                          <xdr:spPr>
+                            <a:xfrm flipV="1">
+                              <a:off x="4099560" y="3162300"/>
+                              <a:ext cx="487680" cy="140970"/>
+                            </a:xfrm>
+                            <a:prstGeom prst="straightConnector1">
+                              <a:avLst/>
+                            </a:prstGeom>
+                            <a:ln>
+                              <a:tailEnd type="triangle"/>
+                            </a:ln>
+                          </xdr:spPr>
+                          <xdr:style>
+                            <a:lnRef idx="1">
+                              <a:schemeClr val="accent2"/>
+                            </a:lnRef>
+                            <a:fillRef idx="0">
+                              <a:schemeClr val="accent2"/>
+                            </a:fillRef>
+                            <a:effectRef idx="0">
+                              <a:schemeClr val="accent2"/>
+                            </a:effectRef>
+                            <a:fontRef idx="minor">
+                              <a:schemeClr val="tx1"/>
+                            </a:fontRef>
+                          </xdr:style>
+                        </xdr:cxnSp>
+                        <xdr:cxnSp macro="">
+                          <xdr:nvCxnSpPr>
+                            <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+                            <xdr:cNvCxnSpPr/>
+                          </xdr:nvCxnSpPr>
+                          <xdr:spPr>
+                            <a:xfrm flipV="1">
+                              <a:off x="4130040" y="6156960"/>
+                              <a:ext cx="533400" cy="1455420"/>
+                            </a:xfrm>
+                            <a:prstGeom prst="straightConnector1">
+                              <a:avLst/>
+                            </a:prstGeom>
+                            <a:ln>
+                              <a:tailEnd type="triangle"/>
+                            </a:ln>
+                          </xdr:spPr>
+                          <xdr:style>
+                            <a:lnRef idx="1">
+                              <a:schemeClr val="accent2"/>
+                            </a:lnRef>
+                            <a:fillRef idx="0">
+                              <a:schemeClr val="accent2"/>
+                            </a:fillRef>
+                            <a:effectRef idx="0">
+                              <a:schemeClr val="accent2"/>
+                            </a:effectRef>
+                            <a:fontRef idx="minor">
+                              <a:schemeClr val="tx1"/>
+                            </a:fontRef>
+                          </xdr:style>
+                        </xdr:cxnSp>
+                      </xdr:grpSp>
+                      <xdr:sp macro="" textlink="">
+                        <xdr:nvSpPr>
+                          <xdr:cNvPr id="18" name="文本框 17"/>
+                          <xdr:cNvSpPr txBox="1"/>
+                        </xdr:nvSpPr>
+                        <xdr:spPr>
+                          <a:xfrm>
+                            <a:off x="876300" y="2628900"/>
+                            <a:ext cx="1897380" cy="274320"/>
+                          </a:xfrm>
+                          <a:prstGeom prst="rect">
+                            <a:avLst/>
+                          </a:prstGeom>
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:ln w="12700" cmpd="sng">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:ln>
+                        </xdr:spPr>
+                        <xdr:style>
+                          <a:lnRef idx="0">
+                            <a:scrgbClr r="0" g="0" b="0"/>
+                          </a:lnRef>
+                          <a:fillRef idx="0">
+                            <a:scrgbClr r="0" g="0" b="0"/>
+                          </a:fillRef>
+                          <a:effectRef idx="0">
+                            <a:scrgbClr r="0" g="0" b="0"/>
+                          </a:effectRef>
+                          <a:fontRef idx="minor">
+                            <a:schemeClr val="dk1"/>
+                          </a:fontRef>
+                        </xdr:style>
+                        <xdr:txBody>
+                          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                          <a:lstStyle/>
+                          <a:p>
+                            <a:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+                                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <a:t>add:ffff9f0f3fabe080</a:t>
+                            </a:r>
+                            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+                              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                            </a:endParaRPr>
+                          </a:p>
+                        </xdr:txBody>
+                      </xdr:sp>
+                      <xdr:sp macro="" textlink="">
+                        <xdr:nvSpPr>
+                          <xdr:cNvPr id="19" name="文本框 18"/>
+                          <xdr:cNvSpPr txBox="1"/>
+                        </xdr:nvSpPr>
+                        <xdr:spPr>
+                          <a:xfrm>
+                            <a:off x="6758939" y="3086100"/>
+                            <a:ext cx="2716523" cy="274320"/>
+                          </a:xfrm>
+                          <a:prstGeom prst="rect">
+                            <a:avLst/>
+                          </a:prstGeom>
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:ln w="12700" cmpd="sng">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:ln>
+                        </xdr:spPr>
+                        <xdr:style>
+                          <a:lnRef idx="0">
+                            <a:scrgbClr r="0" g="0" b="0"/>
+                          </a:lnRef>
+                          <a:fillRef idx="0">
+                            <a:scrgbClr r="0" g="0" b="0"/>
+                          </a:fillRef>
+                          <a:effectRef idx="0">
+                            <a:scrgbClr r="0" g="0" b="0"/>
+                          </a:effectRef>
+                          <a:fontRef idx="minor">
+                            <a:schemeClr val="dk1"/>
+                          </a:fontRef>
+                        </xdr:style>
+                        <xdr:txBody>
+                          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                          <a:lstStyle/>
+                          <a:p>
+                            <a:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+                                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <a:t>cpu_slab = 0x389c41803ee0</a:t>
+                            </a:r>
+                            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+                              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                            </a:endParaRPr>
+                          </a:p>
+                        </xdr:txBody>
+                      </xdr:sp>
+                      <xdr:sp macro="" textlink="">
+                        <xdr:nvSpPr>
+                          <xdr:cNvPr id="31" name="文本框 30"/>
+                          <xdr:cNvSpPr txBox="1"/>
+                        </xdr:nvSpPr>
+                        <xdr:spPr>
+                          <a:xfrm>
+                            <a:off x="6873240" y="6057900"/>
+                            <a:ext cx="2811780" cy="274320"/>
+                          </a:xfrm>
+                          <a:prstGeom prst="rect">
+                            <a:avLst/>
+                          </a:prstGeom>
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:ln w="12700" cmpd="sng">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:ln>
+                        </xdr:spPr>
+                        <xdr:style>
+                          <a:lnRef idx="0">
+                            <a:scrgbClr r="0" g="0" b="0"/>
+                          </a:lnRef>
+                          <a:fillRef idx="0">
+                            <a:scrgbClr r="0" g="0" b="0"/>
+                          </a:fillRef>
+                          <a:effectRef idx="0">
+                            <a:scrgbClr r="0" g="0" b="0"/>
+                          </a:effectRef>
+                          <a:fontRef idx="minor">
+                            <a:schemeClr val="dk1"/>
+                          </a:fontRef>
+                        </xdr:style>
+                        <xdr:txBody>
+                          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                          <a:lstStyle/>
+                          <a:p>
+                            <a:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+                                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <a:t>node = {0xffff9f0f3baed340, 0x0,..}</a:t>
+                            </a:r>
+                            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+                              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                            </a:endParaRPr>
+                          </a:p>
+                        </xdr:txBody>
+                      </xdr:sp>
+                    </xdr:grpSp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="33" name="文本框 32"/>
+                        <xdr:cNvSpPr txBox="1"/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="5532120" y="4389120"/>
+                          <a:ext cx="3361561" cy="275717"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="12700">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="0">
+                          <a:scrgbClr r="0" g="0" b="0"/>
+                        </a:lnRef>
+                        <a:fillRef idx="0">
+                          <a:scrgbClr r="0" g="0" b="0"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:scrgbClr r="0" g="0" b="0"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="tx1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                          <a:spAutoFit/>
+                        </a:bodyPr>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                            <a:t>kmem_cache_cpu</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            <a:t>主要是对外分配</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                            <a:t>object(</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            <a:t>营业厅性质</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                            <a:t>)</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="47" name="组合 46"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="6789420" y="6992208"/>
+                        <a:ext cx="1606897" cy="895889"/>
+                        <a:chOff x="6789420" y="6992208"/>
+                        <a:chExt cx="1606897" cy="895889"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="40" name="文本框 39"/>
+                        <xdr:cNvSpPr txBox="1"/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="7277100" y="7612380"/>
+                          <a:ext cx="1119217" cy="275717"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="12700">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="0">
+                          <a:scrgbClr r="0" g="0" b="0"/>
+                        </a:lnRef>
+                        <a:fillRef idx="0">
+                          <a:scrgbClr r="0" g="0" b="0"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:scrgbClr r="0" g="0" b="0"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="tx1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                          <a:spAutoFit/>
+                        </a:bodyPr>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            <a:t>放置全满的</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                            <a:t>slab</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="41" name="文本框 40"/>
+                        <xdr:cNvSpPr txBox="1"/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="7277101" y="6992208"/>
+                          <a:ext cx="1119216" cy="248190"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln w="12700">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="0">
+                          <a:scrgbClr r="0" g="0" b="0"/>
+                        </a:lnRef>
+                        <a:fillRef idx="0">
+                          <a:scrgbClr r="0" g="0" b="0"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:scrgbClr r="0" g="0" b="0"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="tx1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                          <a:noAutofit/>
+                        </a:bodyPr>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:r>
+                            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                            <a:t>放置半满的</a:t>
+                          </a:r>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                            <a:t>slab</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:cxnSp macro="">
+                      <xdr:nvCxnSpPr>
+                        <xdr:cNvPr id="43" name="直接箭头连接符 42"/>
+                        <xdr:cNvCxnSpPr>
+                          <a:endCxn id="41" idx="1"/>
+                        </xdr:cNvCxnSpPr>
+                      </xdr:nvCxnSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="7086601" y="7086600"/>
+                          <a:ext cx="190500" cy="29703"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="straightConnector1">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:ln>
+                          <a:tailEnd type="triangle"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="1">
+                          <a:schemeClr val="accent2"/>
+                        </a:lnRef>
+                        <a:fillRef idx="0">
+                          <a:schemeClr val="accent2"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent2"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="tx1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                    </xdr:cxnSp>
+                    <xdr:cxnSp macro="">
+                      <xdr:nvCxnSpPr>
+                        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+                        <xdr:cNvCxnSpPr>
+                          <a:endCxn id="40" idx="1"/>
+                        </xdr:cNvCxnSpPr>
+                      </xdr:nvCxnSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="6789420" y="7741920"/>
+                          <a:ext cx="487680" cy="8319"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="straightConnector1">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:ln>
+                          <a:tailEnd type="triangle"/>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent2"/>
+                        </a:lnRef>
+                        <a:fillRef idx="0">
+                          <a:schemeClr val="accent2"/>
+                        </a:fillRef>
+                        <a:effectRef idx="1">
+                          <a:schemeClr val="accent2"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="tx1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                    </xdr:cxnSp>
+                  </xdr:grpSp>
+                </xdr:grpSp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="26" name="文本框 25"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
                   <xdr:spPr>
                     <a:xfrm>
-                      <a:off x="4251960" y="2209800"/>
-                      <a:ext cx="4723765" cy="1980565"/>
+                      <a:off x="6705601" y="3611880"/>
+                      <a:ext cx="1807535" cy="273460"/>
                     </a:xfrm>
                     <a:prstGeom prst="rect">
                       <a:avLst/>
                     </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="12700">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
                   </xdr:spPr>
-                </xdr:pic>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="4" name="图片 3"/>
-                    <xdr:cNvPicPr/>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill>
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-                    <a:stretch>
-                      <a:fillRect/>
-                    </a:stretch>
-                  </xdr:blipFill>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:r>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                        <a:t>指向下一个空闲的对象</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:endCxn id="26" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
                   <xdr:spPr>
                     <a:xfrm>
-                      <a:off x="4244340" y="5189220"/>
-                      <a:ext cx="5256530" cy="2285365"/>
+                      <a:off x="6339840" y="3688080"/>
+                      <a:ext cx="365761" cy="60530"/>
                     </a:xfrm>
-                    <a:prstGeom prst="rect">
+                    <a:prstGeom prst="straightConnector1">
                       <a:avLst/>
                     </a:prstGeom>
+                    <a:ln>
+                      <a:tailEnd type="triangle"/>
+                    </a:ln>
                   </xdr:spPr>
-                </xdr:pic>
-                <xdr:pic>
-                  <xdr:nvPicPr>
-                    <xdr:cNvPr id="5" name="图片 4"/>
-                    <xdr:cNvPicPr/>
-                  </xdr:nvPicPr>
-                  <xdr:blipFill rotWithShape="1">
-                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-                    <a:srcRect r="31375" b="290"/>
-                    <a:stretch/>
-                  </xdr:blipFill>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="617220" y="2240280"/>
-                      <a:ext cx="3619500" cy="5242560"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </xdr:spPr>
-                </xdr:pic>
+                  <xdr:style>
+                    <a:lnRef idx="1">
+                      <a:schemeClr val="accent2"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="accent2"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent2"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
               </xdr:grpSp>
               <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="9" name="文本框 8"/>
+                  <xdr:cNvPr id="29" name="文本框 28"/>
                   <xdr:cNvSpPr txBox="1"/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="4602480" y="3040380"/>
-                    <a:ext cx="2164080" cy="205740"/>
+                    <a:off x="1569720" y="1630680"/>
+                    <a:ext cx="1508760" cy="213360"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
                   <a:noFill/>
-                  <a:ln w="9525" cmpd="dbl">
+                  <a:ln w="12700">
                     <a:solidFill>
                       <a:srgbClr val="FF0000"/>
                     </a:solidFill>
@@ -340,32 +1385,42 @@
                     <a:scrgbClr r="0" g="0" b="0"/>
                   </a:effectRef>
                   <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
+                    <a:schemeClr val="tx1"/>
                   </a:fontRef>
                 </xdr:style>
                 <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                    <a:noAutofit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                      <a:t>192 /prco/slabinfo</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                      <a:t>信息</a:t>
+                    </a:r>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
               <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="10" name="文本框 9"/>
+                  <xdr:cNvPr id="30" name="文本框 29"/>
                   <xdr:cNvSpPr txBox="1"/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="1935480" y="3200400"/>
-                    <a:ext cx="2164080" cy="205740"/>
+                    <a:off x="1676400" y="1844040"/>
+                    <a:ext cx="1508760" cy="213360"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
                   <a:noFill/>
-                  <a:ln w="9525" cmpd="dbl">
+                  <a:ln w="12700">
                     <a:solidFill>
                       <a:srgbClr val="FF0000"/>
                     </a:solidFill>
@@ -382,32 +1437,42 @@
                     <a:scrgbClr r="0" g="0" b="0"/>
                   </a:effectRef>
                   <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
+                    <a:schemeClr val="tx1"/>
                   </a:fontRef>
                 </xdr:style>
                 <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                    <a:noAutofit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                      <a:t>123 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                      <a:t>实际自己设置的</a:t>
+                    </a:r>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
               <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
-                  <xdr:cNvPr id="11" name="文本框 10"/>
+                  <xdr:cNvPr id="36" name="文本框 35"/>
                   <xdr:cNvSpPr txBox="1"/>
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="1943100" y="7520940"/>
-                    <a:ext cx="2164080" cy="205740"/>
+                    <a:off x="1234440" y="1981200"/>
+                    <a:ext cx="312420" cy="205740"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
                   <a:noFill/>
-                  <a:ln w="9525" cmpd="dbl">
+                  <a:ln w="12700">
                     <a:solidFill>
                       <a:srgbClr val="FF0000"/>
                     </a:solidFill>
@@ -424,376 +1489,163 @@
                     <a:scrgbClr r="0" g="0" b="0"/>
                   </a:effectRef>
                   <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
+                    <a:schemeClr val="tx1"/>
                   </a:fontRef>
                 </xdr:style>
                 <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                    <a:noAutofit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                      <a:t>128</a:t>
+                    </a:r>
                     <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="12" name="文本框 11"/>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="4671060" y="5981700"/>
-                    <a:ext cx="2164080" cy="205740"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln w="9525" cmpd="dbl">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:cxnSp macro="">
-                <xdr:nvCxnSpPr>
-                  <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
-                  <xdr:cNvCxnSpPr>
-                    <a:stCxn id="10" idx="3"/>
-                  </xdr:cNvCxnSpPr>
-                </xdr:nvCxnSpPr>
-                <xdr:spPr>
-                  <a:xfrm flipV="1">
-                    <a:off x="4099560" y="3162300"/>
-                    <a:ext cx="487680" cy="140970"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="straightConnector1">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:ln>
-                    <a:tailEnd type="triangle"/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="1">
-                    <a:schemeClr val="accent2"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:schemeClr val="accent2"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent2"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="tx1"/>
-                  </a:fontRef>
-                </xdr:style>
-              </xdr:cxnSp>
-              <xdr:cxnSp macro="">
-                <xdr:nvCxnSpPr>
-                  <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
-                  <xdr:cNvCxnSpPr/>
-                </xdr:nvCxnSpPr>
-                <xdr:spPr>
-                  <a:xfrm flipV="1">
-                    <a:off x="4130040" y="6156960"/>
-                    <a:ext cx="533400" cy="1455420"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="straightConnector1">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:ln>
-                    <a:tailEnd type="triangle"/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="1">
-                    <a:schemeClr val="accent2"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:schemeClr val="accent2"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent2"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="tx1"/>
-                  </a:fontRef>
-                </xdr:style>
-              </xdr:cxnSp>
             </xdr:grpSp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="18" name="文本框 17"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="23" name="图片 22"/>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="876300" y="2628900"/>
-                  <a:ext cx="1897380" cy="274320"/>
+                  <a:off x="0" y="1539240"/>
+                  <a:ext cx="3742143" cy="2209800"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:ln w="12700" cmpd="sng">
+              </xdr:spPr>
+            </xdr:pic>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipH="1">
+                  <a:off x="2316480" y="2225040"/>
+                  <a:ext cx="2110740" cy="106680"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
                   <a:solidFill>
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
+                  <a:tailEnd type="triangle"/>
                 </a:ln>
               </xdr:spPr>
               <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
                 </a:lnRef>
                 <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
+                  <a:schemeClr val="accent1"/>
                 </a:fillRef>
                 <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
+                  <a:schemeClr val="accent1"/>
                 </a:effectRef>
                 <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:fontRef>
               </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:r>
-                    <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <a:t>add:ffff9f0f3fabe080</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="19" name="文本框 18"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
               <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="6758940" y="3086100"/>
-                  <a:ext cx="2316480" cy="274320"/>
+                <a:xfrm flipH="1">
+                  <a:off x="2080260" y="2590800"/>
+                  <a:ext cx="2042160" cy="495300"/>
                 </a:xfrm>
-                <a:prstGeom prst="rect">
+                <a:prstGeom prst="straightConnector1">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:ln w="12700" cmpd="sng">
+                <a:ln>
                   <a:solidFill>
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
+                  <a:tailEnd type="triangle"/>
                 </a:ln>
               </xdr:spPr>
               <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
                 </a:lnRef>
                 <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
+                  <a:schemeClr val="accent1"/>
                 </a:fillRef>
                 <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
+                  <a:schemeClr val="accent1"/>
                 </a:effectRef>
                 <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:fontRef>
               </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:r>
-                    <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <a:t>cpu_slab = 0x389c41803ee0</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="31" name="文本框 30"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
               <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="6873240" y="6057900"/>
-                  <a:ext cx="2811780" cy="274320"/>
+                <a:xfrm flipH="1">
+                  <a:off x="1120140" y="2407920"/>
+                  <a:ext cx="2979420" cy="662940"/>
                 </a:xfrm>
-                <a:prstGeom prst="rect">
+                <a:prstGeom prst="straightConnector1">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:ln w="12700" cmpd="sng">
+                <a:ln>
                   <a:solidFill>
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
+                  <a:tailEnd type="triangle"/>
                 </a:ln>
               </xdr:spPr>
               <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
                 </a:lnRef>
                 <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
+                  <a:schemeClr val="accent1"/>
                 </a:fillRef>
                 <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
+                  <a:schemeClr val="accent1"/>
                 </a:effectRef>
                 <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:fontRef>
               </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:r>
-                    <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <a:t>node = {0xffff9f0f3baed340, 0x0,..}</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
+            </xdr:cxnSp>
           </xdr:grpSp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="33" name="文本框 32"/>
+              <xdr:cNvPr id="50" name="文本框 49"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="5532120" y="4389120"/>
-                <a:ext cx="3361561" cy="275717"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                  <a:t>kmem_cache_cpu</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                  <a:t>主要是对外分配</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                  <a:t>object(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                  <a:t>营业厅性质</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="47" name="组合 46"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="6789420" y="6964680"/>
-              <a:ext cx="1606897" cy="923417"/>
-              <a:chOff x="6789420" y="6964680"/>
-              <a:chExt cx="1606897" cy="923417"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="40" name="文本框 39"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="7277100" y="7612380"/>
-                <a:ext cx="1119217" cy="275717"/>
+                <a:off x="7010400" y="1082040"/>
+                <a:ext cx="3046155" cy="275717"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -827,147 +1679,162 @@
               <a:p>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                  <a:t>放置全满的</a:t>
+                  <a:t>每一个</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                  <a:t>slab</a:t>
+                  <a:t>CPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:t>包含一个</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                  <a:t>kmem_cache_cpu</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+                  <a:t>数据结构</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="41" name="文本框 40"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="7277100" y="6964680"/>
-                <a:ext cx="1119217" cy="275717"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                  <a:t>放置半满的</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                  <a:t>slab</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="43" name="直接箭头连接符 42"/>
-              <xdr:cNvCxnSpPr>
-                <a:endCxn id="41" idx="1"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="7086600" y="7086600"/>
-                <a:ext cx="190500" cy="15939"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="triangle"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="accent2"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="accent2"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent2"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
-              <xdr:cNvCxnSpPr>
-                <a:endCxn id="40" idx="1"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="6789420" y="7741920"/>
-                <a:ext cx="487680" cy="8319"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="triangle"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent2"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="accent2"/>
-              </a:fillRef>
-              <a:effectRef idx="1">
-                <a:schemeClr val="accent2"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
         </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="文本框 50"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8953500" y="2179320"/>
+              <a:ext cx="1397562" cy="251461"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>slab</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>内存的</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>page</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>指针</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="文本框 51"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9136380" y="2430780"/>
+              <a:ext cx="2465996" cy="275717"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>本地</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>slab</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>链表，包含部分使用的</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>object</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="文本框 25"/>
+          <xdr:cNvPr id="57" name="文本框 56"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6705600" y="3611880"/>
-            <a:ext cx="1172116" cy="275717"/>
+            <a:off x="9745980" y="4815840"/>
+            <a:ext cx="1489510" cy="245237"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -995,54 +1862,220 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>slab</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>指向空闲的对象</a:t>
+              <a:t>节点中</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>slab</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>是数量</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="26" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6339840" y="3688080"/>
-            <a:ext cx="365760" cy="61659"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="图片 59" descr="http://www-x-wowotech-x-net.img.abc188.com/content/uploadfile/201803/4a471520078976.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8084820" y="6141720"/>
+          <a:ext cx="14295120" cy="13868400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>522933</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>103776</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="组合 62"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="106680" y="6422335"/>
+          <a:ext cx="7963366" cy="16130624"/>
+          <a:chOff x="647700" y="7520940"/>
+          <a:chExt cx="7960053" cy="15900036"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="61" name="图片 60"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1074420" y="7520940"/>
+            <a:ext cx="7533333" cy="8200000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="62" name="图片 61"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="647700" y="15430500"/>
+            <a:ext cx="7504762" cy="7990476"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1881349" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="文本框 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1912620" y="8046720"/>
+          <a:ext cx="1881349" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1(page) 0000000000101010()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1333,32 +2366,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:D10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="10" spans="3:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GraphicalLinuxSubsystem.xlsx
+++ b/GraphicalLinuxSubsystem.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="slab结构体关系" sheetId="1" r:id="rId1"/>
+    <sheet name="【1】slab结构体关系" sheetId="1" r:id="rId1"/>
+    <sheet name="【2】rq结构体关系图" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -2079,6 +2080,1164 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6234</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1119217" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4029594"/>
+          <a:ext cx="1119217" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>放置半满的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>slab</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>109224</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="组合 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="106680" y="4082934"/>
+          <a:ext cx="12824460" cy="13034130"/>
+          <a:chOff x="0" y="4029594"/>
+          <a:chExt cx="12824460" cy="13034130"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="组合 10"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="0" y="4029594"/>
+            <a:ext cx="12824460" cy="13034130"/>
+            <a:chOff x="0" y="3808614"/>
+            <a:chExt cx="12824460" cy="13034130"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="4" name="组合 3"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7694122" y="3808614"/>
+              <a:ext cx="5130338" cy="13034130"/>
+              <a:chOff x="8331430" y="-355685"/>
+              <a:chExt cx="5130338" cy="13033700"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="2" name="图片 1"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill rotWithShape="1">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+              <a:srcRect r="44187" b="-805"/>
+              <a:stretch/>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8331431" y="-355685"/>
+                <a:ext cx="5092237" cy="7171569"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="3" name="图片 2"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill rotWithShape="1">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+              <a:srcRect l="-1" t="235" r="43593"/>
+              <a:stretch/>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8331430" y="6739687"/>
+                <a:ext cx="5130338" cy="5938328"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="图片 4"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3837709"/>
+              <a:ext cx="7695238" cy="3187705"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="文本框 15"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8587740" y="6743700"/>
+            <a:ext cx="1775460" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="文本框 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8580120" y="6972300"/>
+            <a:ext cx="1775460" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>395702</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12550140" y="19057620"/>
+          <a:ext cx="4304762" cy="8009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1119217" cy="207137"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9860280" y="365760"/>
+          <a:ext cx="1119217" cy="207137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>放置半满的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>slab</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>131582</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文本框 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17495520" y="497342"/>
+          <a:ext cx="1454244" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>进程开始执行的时间</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>499111</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>35694</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="组合 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13300711" y="236220"/>
+          <a:ext cx="5436869" cy="12235314"/>
+          <a:chOff x="13285471" y="274320"/>
+          <a:chExt cx="5436869" cy="12235314"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="32" name="组合 31"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13285471" y="274320"/>
+            <a:ext cx="5436869" cy="12235314"/>
+            <a:chOff x="13285471" y="274320"/>
+            <a:chExt cx="5436869" cy="12235314"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="31" name="组合 30"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="13285471" y="274320"/>
+              <a:ext cx="5436869" cy="12235314"/>
+              <a:chOff x="12881611" y="190500"/>
+              <a:chExt cx="5436869" cy="12235314"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="29" name="组合 28"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="12881611" y="190500"/>
+                <a:ext cx="4183380" cy="12235314"/>
+                <a:chOff x="12881611" y="190500"/>
+                <a:chExt cx="4183380" cy="12235314"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="24" name="组合 23"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="12881611" y="190500"/>
+                  <a:ext cx="4183380" cy="12235314"/>
+                  <a:chOff x="12896851" y="236220"/>
+                  <a:chExt cx="4183380" cy="12235314"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="22" name="组合 21"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="12896851" y="278130"/>
+                    <a:ext cx="4183380" cy="12193404"/>
+                    <a:chOff x="14104621" y="1188720"/>
+                    <a:chExt cx="4183380" cy="12185784"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="20" name="图片 19"/>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill rotWithShape="1">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                    <a:srcRect t="1" r="15038" b="-60"/>
+                    <a:stretch/>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="14104621" y="1188720"/>
+                      <a:ext cx="4183380" cy="8176260"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="21" name="图片 20"/>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill rotWithShape="1">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+                    <a:srcRect t="950" r="23505"/>
+                    <a:stretch/>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="14112240" y="9403080"/>
+                      <a:ext cx="4145280" cy="3971424"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+              </xdr:grpSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="15" name="文本框 14"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="13014960" y="236220"/>
+                    <a:ext cx="800100" cy="264560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="12700">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="25" name="文本框 24"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="15118080" y="655320"/>
+                  <a:ext cx="1595309" cy="214757"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:t>当前就绪队列的总权重</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="26" name="文本框 25"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="14767560" y="1272540"/>
+                  <a:ext cx="1595309" cy="214757"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:t>当前就绪队列的总进程数</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="28" name="文本框 27"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="14775180" y="1714500"/>
+                  <a:ext cx="746759" cy="198119"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                    <a:t>实际时钟</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="30" name="文本框 29"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="15758160" y="2941320"/>
+                <a:ext cx="2560320" cy="243840"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:t>指向当前进程的</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                  <a:t>sched_entity(task_struct)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="文本框 26"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16306800" y="1981201"/>
+              <a:ext cx="2270760" cy="205740"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>当前队列运行时间最小的虚拟时间</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="文本框 34"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13655040" y="3055620"/>
+            <a:ext cx="2446020" cy="180740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>561224</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>149839</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="组合 40"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18912840" y="289560"/>
+          <a:ext cx="6032384" cy="13210519"/>
+          <a:chOff x="18912840" y="289560"/>
+          <a:chExt cx="6032384" cy="13210519"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="39" name="组合 38"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="18912840" y="289560"/>
+            <a:ext cx="6032384" cy="13210519"/>
+            <a:chOff x="18912840" y="289560"/>
+            <a:chExt cx="6032384" cy="13210519"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="38" name="组合 37"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="18935700" y="289560"/>
+              <a:ext cx="6009524" cy="8085714"/>
+              <a:chOff x="18935700" y="289560"/>
+              <a:chExt cx="6009524" cy="8085714"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="33" name="图片 32"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="18935700" y="289560"/>
+                <a:ext cx="6009524" cy="8085714"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="34" name="文本框 33"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="18958560" y="502920"/>
+                <a:ext cx="1836420" cy="205740"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="图片 36"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18912840" y="8252460"/>
+              <a:ext cx="5161905" cy="5247619"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="文本框 39"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20855940" y="899160"/>
+            <a:ext cx="1172116" cy="213359"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>当前进程的权重</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146823</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="218938"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="文本框 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21777960" y="3621543"/>
+          <a:ext cx="1454244" cy="218938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>进程开始执行的时间</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -2368,7 +3527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -2428,4 +3587,21 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/GraphicalLinuxSubsystem.xlsx
+++ b/GraphicalLinuxSubsystem.xlsx
@@ -4,18 +4,56 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="【1】slab结构体关系" sheetId="1" r:id="rId1"/>
-    <sheet name="【2】rq结构体关系图" sheetId="2" r:id="rId2"/>
+    <sheet name="目录" sheetId="13" r:id="rId1"/>
+    <sheet name="【1】slab结构体关系" sheetId="1" r:id="rId2"/>
+    <sheet name="【2】rq结构体关系图" sheetId="2" r:id="rId3"/>
+    <sheet name="【3】task_struct" sheetId="3" r:id="rId4"/>
+    <sheet name="【4】mm_struct" sheetId="4" r:id="rId5"/>
+    <sheet name="【5】vm_area_struct" sheetId="5" r:id="rId6"/>
+    <sheet name="【6】page" sheetId="6" r:id="rId7"/>
+    <sheet name="【7】rq" sheetId="7" r:id="rId8"/>
+    <sheet name="【8】zone" sheetId="8" r:id="rId9"/>
+    <sheet name="【9】kmem_cache" sheetId="9" r:id="rId10"/>
+    <sheet name="【10】vm_fault" sheetId="10" r:id="rId11"/>
+    <sheet name="【11】file_operations" sheetId="11" r:id="rId12"/>
+    <sheet name="【12】vm_operations_struct" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet10" sheetId="12" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_11新建文本文档__9" localSheetId="13">Sheet10!$C$4:$E$19</definedName>
+    <definedName name="_11新建文本文档__9__1" localSheetId="13">Sheet10!$C$32:$D$47</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="11新建文本文档 (9)" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="C:\Users\zhaozonggang\Desktop\11新建文本文档 (9).txt" delimited="0">
+      <textFields count="3">
+        <textField/>
+        <textField position="3"/>
+        <textField position="7"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="11新建文本文档 (9)1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="C:\Users\zhaozonggang\Desktop\11新建文本文档 (9).txt" delimited="0">
+      <textFields count="2">
+        <textField/>
+        <textField position="7"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>参考网址：http://www.wowotech.net/memory_management/426.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,6 +64,146 @@
   </si>
   <si>
     <t>参考网址：https://blog.csdn.net/lukuen/article/details/6935068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slab结构体关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rq结构体关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_struct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm_struct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vm_area_struct</t>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>kmem_cache</t>
+  </si>
+  <si>
+    <t>vm_fault</t>
+  </si>
+  <si>
+    <t>file_operations</t>
+  </si>
+  <si>
+    <t>vm_operations_struct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>uct</t>
+  </si>
+  <si>
+    <t>vm_operations_struct {</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>void (*open)(struct vm_area_struct *);</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>void (*close)(struct vm_area_struct *);</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>int (*mremap)(struct vm_area_struct *);</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>int (*fault)(struct vm_area_struct *, struct vm_fault *);</t>
+  </si>
+  <si>
+    <t>[32]</t>
+  </si>
+  <si>
+    <t>int (*pmd_fault)(struct vm_area_struct *, unsigned long, pmd_t *, unsigned int);</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>void (*map_pages)(struct fault_env *, unsigned long, unsigned long);</t>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>int (*page_mkwrite)(struct vm_area_struct *, struct vm_fault *);</t>
+  </si>
+  <si>
+    <t>[56]</t>
+  </si>
+  <si>
+    <t>int (*pfn_mkwrite)(struct vm_area_struct *, struct vm_fault *);</t>
+  </si>
+  <si>
+    <t>[64]</t>
+  </si>
+  <si>
+    <t>int (*access)(struct vm_area_struct *, unsigned long, void *, int, int);</t>
+  </si>
+  <si>
+    <t>const char *(*name)(struct vm_area_struct *);</t>
+  </si>
+  <si>
+    <t>[80]</t>
+  </si>
+  <si>
+    <t>int (*set_policy)(struct vm_area_struct *, struct mempolicy *);</t>
+  </si>
+  <si>
+    <t>struct mempolicy *(*get_policy)(struct vm_area_struct *, unsigned long);</t>
+  </si>
+  <si>
+    <t>struct page *(*find_special_page)(struct vm_area_struct *, unsigned long);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>SIZ</t>
+  </si>
+  <si>
+    <t>E: 1</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>SIZE: 1</t>
+  </si>
+  <si>
+    <t>const char *(*name)(struct vm_area_struct *);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -49,15 +227,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,11 +249,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -77,6 +276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2080,6 +2283,135 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>427276</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="365760"/>
+          <a:ext cx="10790476" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>398552</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>157249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="365760"/>
+          <a:ext cx="11980952" cy="6923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>122362</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>79589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="365760"/>
+          <a:ext cx="11704762" cy="3371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -3238,6 +3570,611 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100040</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>68423</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="组合 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="609600" y="548640"/>
+          <a:ext cx="7415240" cy="40850663"/>
+          <a:chOff x="609600" y="548640"/>
+          <a:chExt cx="7415240" cy="40850663"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="组合 11"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="609600" y="548640"/>
+            <a:ext cx="6880003" cy="39603981"/>
+            <a:chOff x="609600" y="548640"/>
+            <a:chExt cx="6880003" cy="39603981"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="11" name="组合 10"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="609600" y="548640"/>
+              <a:ext cx="6880003" cy="32035369"/>
+              <a:chOff x="609600" y="548640"/>
+              <a:chExt cx="6880003" cy="32035369"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="组合 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="609600" y="548640"/>
+                <a:ext cx="6880003" cy="23887709"/>
+                <a:chOff x="609600" y="548640"/>
+                <a:chExt cx="6880003" cy="23887709"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="9" name="组合 8"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="609600" y="548640"/>
+                  <a:ext cx="6727622" cy="15961025"/>
+                  <a:chOff x="609600" y="548640"/>
+                  <a:chExt cx="6727622" cy="15961025"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="2" name="图片 1"/>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="609600" y="548640"/>
+                    <a:ext cx="6714286" cy="8180952"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+              </xdr:pic>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="3" name="图片 2"/>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="632460" y="8747760"/>
+                    <a:ext cx="6704762" cy="7761905"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+              </xdr:pic>
+            </xdr:grpSp>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="4" name="图片 3"/>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="632460" y="16512540"/>
+                  <a:ext cx="6857143" cy="7923809"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+            </xdr:pic>
+          </xdr:grpSp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="6" name="图片 5"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="655320" y="24460200"/>
+                <a:ext cx="6609524" cy="8123809"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="图片 6"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="624840" y="32400240"/>
+              <a:ext cx="6685714" cy="7752381"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="图片 7"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="624840" y="40142160"/>
+            <a:ext cx="7400000" cy="1257143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>269069</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>119388</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="937260" y="144780"/>
+          <a:ext cx="11523809" cy="12959088"/>
+          <a:chOff x="1219200" y="365760"/>
+          <a:chExt cx="11523809" cy="12959088"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="图片 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="365760"/>
+            <a:ext cx="11523809" cy="7990476"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图片 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1249680" y="8305800"/>
+            <a:ext cx="11428571" cy="5019048"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>217828</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="365760"/>
+          <a:ext cx="9971428" cy="5228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>446247</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>136765</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="609600" y="548640"/>
+          <a:ext cx="11419047" cy="11292445"/>
+          <a:chOff x="609600" y="548640"/>
+          <a:chExt cx="11419047" cy="11292445"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="图片 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="548640"/>
+            <a:ext cx="11419047" cy="8171428"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图片 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="8679180"/>
+            <a:ext cx="11047619" cy="3161905"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>592988</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>35587</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="594360" y="182880"/>
+          <a:ext cx="10971428" cy="12837187"/>
+          <a:chOff x="594360" y="182880"/>
+          <a:chExt cx="10971428" cy="12837187"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="图片 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="182880"/>
+            <a:ext cx="10771428" cy="8000000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图片 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="594360" y="8153400"/>
+            <a:ext cx="10971428" cy="4866667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>341562</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="548640"/>
+          <a:ext cx="10704762" cy="6666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217676</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="365760"/>
+          <a:ext cx="11190476" cy="5866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="11新建文本文档 (9)_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="11新建文本文档 (9)" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -3525,6 +4462,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="80.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3589,11 +4994,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
@@ -3604,4 +5009,103 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/GraphicalLinuxSubsystem.xlsx
+++ b/GraphicalLinuxSubsystem.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dragon\linux_os\LinuxOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6870" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6876" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="13" r:id="rId1"/>
@@ -41,29 +46,29 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="查询 - 11" description="与工作簿中“11”查询的连接。" type="5" background="1" refreshedVersion="2" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11;Extended Properties=&quot;&quot;" command="SELECT * FROM [11]" commandType="2"/>
+  <connection id="1" name="查询 - 11" description="与工作簿中“11”查询的连接。" type="5" refreshedVersion="2" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11;Extended Properties=&quot;&quot;" command="SELECT * FROM [11]"/>
   </connection>
-  <connection id="2" name="查询 - 11 (2)" description="与工作簿中“11 (2)”查询的连接。" type="5" background="1" refreshedVersion="2" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11 (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [11 (2)]" commandType="2"/>
+  <connection id="2" name="查询 - 11 (2)" description="与工作簿中“11 (2)”查询的连接。" type="5" refreshedVersion="2" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11 (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [11 (2)]"/>
   </connection>
-  <connection id="3" name="查询 - 11 (3)" description="与工作簿中“11 (3)”查询的连接。" type="5" background="1" refreshedVersion="2" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11 (3);Extended Properties=&quot;&quot;" command="SELECT * FROM [11 (3)]" commandType="2"/>
+  <connection id="3" name="查询 - 11 (3)" description="与工作簿中“11 (3)”查询的连接。" type="5" refreshedVersion="2" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11 (3);Extended Properties=&quot;&quot;" command="SELECT * FROM [11 (3)]"/>
   </connection>
-  <connection id="4" name="查询 - 11 (4)" description="与工作簿中“11 (4)”查询的连接。" type="5" background="1" refreshedVersion="2" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11 (4);Extended Properties=&quot;&quot;" command="SELECT * FROM [11 (4)]" commandType="2"/>
+  <connection id="4" name="查询 - 11 (4)" description="与工作簿中“11 (4)”查询的连接。" type="5" refreshedVersion="2" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11 (4);Extended Properties=&quot;&quot;" command="SELECT * FROM [11 (4)]"/>
   </connection>
-  <connection id="5" name="查询 - 11 (5)" description="与工作簿中“11 (5)”查询的连接。" type="5" background="1" refreshedVersion="2" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11 (5);Extended Properties=&quot;&quot;" command="SELECT * FROM [11 (5)]" commandType="2"/>
+  <connection id="5" name="查询 - 11 (5)" description="与工作簿中“11 (5)”查询的连接。" type="5" refreshedVersion="2" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11 (5);Extended Properties=&quot;&quot;" command="SELECT * FROM [11 (5)]"/>
   </connection>
-  <connection id="6" name="查询 - 11 (6)" description="与工作簿中“11 (6)”查询的连接。" type="5" background="1" refreshedVersion="2" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11 (6);Extended Properties=&quot;&quot;" command="SELECT * FROM [11 (6)]" commandType="2"/>
+  <connection id="6" name="查询 - 11 (6)" description="与工作簿中“11 (6)”查询的连接。" type="5" refreshedVersion="2" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=11 (6);Extended Properties=&quot;&quot;" command="SELECT * FROM [11 (6)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="700">
   <si>
     <t>slab结构体关系</t>
   </si>
@@ -179,22 +184,7 @@
     <t xml:space="preserve">    [88] int prio;</t>
   </si>
   <si>
-    <t>进程优先级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [92] int static_prio;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [96] int normal_prio;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [100] unsigned int rt_priority;</t>
-  </si>
-  <si>
     <t xml:space="preserve">   [104] const struct sched_class *sched_class;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [128] struct sched_entity se;</t>
   </si>
   <si>
     <t xml:space="preserve">   [576] struct sched_rt_entity rt;</t>
@@ -247,7 +237,7 @@
         <sz val="9"/>
         <color rgb="FF008000"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">1) mm: </t>
     </r>
@@ -256,6 +246,7 @@
         <sz val="9"/>
         <color rgb="FF008000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>指向进程所拥有的内存描述符</t>
@@ -265,7 +256,7 @@
         <sz val="9"/>
         <color rgb="FF008000"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">   2) active_mm: active_mm</t>
     </r>
@@ -274,6 +265,7 @@
         <sz val="9"/>
         <color rgb="FF008000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>指向进程运行时所使用的内存描述符</t>
@@ -1585,461 +1577,705 @@
     <t>struct kmem_cache {</t>
   </si>
   <si>
+    <t xml:space="preserve">     [8] unsigned long flags;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [16] unsigned long min_partial;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [24] int size;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [28] int object_size;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [32] int offset;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [36] int cpu_partial;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [40] struct kmem_cache_order_objects oo;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [48] struct kmem_cache_order_objects max;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [56] struct kmem_cache_order_objects min;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [64] gfp_t allocflags;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [68] int refcount;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [72] void (*ctor)(void *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [80] int inuse;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [84] int align;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [88] int reserved;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [96] const char *name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [104] struct list_head list;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [120] int red_left_pad;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [128] struct kobject kobj;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [192] struct memcg_cache_params memcg_params;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [232] int max_attr_size;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [240] struct kset *memcg_kset;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [248] int remote_node_defrag_ratio;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [252] struct kasan_cache kasan_info;</t>
+  </si>
+  <si>
+    <t>SIZE: 8456</t>
+  </si>
+  <si>
+    <t>struct vm_fault {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [0] unsigned int flags;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [4] gfp_t gfp_mask;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [8] unsigned long pgoff;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [16] void *virtual_address;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [24] struct page *cow_page;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [32] struct page *page;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [40] void *entry;</t>
+  </si>
+  <si>
+    <t>struct file_operations {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [0] struct module *owner;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [8] loff_t (*llseek)(struct file *, loff_t, int);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [16] ssize_t (*read)(struct file *, char *, size_t, loff_t *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [24] ssize_t (*write)(struct file *, const char *, size_t, loff_t *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [32] ssize_t (*read_iter)(struct kiocb *, struct iov_iter *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [40] ssize_t (*write_iter)(struct kiocb *, struct iov_iter *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [48] int (*iterate)(struct file *, struct dir_context *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [56] int (*iterate_shared)(struct file *, struct dir_context *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [64] unsigned int (*poll)(struct file *, struct poll_table_struct *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [72] long (*unlocked_ioctl)(struct file *, unsigned int, unsigned long);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [80] long (*compat_ioctl)(struct file *, unsigned int, unsigned long);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [88] int (*mmap)(struct file *, struct vm_area_struct *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [96] int (*open)(struct inode *, struct file *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [104] int (*flush)(struct file *, fl_owner_t);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [112] int (*release)(struct inode *, struct file *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [120] int (*fsync)(struct file *, loff_t, loff_t, int);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [128] int (*fasync)(int, struct file *, int);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [136] int (*lock)(struct file *, int, struct file_lock *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [144] ssize_t (*sendpage)(struct file *, struct page *, int, size_t, loff_t *, int);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [152] unsigned long (*get_unmapped_area)(struct file *, unsigned long, unsigned long, unsigned long, unsigned long);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [160] int (*check_flags)(int);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [168] int (*flock)(struct file *, int, struct file_lock *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [176] ssize_t (*splice_write)(struct pipe_inode_info *, struct file *, loff_t *, size_t, unsigned int);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [184] ssize_t (*splice_read)(struct file *, loff_t *, struct pipe_inode_info *, size_t, unsigned int);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [192] int (*setlease)(struct file *, long, struct file_lock **, void **);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [200] long (*fallocate)(struct file *, int, loff_t, loff_t);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [208] void (*show_fdinfo)(struct seq_file *, struct file *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [216] ssize_t (*copy_file_range)(struct file *, loff_t, struct file *, loff_t, size_t, unsigned int);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [224] int (*clone_file_range)(struct file *, loff_t, struct file *, loff_t, u64);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [232] ssize_t (*dedupe_file_range)(struct file *, u64, u64, struct file *, u64);</t>
+  </si>
+  <si>
+    <t>SIZE: 240</t>
+  </si>
+  <si>
+    <t>struct vm_operations_struct {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [0] void (*open)(struct vm_area_struct *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [8] void (*close)(struct vm_area_struct *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [16] int (*mremap)(struct vm_area_struct *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [24] int (*fault)(struct vm_area_struct *, struct vm_fault *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [32] int (*pmd_fault)(struct vm_area_struct *, unsigned long, pmd_t *, unsigned int);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [40] void (*map_pages)(struct fault_env *, unsigned long, unsigned long);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [48] int (*page_mkwrite)(struct vm_area_struct *, struct vm_fault *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [56] int (*pfn_mkwrite)(struct vm_area_struct *, struct vm_fault *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [64] int (*access)(struct vm_area_struct *, unsigned long, void *, int, int);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        const char *(*name)(struct vm_area_struct *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [80] int (*set_policy)(struct vm_area_struct *, struct mempolicy *);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        struct mempolicy *(*get_policy)(struct vm_area_struct *, unsigned long);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        struct page *(*find_special_page)(struct vm_area_struct *, unsigned long);</t>
+  </si>
+  <si>
+    <t>SIZE: 104</t>
+  </si>
+  <si>
+    <t>struct load_weight {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [0] unsigned long weight;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [8] u32 inv_weight;</t>
+  </si>
+  <si>
+    <t>SIZE: 16</t>
+  </si>
+  <si>
+    <t>struct module {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [0] enum module_state state;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [8] struct list_head list;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [24] char name[56];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [80] struct module_kobject mkobj;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [176] struct module_attribute *modinfo_attrs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [184] const char *version;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [192] const char *srcversion;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [200] struct kobject *holders_dir;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [208] const struct kernel_symbol *syms;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [216] const unsigned long *crcs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [224] unsigned int num_syms;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [232] struct mutex param_lock;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [272] struct kernel_param *kp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [280] unsigned int num_kp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [284] unsigned int num_gpl_syms;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [288] const struct kernel_symbol *gpl_syms;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [296] const unsigned long *gpl_crcs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [304] bool sig_ok;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [305] bool async_probe_requested;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [312] const struct kernel_symbol *gpl_future_syms;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [320] const unsigned long *gpl_future_crcs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [328] unsigned int num_gpl_future_syms;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [332] unsigned int num_exentries;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [336] struct exception_table_entry *extable;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [344] int (*init)(void);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [384] struct module_layout core_layout;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [464] struct module_layout init_layout;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [544] struct mod_arch_specific arch;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [544] unsigned int taints;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [548] unsigned int num_bugs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [552] struct list_head bug_list;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [568] struct bug_entry *bug_table;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [576] struct mod_kallsyms *kallsyms;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [584] struct mod_kallsyms core_kallsyms;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [608] struct module_sect_attrs *sect_attrs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [616] struct module_notes_attrs *notes_attrs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [624] char *args;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [632] void *percpu;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [640] unsigned int percpu_size;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [644] unsigned int num_tracepoints;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [648] struct tracepoint * const *tracepoints_ptrs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [656] struct jump_entry *jump_entries;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [664] unsigned int num_jump_entries;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [668] unsigned int num_trace_bprintk_fmt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [672] const char **trace_bprintk_fmt_start;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [680] struct trace_event_call **trace_events;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [688] unsigned int num_trace_events;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [696] struct trace_enum_map **trace_enums;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [704] unsigned int num_trace_enums;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [708] unsigned int num_ftrace_callsites;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [712] unsigned long *ftrace_callsites;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [720] bool klp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [721] bool klp_alive;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [728] struct klp_modinfo *klp_info;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [736] struct list_head source_list;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [752] struct list_head target_list;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [768] void (*exit)(void);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [776] atomic_t refcnt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [784] ctor_fn_t *ctors;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [792] unsigned int num_ctors;</t>
+  </si>
+  <si>
+    <t>SIZE: 832</t>
+  </si>
+  <si>
     <t xml:space="preserve">     [0] struct kmem_cache_cpu *cpu_slab;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     [8] unsigned long flags;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [16] unsigned long min_partial;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [24] int size;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [28] int object_size;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [32] int offset;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [36] int cpu_partial;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [40] struct kmem_cache_order_objects oo;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [48] struct kmem_cache_order_objects max;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [56] struct kmem_cache_order_objects min;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [64] gfp_t allocflags;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [68] int refcount;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [72] void (*ctor)(void *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [80] int inuse;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [84] int align;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [88] int reserved;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [96] const char *name;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [104] struct list_head list;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [120] int red_left_pad;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [128] struct kobject kobj;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [192] struct memcg_cache_params memcg_params;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [232] int max_attr_size;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [240] struct kset *memcg_kset;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [248] int remote_node_defrag_ratio;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [252] struct kasan_cache kasan_info;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct kmem_cache_cpu {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [0] void **freelist;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [8] unsigned long tid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [16] struct page *page;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [24] struct page *partial;</t>
+  </si>
+  <si>
+    <t>SIZE: 32</t>
   </si>
   <si>
     <t xml:space="preserve">   [264] struct kmem_cache_node *node[1024];</t>
-  </si>
-  <si>
-    <t>SIZE: 8456</t>
-  </si>
-  <si>
-    <t>struct vm_fault {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [0] unsigned int flags;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [4] gfp_t gfp_mask;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [8] unsigned long pgoff;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [16] void *virtual_address;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [24] struct page *cow_page;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [32] struct page *page;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [40] void *entry;</t>
-  </si>
-  <si>
-    <t>struct file_operations {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [0] struct module *owner;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [8] loff_t (*llseek)(struct file *, loff_t, int);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [16] ssize_t (*read)(struct file *, char *, size_t, loff_t *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [24] ssize_t (*write)(struct file *, const char *, size_t, loff_t *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [32] ssize_t (*read_iter)(struct kiocb *, struct iov_iter *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [40] ssize_t (*write_iter)(struct kiocb *, struct iov_iter *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [48] int (*iterate)(struct file *, struct dir_context *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [56] int (*iterate_shared)(struct file *, struct dir_context *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [64] unsigned int (*poll)(struct file *, struct poll_table_struct *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [72] long (*unlocked_ioctl)(struct file *, unsigned int, unsigned long);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [80] long (*compat_ioctl)(struct file *, unsigned int, unsigned long);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [88] int (*mmap)(struct file *, struct vm_area_struct *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [96] int (*open)(struct inode *, struct file *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [104] int (*flush)(struct file *, fl_owner_t);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [112] int (*release)(struct inode *, struct file *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [120] int (*fsync)(struct file *, loff_t, loff_t, int);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [128] int (*fasync)(int, struct file *, int);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [136] int (*lock)(struct file *, int, struct file_lock *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [144] ssize_t (*sendpage)(struct file *, struct page *, int, size_t, loff_t *, int);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [152] unsigned long (*get_unmapped_area)(struct file *, unsigned long, unsigned long, unsigned long, unsigned long);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [160] int (*check_flags)(int);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [168] int (*flock)(struct file *, int, struct file_lock *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [176] ssize_t (*splice_write)(struct pipe_inode_info *, struct file *, loff_t *, size_t, unsigned int);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [184] ssize_t (*splice_read)(struct file *, loff_t *, struct pipe_inode_info *, size_t, unsigned int);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [192] int (*setlease)(struct file *, long, struct file_lock **, void **);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [200] long (*fallocate)(struct file *, int, loff_t, loff_t);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [208] void (*show_fdinfo)(struct seq_file *, struct file *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [216] ssize_t (*copy_file_range)(struct file *, loff_t, struct file *, loff_t, size_t, unsigned int);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [224] int (*clone_file_range)(struct file *, loff_t, struct file *, loff_t, u64);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [232] ssize_t (*dedupe_file_range)(struct file *, u64, u64, struct file *, u64);</t>
-  </si>
-  <si>
-    <t>SIZE: 240</t>
-  </si>
-  <si>
-    <t>struct vm_operations_struct {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [0] void (*open)(struct vm_area_struct *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [8] void (*close)(struct vm_area_struct *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [16] int (*mremap)(struct vm_area_struct *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [24] int (*fault)(struct vm_area_struct *, struct vm_fault *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [32] int (*pmd_fault)(struct vm_area_struct *, unsigned long, pmd_t *, unsigned int);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [40] void (*map_pages)(struct fault_env *, unsigned long, unsigned long);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [48] int (*page_mkwrite)(struct vm_area_struct *, struct vm_fault *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [56] int (*pfn_mkwrite)(struct vm_area_struct *, struct vm_fault *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [64] int (*access)(struct vm_area_struct *, unsigned long, void *, int, int);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        const char *(*name)(struct vm_area_struct *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [80] int (*set_policy)(struct vm_area_struct *, struct mempolicy *);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        struct mempolicy *(*get_policy)(struct vm_area_struct *, unsigned long);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        struct page *(*find_special_page)(struct vm_area_struct *, unsigned long);</t>
-  </si>
-  <si>
-    <t>SIZE: 104</t>
-  </si>
-  <si>
-    <t>struct load_weight {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [0] unsigned long weight;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [8] u32 inv_weight;</t>
-  </si>
-  <si>
-    <t>SIZE: 16</t>
-  </si>
-  <si>
-    <t>struct module {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [0] enum module_state state;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [8] struct list_head list;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [24] char name[56];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [80] struct module_kobject mkobj;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [176] struct module_attribute *modinfo_attrs;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [184] const char *version;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [192] const char *srcversion;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [200] struct kobject *holders_dir;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [208] const struct kernel_symbol *syms;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [216] const unsigned long *crcs;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [224] unsigned int num_syms;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [232] struct mutex param_lock;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [272] struct kernel_param *kp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [280] unsigned int num_kp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [284] unsigned int num_gpl_syms;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [288] const struct kernel_symbol *gpl_syms;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [296] const unsigned long *gpl_crcs;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [304] bool sig_ok;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [305] bool async_probe_requested;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [312] const struct kernel_symbol *gpl_future_syms;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [320] const unsigned long *gpl_future_crcs;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [328] unsigned int num_gpl_future_syms;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [332] unsigned int num_exentries;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [336] struct exception_table_entry *extable;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [344] int (*init)(void);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [384] struct module_layout core_layout;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [464] struct module_layout init_layout;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [544] struct mod_arch_specific arch;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [544] unsigned int taints;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [548] unsigned int num_bugs;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [552] struct list_head bug_list;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [568] struct bug_entry *bug_table;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [576] struct mod_kallsyms *kallsyms;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [584] struct mod_kallsyms core_kallsyms;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [608] struct module_sect_attrs *sect_attrs;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [616] struct module_notes_attrs *notes_attrs;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [624] char *args;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [632] void *percpu;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [640] unsigned int percpu_size;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [644] unsigned int num_tracepoints;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [648] struct tracepoint * const *tracepoints_ptrs;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [656] struct jump_entry *jump_entries;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [664] unsigned int num_jump_entries;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [668] unsigned int num_trace_bprintk_fmt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [672] const char **trace_bprintk_fmt_start;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [680] struct trace_event_call **trace_events;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [688] unsigned int num_trace_events;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [696] struct trace_enum_map **trace_enums;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [704] unsigned int num_trace_enums;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [708] unsigned int num_ftrace_callsites;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [712] unsigned long *ftrace_callsites;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [720] bool klp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [721] bool klp_alive;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [728] struct klp_modinfo *klp_info;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [736] struct list_head source_list;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [752] struct list_head target_list;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [768] void (*exit)(void);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [776] atomic_t refcnt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [784] ctor_fn_t *ctors;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [792] unsigned int num_ctors;</t>
-  </si>
-  <si>
-    <t>SIZE: 832</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct kmem_cache_node {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [0] spinlock_t list_lock;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [8] unsigned long nr_partial;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [16] struct list_head partial;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [32] atomic_long_t nr_slabs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [40] atomic_long_t total_objects;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [48] struct list_head full;</t>
+  </si>
+  <si>
+    <t>SIZE: 64</t>
+  </si>
+  <si>
+    <t>指向slab的page</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先查找</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢查找</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向下个下个空闲的对象</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最终调度器使用的优先级（0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-139</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [100] unsigned int rt_priority;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时优先级（0-99）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    [92] int static_prio;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rio=static_prio(非实时进程)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>static_prio = MAX_RT_PRIO(100) + nice(-20~19) +20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态不随时间改变（只能调用nice去修改）(100-139)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    [96] int normal_prio;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>static_prio=normal_prio(非实时进程)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [128] struct sched_entity se;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [16] struct rb_node run_node;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [40] struct list_head group_node;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [56] unsigned int on_rq;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [64] u64 exec_start;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [72] u64 sum_exec_runtime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [80] u64 vruntime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [88] u64 prev_sum_exec_runtime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [96] u64 nr_migrations;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [104] struct sched_statistics statistics;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [320] int depth;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [328] struct sched_entity *parent;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [336] struct cfs_rq *cfs_rq;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [344] struct cfs_rq *my_q;</t>
+  </si>
+  <si>
+    <t>SIZE: 448</t>
+  </si>
+  <si>
+    <t>struct sched_entity {</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    [0] struct load_weight load;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度实体真实权重(scale_load(w))就是*1024</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度实体（见下文）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟运行时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重计算的中间值（查表得出）2^32/w</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重结构体-见下文</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  [384] struct sched_avg avg;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU负载-见下文</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct sched_avg {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [0] u64 last_update_time;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [8] u64 load_sum;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [16] u32 util_sum;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [20] u32 period_contrib;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [24] unsigned long load_avg;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [32] unsigned long util_avg;</t>
+  </si>
+  <si>
+    <t>SIZE: 40</t>
+  </si>
+  <si>
+    <t>进程在那个CPU上就绪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2052,48 +2288,26 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF008000"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2101,116 +2315,42 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF008000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2219,85 +2359,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2309,97 +2413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,44 +2423,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2469,258 +2447,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2732,9 +2480,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2742,90 +2487,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFFCC"/>
+      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2834,7 +2534,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1119217" cy="270637"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="文本框 45"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2896,7 +2596,7 @@
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1526636" cy="270637"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="文本框 36"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2944,7 +2644,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>各种偏移后的大小</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2958,7 +2657,7 @@
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1445780" cy="270637"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="文本框 37"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3006,7 +2705,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>实际设置大小</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3020,7 +2718,7 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1119217" cy="270637"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="文本框 54"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3082,7 +2780,7 @@
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1119217" cy="270637"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="56" name="文本框 55"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3156,8 +2854,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="178435" y="367665"/>
-          <a:ext cx="11964670" cy="5410200"/>
+          <a:off x="178904" y="383533"/>
+          <a:ext cx="11737174" cy="5642113"/>
           <a:chOff x="297180" y="960120"/>
           <a:chExt cx="11634470" cy="5608320"/>
         </a:xfrm>
@@ -3298,7 +2996,7 @@
                               <xdr:cNvPicPr/>
                             </xdr:nvPicPr>
                             <xdr:blipFill>
-                              <a:blip r:embed="rId1"/>
+                              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
                               <a:stretch>
                                 <a:fillRect/>
                               </a:stretch>
@@ -3319,7 +3017,7 @@
                               <xdr:cNvPicPr/>
                             </xdr:nvPicPr>
                             <xdr:blipFill>
-                              <a:blip r:embed="rId2"/>
+                              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
                               <a:stretch>
                                 <a:fillRect/>
                               </a:stretch>
@@ -3340,7 +3038,7 @@
                               <xdr:cNvPicPr/>
                             </xdr:nvPicPr>
                             <xdr:blipFill>
-                              <a:blip r:embed="rId3"/>
+                              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
                               <a:srcRect r="31375" b="290"/>
                               <a:stretch>
                                 <a:fillRect/>
@@ -3357,7 +3055,7 @@
                             </xdr:spPr>
                           </xdr:pic>
                         </xdr:grpSp>
-                        <xdr:sp>
+                        <xdr:sp macro="" textlink="">
                           <xdr:nvSpPr>
                             <xdr:cNvPr id="9" name="文本框 8"/>
                             <xdr:cNvSpPr txBox="1"/>
@@ -3399,7 +3097,7 @@
                             </a:p>
                           </xdr:txBody>
                         </xdr:sp>
-                        <xdr:sp>
+                        <xdr:sp macro="" textlink="">
                           <xdr:nvSpPr>
                             <xdr:cNvPr id="10" name="文本框 9"/>
                             <xdr:cNvSpPr txBox="1"/>
@@ -3441,7 +3139,7 @@
                             </a:p>
                           </xdr:txBody>
                         </xdr:sp>
-                        <xdr:sp>
+                        <xdr:sp macro="" textlink="">
                           <xdr:nvSpPr>
                             <xdr:cNvPr id="11" name="文本框 10"/>
                             <xdr:cNvSpPr txBox="1"/>
@@ -3483,7 +3181,7 @@
                             </a:p>
                           </xdr:txBody>
                         </xdr:sp>
-                        <xdr:sp>
+                        <xdr:sp macro="" textlink="">
                           <xdr:nvSpPr>
                             <xdr:cNvPr id="12" name="文本框 11"/>
                             <xdr:cNvSpPr txBox="1"/>
@@ -3525,7 +3223,7 @@
                             </a:p>
                           </xdr:txBody>
                         </xdr:sp>
-                        <xdr:cxnSp>
+                        <xdr:cxnSp macro="">
                           <xdr:nvCxnSpPr>
                             <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
                             <xdr:cNvCxnSpPr>
@@ -3559,7 +3257,7 @@
                             </a:fontRef>
                           </xdr:style>
                         </xdr:cxnSp>
-                        <xdr:cxnSp>
+                        <xdr:cxnSp macro="">
                           <xdr:nvCxnSpPr>
                             <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
                             <xdr:cNvCxnSpPr/>
@@ -3592,7 +3290,7 @@
                           </xdr:style>
                         </xdr:cxnSp>
                       </xdr:grpSp>
-                      <xdr:sp>
+                      <xdr:sp macro="" textlink="">
                         <xdr:nvSpPr>
                           <xdr:cNvPr id="18" name="文本框 17"/>
                           <xdr:cNvSpPr txBox="1"/>
@@ -3646,7 +3344,7 @@
                           </a:p>
                         </xdr:txBody>
                       </xdr:sp>
-                      <xdr:sp>
+                      <xdr:sp macro="" textlink="">
                         <xdr:nvSpPr>
                           <xdr:cNvPr id="19" name="文本框 18"/>
                           <xdr:cNvSpPr txBox="1"/>
@@ -3700,7 +3398,7 @@
                           </a:p>
                         </xdr:txBody>
                       </xdr:sp>
-                      <xdr:sp>
+                      <xdr:sp macro="" textlink="">
                         <xdr:nvSpPr>
                           <xdr:cNvPr id="31" name="文本框 30"/>
                           <xdr:cNvSpPr txBox="1"/>
@@ -3755,7 +3453,7 @@
                         </xdr:txBody>
                       </xdr:sp>
                     </xdr:grpSp>
-                    <xdr:sp>
+                    <xdr:sp macro="" textlink="">
                       <xdr:nvSpPr>
                         <xdr:cNvPr id="33" name="文本框 32"/>
                         <xdr:cNvSpPr txBox="1"/>
@@ -3833,7 +3531,7 @@
                         <a:chExt cx="1606897" cy="895889"/>
                       </a:xfrm>
                     </xdr:grpSpPr>
-                    <xdr:sp>
+                    <xdr:sp macro="" textlink="">
                       <xdr:nvSpPr>
                         <xdr:cNvPr id="40" name="文本框 39"/>
                         <xdr:cNvSpPr txBox="1"/>
@@ -3885,7 +3583,7 @@
                         </a:p>
                       </xdr:txBody>
                     </xdr:sp>
-                    <xdr:sp>
+                    <xdr:sp macro="" textlink="">
                       <xdr:nvSpPr>
                         <xdr:cNvPr id="41" name="文本框 40"/>
                         <xdr:cNvSpPr txBox="1"/>
@@ -3937,7 +3635,7 @@
                         </a:p>
                       </xdr:txBody>
                     </xdr:sp>
-                    <xdr:cxnSp>
+                    <xdr:cxnSp macro="">
                       <xdr:nvCxnSpPr>
                         <xdr:cNvPr id="43" name="直接箭头连接符 42"/>
                         <xdr:cNvCxnSpPr>
@@ -3971,7 +3669,7 @@
                         </a:fontRef>
                       </xdr:style>
                     </xdr:cxnSp>
-                    <xdr:cxnSp>
+                    <xdr:cxnSp macro="">
                       <xdr:nvCxnSpPr>
                         <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
                         <xdr:cNvCxnSpPr>
@@ -4007,7 +3705,7 @@
                     </xdr:cxnSp>
                   </xdr:grpSp>
                 </xdr:grpSp>
-                <xdr:sp>
+                <xdr:sp macro="" textlink="">
                   <xdr:nvSpPr>
                     <xdr:cNvPr id="26" name="文本框 25"/>
                     <xdr:cNvSpPr txBox="1"/>
@@ -4051,11 +3749,10 @@
                         <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
                         <a:t>指向下一个空闲的对象</a:t>
                       </a:r>
-                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
                     </a:p>
                   </xdr:txBody>
                 </xdr:sp>
-                <xdr:cxnSp>
+                <xdr:cxnSp macro="">
                   <xdr:nvCxnSpPr>
                     <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
                     <xdr:cNvCxnSpPr>
@@ -4090,7 +3787,7 @@
                   </xdr:style>
                 </xdr:cxnSp>
               </xdr:grpSp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="29" name="文本框 28"/>
                   <xdr:cNvSpPr txBox="1"/>
@@ -4139,11 +3836,10 @@
                       <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
                       <a:t>信息</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="30" name="文本框 29"/>
                   <xdr:cNvSpPr txBox="1"/>
@@ -4192,11 +3888,10 @@
                       <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
                       <a:t>实际自己设置的</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="36" name="文本框 35"/>
                   <xdr:cNvSpPr txBox="1"/>
@@ -4254,7 +3949,7 @@
                 </xdr:cNvPicPr>
               </xdr:nvPicPr>
               <xdr:blipFill>
-                <a:blip r:embed="rId4"/>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
                 <a:stretch>
                   <a:fillRect/>
                 </a:stretch>
@@ -4269,7 +3964,7 @@
                 </a:prstGeom>
               </xdr:spPr>
             </xdr:pic>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
                 <xdr:cNvCxnSpPr/>
@@ -4304,7 +3999,7 @@
                 </a:fontRef>
               </xdr:style>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
                 <xdr:cNvCxnSpPr/>
@@ -4339,7 +4034,7 @@
                 </a:fontRef>
               </xdr:style>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
                 <xdr:cNvCxnSpPr/>
@@ -4375,7 +4070,7 @@
               </xdr:style>
             </xdr:cxnSp>
           </xdr:grpSp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="50" name="文本框 49"/>
               <xdr:cNvSpPr txBox="1"/>
@@ -4444,7 +4139,7 @@
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="51" name="文本框 50"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -4500,11 +4195,10 @@
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
                 <a:t>指针</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="文本框 51"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -4565,7 +4259,7 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="57" name="文本框 56"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -4621,7 +4315,6 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
               <a:t>是数量</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4649,7 +4342,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4703,8 +4396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106680" y="6159500"/>
-          <a:ext cx="8156575" cy="15457805"/>
+          <a:off x="106680" y="6422335"/>
+          <a:ext cx="8016375" cy="16130624"/>
           <a:chOff x="647700" y="7520940"/>
           <a:chExt cx="7960053" cy="15900036"/>
         </a:xfrm>
@@ -4717,7 +4410,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId6"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -4740,7 +4433,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId7"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -4766,7 +4459,7 @@
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1881349" cy="254400"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="64" name="文本框 63"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4819,8 +4512,94 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>449352</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>42949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="6997700"/>
+          <a:ext cx="12342495" cy="6735445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14412</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="3365500"/>
+          <a:ext cx="12066270" cy="3279775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4829,7 +4608,7 @@
       <xdr:rowOff>6234</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1119217" cy="270637"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="文本框 12"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4903,8 +4682,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106680" y="3970655"/>
-          <a:ext cx="13224510" cy="12673965"/>
+          <a:off x="106680" y="4082934"/>
+          <a:ext cx="12984480" cy="13034130"/>
           <a:chOff x="0" y="4029594"/>
           <a:chExt cx="12824460" cy="13034130"/>
         </a:xfrm>
@@ -4943,7 +4722,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip r:embed="rId1"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
               <a:srcRect r="44187" b="-805"/>
               <a:stretch>
                 <a:fillRect/>
@@ -4967,7 +4746,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip r:embed="rId2"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
               <a:srcRect l="-1" t="235" r="43593"/>
               <a:stretch>
                 <a:fillRect/>
@@ -4992,7 +4771,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip r:embed="rId3"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -5008,7 +4787,7 @@
           </xdr:spPr>
         </xdr:pic>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="16" name="文本框 15"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -5052,7 +4831,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="17" name="文本框 16"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -5120,7 +4899,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5145,7 +4924,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1119217" cy="202057"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="文本框 13"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -5207,7 +4986,7 @@
       <xdr:rowOff>131582</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="265557"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="文本框 22"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -5251,7 +5030,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>进程开始执行的时间</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5277,8 +5055,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13700760" y="231140"/>
-          <a:ext cx="5608320" cy="11894820"/>
+          <a:off x="13460731" y="236220"/>
+          <a:ext cx="5505449" cy="12235314"/>
           <a:chOff x="13285471" y="274320"/>
           <a:chExt cx="5436869" cy="12235314"/>
         </a:xfrm>
@@ -5356,7 +5134,7 @@
                     </xdr:cNvPicPr>
                   </xdr:nvPicPr>
                   <xdr:blipFill>
-                    <a:blip r:embed="rId5"/>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
                     <a:srcRect t="1" r="15038" b="-60"/>
                     <a:stretch>
                       <a:fillRect/>
@@ -5380,7 +5158,7 @@
                     </xdr:cNvPicPr>
                   </xdr:nvPicPr>
                   <xdr:blipFill>
-                    <a:blip r:embed="rId6"/>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
                     <a:srcRect t="950" r="23505"/>
                     <a:stretch>
                       <a:fillRect/>
@@ -5397,7 +5175,7 @@
                   </xdr:spPr>
                 </xdr:pic>
               </xdr:grpSp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="15" name="文本框 14"/>
                   <xdr:cNvSpPr txBox="1"/>
@@ -5442,7 +5220,7 @@
                 </xdr:txBody>
               </xdr:sp>
             </xdr:grpSp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="25" name="文本框 24"/>
                 <xdr:cNvSpPr txBox="1"/>
@@ -5486,11 +5264,10 @@
                     <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
                     <a:t>当前就绪队列的总权重</a:t>
                   </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="26" name="文本框 25"/>
                 <xdr:cNvSpPr txBox="1"/>
@@ -5534,11 +5311,10 @@
                     <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
                     <a:t>当前就绪队列的总进程数</a:t>
                   </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="28" name="文本框 27"/>
                 <xdr:cNvSpPr txBox="1"/>
@@ -5582,12 +5358,11 @@
                     <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
                     <a:t>实际时钟</a:t>
                   </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
           </xdr:grpSp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="30" name="文本框 29"/>
               <xdr:cNvSpPr txBox="1"/>
@@ -5640,7 +5415,7 @@
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="文本框 26"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -5684,12 +5459,11 @@
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
                 <a:t>当前队列运行时间最小的虚拟时间</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="35" name="文本框 34"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -5756,8 +5530,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19503390" y="284480"/>
-          <a:ext cx="6203315" cy="12844145"/>
+          <a:off x="19149060" y="289560"/>
+          <a:ext cx="6100964" cy="13210519"/>
           <a:chOff x="18912840" y="289560"/>
           <a:chExt cx="6032384" cy="13210519"/>
         </a:xfrm>
@@ -5796,7 +5570,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip r:embed="rId7"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
               <a:stretch>
                 <a:fillRect/>
               </a:stretch>
@@ -5811,7 +5585,7 @@
               </a:prstGeom>
             </xdr:spPr>
           </xdr:pic>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="34" name="文本框 33"/>
               <xdr:cNvSpPr txBox="1"/>
@@ -5864,7 +5638,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip r:embed="rId8"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -5880,7 +5654,7 @@
           </xdr:spPr>
         </xdr:pic>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="40" name="文本框 39"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -5924,7 +5698,6 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
               <a:t>当前进程的权重</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -5939,7 +5712,7 @@
       <xdr:rowOff>146823</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="213857"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="文本框 41"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -5983,7 +5756,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>进程开始执行的时间</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5993,7 +5765,50 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6440004</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>81569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9212580" y="37193220"/>
+          <a:ext cx="6409524" cy="2771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6014,8 +5829,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="9956800"/>
-          <a:ext cx="11990070" cy="10982325"/>
+          <a:off x="0" y="10241280"/>
+          <a:ext cx="11774647" cy="11292445"/>
           <a:chOff x="609600" y="548640"/>
           <a:chExt cx="11419047" cy="11292445"/>
         </a:xfrm>
@@ -6028,7 +5843,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId1"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -6051,7 +5866,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -6072,8 +5887,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6094,8 +5909,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="594360" y="952500"/>
-          <a:ext cx="15612745" cy="11706860"/>
+          <a:off x="594360" y="977900"/>
+          <a:ext cx="15327493" cy="12042167"/>
           <a:chOff x="594360" y="979651"/>
           <a:chExt cx="15140057" cy="12040416"/>
         </a:xfrm>
@@ -6108,7 +5923,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId1"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -6131,7 +5946,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -6152,8 +5967,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -6175,7 +5990,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6195,8 +6010,68 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>433346</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>170953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="http://www-x-wowotech-x-net.img.abc188.com/content/uploadfile/201803/4a471520078976.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6728460" y="0"/>
+          <a:ext cx="14454146" cy="14069833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -6218,7 +6093,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6238,8 +6113,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6261,7 +6136,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6281,95 +6156,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>449352</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>42949</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="6997700"/>
-          <a:ext cx="12342495" cy="6735445"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>14412</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66889</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="3365500"/>
-          <a:ext cx="12066270" cy="3279775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="4">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" headers="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -6380,8 +6169,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="6">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" headers="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -6394,8 +6183,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="3">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" headers="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -6405,8 +6194,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="3">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" headers="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -6416,8 +6205,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="3">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" headers="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -6429,9 +6218,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="_11" displayName="_11" ref="A3:C197" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" uniqueName="1" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" name="Column2" uniqueName="2" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" name="Column3" uniqueName="3" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6440,11 +6229,11 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="_11__2" displayName="_11__2" ref="A2:E63" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" uniqueName="1" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" name="Column2" uniqueName="2" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" name="Column3" uniqueName="3" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" name="Column4" uniqueName="4" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" name="Column5" uniqueName="5" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6453,8 +6242,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="_11__3" displayName="_11__3" ref="A2:B25" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" uniqueName="1" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" name="Column2" uniqueName="2" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6463,8 +6252,8 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="_11__5" displayName="_11__5" ref="A2:B54" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" uniqueName="1" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" name="Column2" uniqueName="2" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6473,8 +6262,8 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="_11__6" displayName="_11__6" ref="A2:B62" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" uniqueName="1" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" name="Column2" uniqueName="2" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6761,191 +6550,190 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17">
+      <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B62"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="53.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="53.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -6953,7 +6741,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -6961,7 +6749,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -6969,7 +6757,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -6977,7 +6765,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -6985,7 +6773,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -6993,7 +6781,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -7001,7 +6789,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -7009,7 +6797,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -7017,7 +6805,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -7025,7 +6813,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -7033,7 +6821,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -7041,7 +6829,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -7049,7 +6837,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -7057,7 +6845,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -7065,7 +6853,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -7073,7 +6861,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -7081,7 +6869,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -7089,7 +6877,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -7097,7 +6885,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -7105,7 +6893,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -7113,7 +6901,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -7121,7 +6909,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -7129,7 +6917,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -7137,7 +6925,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -7145,7 +6933,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -7153,7 +6941,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -7161,7 +6949,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -7169,7 +6957,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -7177,7 +6965,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -7185,7 +6973,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -7193,7 +6981,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -7201,7 +6989,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -7209,7 +6997,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
@@ -7217,7 +7005,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
@@ -7225,7 +7013,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>21</v>
@@ -7233,7 +7021,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
@@ -7241,7 +7029,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
@@ -7249,7 +7037,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -7257,7 +7045,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
@@ -7265,7 +7053,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
@@ -7273,7 +7061,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
@@ -7281,7 +7069,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
@@ -7289,7 +7077,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>21</v>
@@ -7297,7 +7085,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>21</v>
@@ -7305,7 +7093,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
@@ -7313,7 +7101,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>21</v>
@@ -7321,7 +7109,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>21</v>
@@ -7329,7 +7117,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>21</v>
@@ -7337,7 +7125,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>21</v>
@@ -7345,7 +7133,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>21</v>
@@ -7353,7 +7141,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>21</v>
@@ -7361,7 +7149,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
@@ -7369,7 +7157,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>21</v>
@@ -7377,7 +7165,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>21</v>
@@ -7385,7 +7173,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>21</v>
@@ -7393,7 +7181,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
@@ -7401,7 +7189,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>21</v>
@@ -7409,7 +7197,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
@@ -7417,7 +7205,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
@@ -7425,15 +7213,15 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -7441,851 +7229,946 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="57.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:A30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="52.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="52.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>521</v>
+    <row r="32" spans="1:2">
+      <c r="A32" s="20" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B34"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="128" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="95.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="95.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="8.54545454545454" customWidth="1"/>
-    <col min="4" max="5" width="80.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="5" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="11.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="16.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8293,384 +8176,382 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="M58" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="81.5454545454545" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.6363636363636" style="3" customWidth="1"/>
-    <col min="3" max="3" width="177.454545454545" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.72727272727273" style="3"/>
+    <col min="1" max="1" width="81.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="175.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -8844,41 +8725,41 @@
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
+      <c r="B18" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
+      <c r="A19" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
+      <c r="A20" s="23" t="s">
+        <v>665</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
+      <c r="C20" s="6" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>21</v>
+      <c r="A21" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>660</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
@@ -8886,7 +8767,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
@@ -8896,11 +8777,11 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
+      <c r="A23" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>685</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>21</v>
@@ -8908,7 +8789,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
@@ -8919,7 +8800,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>21</v>
@@ -8930,7 +8811,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -8941,7 +8822,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>21</v>
@@ -8952,7 +8833,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>21</v>
@@ -8961,12 +8842,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" ht="17.5" spans="1:3">
+    <row r="29" spans="1:3" ht="15.6">
       <c r="A29" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>21</v>
@@ -8974,7 +8855,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
@@ -8985,7 +8866,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>21</v>
@@ -8996,7 +8877,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>21</v>
@@ -9007,7 +8888,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>21</v>
@@ -9018,7 +8899,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>21</v>
@@ -9029,7 +8910,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>21</v>
@@ -9040,27 +8921,27 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>21</v>
@@ -9068,7 +8949,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>21</v>
@@ -9077,7 +8958,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>21</v>
@@ -9088,7 +8969,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>21</v>
@@ -9099,7 +8980,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>21</v>
@@ -9110,7 +8991,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>21</v>
@@ -9121,7 +9002,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>21</v>
@@ -9132,7 +9013,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>21</v>
@@ -9143,7 +9024,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>21</v>
@@ -9154,7 +9035,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>21</v>
@@ -9165,7 +9046,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>21</v>
@@ -9176,7 +9057,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>21</v>
@@ -9187,7 +9068,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>21</v>
@@ -9198,7 +9079,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>21</v>
@@ -9209,7 +9090,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>21</v>
@@ -9220,7 +9101,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>21</v>
@@ -9231,7 +9112,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>21</v>
@@ -9242,7 +9123,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>21</v>
@@ -9253,7 +9134,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>21</v>
@@ -9264,7 +9145,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>21</v>
@@ -9275,7 +9156,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>21</v>
@@ -9286,7 +9167,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>21</v>
@@ -9297,7 +9178,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>21</v>
@@ -9308,7 +9189,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>21</v>
@@ -9319,7 +9200,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>21</v>
@@ -9330,7 +9211,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>21</v>
@@ -9341,7 +9222,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>21</v>
@@ -9352,7 +9233,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>21</v>
@@ -9363,7 +9244,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>21</v>
@@ -9374,7 +9255,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>21</v>
@@ -9385,7 +9266,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>21</v>
@@ -9396,7 +9277,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>21</v>
@@ -9407,7 +9288,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>21</v>
@@ -9418,7 +9299,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>21</v>
@@ -9429,7 +9310,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>21</v>
@@ -9440,7 +9321,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>21</v>
@@ -9451,7 +9332,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -9462,7 +9343,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>21</v>
@@ -9473,7 +9354,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>21</v>
@@ -9484,7 +9365,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>21</v>
@@ -9495,7 +9376,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>21</v>
@@ -9506,7 +9387,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>21</v>
@@ -9517,7 +9398,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>21</v>
@@ -9528,7 +9409,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>21</v>
@@ -9539,7 +9420,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>21</v>
@@ -9548,14 +9429,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>21</v>
@@ -9566,10 +9447,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>21</v>
@@ -9577,10 +9458,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>21</v>
@@ -9588,7 +9469,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>21</v>
@@ -9599,7 +9480,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>21</v>
@@ -9610,10 +9491,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>21</v>
@@ -9621,7 +9502,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>21</v>
@@ -9632,7 +9513,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>21</v>
@@ -9643,7 +9524,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>21</v>
@@ -9654,7 +9535,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>21</v>
@@ -9665,7 +9546,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>21</v>
@@ -9676,7 +9557,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>21</v>
@@ -9687,7 +9568,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>21</v>
@@ -9698,7 +9579,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>21</v>
@@ -9709,7 +9590,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>21</v>
@@ -9720,7 +9601,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>21</v>
@@ -9731,7 +9612,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>21</v>
@@ -9742,7 +9623,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>21</v>
@@ -9753,7 +9634,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>21</v>
@@ -9764,10 +9645,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>21</v>
@@ -9775,7 +9656,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>21</v>
@@ -9786,7 +9667,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>21</v>
@@ -9797,7 +9678,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>21</v>
@@ -9808,7 +9689,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>21</v>
@@ -9819,7 +9700,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>21</v>
@@ -9830,7 +9711,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>21</v>
@@ -9841,7 +9722,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>21</v>
@@ -9852,7 +9733,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>21</v>
@@ -9863,7 +9744,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>21</v>
@@ -9874,7 +9755,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>21</v>
@@ -9885,7 +9766,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>21</v>
@@ -9896,7 +9777,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>21</v>
@@ -9907,7 +9788,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>21</v>
@@ -9918,7 +9799,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>21</v>
@@ -9929,7 +9810,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>21</v>
@@ -9940,7 +9821,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>21</v>
@@ -9951,7 +9832,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>21</v>
@@ -9962,7 +9843,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>21</v>
@@ -9973,7 +9854,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>21</v>
@@ -9984,7 +9865,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>21</v>
@@ -9995,7 +9876,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>21</v>
@@ -10006,7 +9887,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>21</v>
@@ -10017,7 +9898,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>21</v>
@@ -10028,7 +9909,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>21</v>
@@ -10039,7 +9920,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>21</v>
@@ -10050,7 +9931,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>21</v>
@@ -10061,7 +9942,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>21</v>
@@ -10072,7 +9953,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>21</v>
@@ -10083,7 +9964,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>21</v>
@@ -10094,7 +9975,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>21</v>
@@ -10105,7 +9986,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>21</v>
@@ -10116,7 +9997,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>21</v>
@@ -10127,7 +10008,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>21</v>
@@ -10138,7 +10019,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>21</v>
@@ -10149,7 +10030,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>21</v>
@@ -10160,7 +10041,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>21</v>
@@ -10171,7 +10052,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>21</v>
@@ -10182,7 +10063,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>21</v>
@@ -10193,7 +10074,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>21</v>
@@ -10204,7 +10085,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>21</v>
@@ -10215,7 +10096,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>21</v>
@@ -10226,7 +10107,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>21</v>
@@ -10237,7 +10118,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>21</v>
@@ -10248,7 +10129,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>21</v>
@@ -10259,7 +10140,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>21</v>
@@ -10270,7 +10151,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>21</v>
@@ -10281,7 +10162,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>21</v>
@@ -10292,7 +10173,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>21</v>
@@ -10303,7 +10184,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>21</v>
@@ -10314,7 +10195,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>21</v>
@@ -10325,7 +10206,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>21</v>
@@ -10336,7 +10217,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>21</v>
@@ -10347,7 +10228,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>21</v>
@@ -10358,7 +10239,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>21</v>
@@ -10369,7 +10250,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>21</v>
@@ -10380,7 +10261,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>21</v>
@@ -10391,7 +10272,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>21</v>
@@ -10402,7 +10283,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>21</v>
@@ -10413,7 +10294,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>21</v>
@@ -10424,7 +10305,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>21</v>
@@ -10435,7 +10316,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>21</v>
@@ -10446,7 +10327,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>21</v>
@@ -10457,7 +10338,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>21</v>
@@ -10468,7 +10349,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>21</v>
@@ -10479,7 +10360,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>21</v>
@@ -10490,7 +10371,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>21</v>
@@ -10501,7 +10382,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>21</v>
@@ -10512,7 +10393,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>21</v>
@@ -10523,7 +10404,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>21</v>
@@ -10534,7 +10415,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>21</v>
@@ -10545,7 +10426,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>21</v>
@@ -10556,7 +10437,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>21</v>
@@ -10567,7 +10448,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>21</v>
@@ -10578,7 +10459,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>21</v>
@@ -10589,7 +10470,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>21</v>
@@ -10600,7 +10481,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>21</v>
@@ -10611,7 +10492,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>21</v>
@@ -10622,7 +10503,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>21</v>
@@ -10633,7 +10514,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>21</v>
@@ -10644,7 +10525,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>21</v>
@@ -10655,7 +10536,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>21</v>
@@ -10666,7 +10547,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>21</v>
@@ -10677,7 +10558,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>21</v>
@@ -10688,7 +10569,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>21</v>
@@ -10699,7 +10580,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>21</v>
@@ -10710,7 +10591,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>21</v>
@@ -10721,7 +10602,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>21</v>
@@ -10732,7 +10613,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>21</v>
@@ -10743,7 +10624,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>21</v>
@@ -10754,7 +10635,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>21</v>
@@ -10765,7 +10646,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>21</v>
@@ -10776,10 +10657,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>21</v>
@@ -10787,7 +10668,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>21</v>
@@ -10798,7 +10679,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>21</v>
@@ -10807,103 +10688,281 @@
         <v>21</v>
       </c>
     </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="20" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="B200" s="24" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="B203" s="27" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="22" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="22" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="B206" s="25" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="22" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="B214" s="25" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217"/>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218"/>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="B220" s="25" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="B221" s="27" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId2" display="https://www.cnblogs.com/JohnABC/p/9084750.html" tooltip="https://www.cnblogs.com/JohnABC/p/9084750.html"/>
+    <hyperlink ref="A1" r:id="rId1" tooltip="https://www.cnblogs.com/JohnABC/p/9084750.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E63"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="62.0909090909091" customWidth="1"/>
-    <col min="2" max="4" width="15.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="17.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="62.109375" customWidth="1"/>
+    <col min="2" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -10920,7 +10979,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -10937,7 +10996,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -10954,7 +11013,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -10971,24 +11030,24 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -11005,7 +11064,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -11022,7 +11081,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -11039,7 +11098,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -11056,7 +11115,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -11073,7 +11132,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -11090,7 +11149,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -11107,7 +11166,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -11124,7 +11183,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -11141,7 +11200,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -11158,7 +11217,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -11175,7 +11234,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -11192,7 +11251,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -11209,7 +11268,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -11226,7 +11285,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -11243,7 +11302,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -11260,7 +11319,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -11277,7 +11336,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -11294,7 +11353,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -11311,7 +11370,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -11328,7 +11387,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -11345,7 +11404,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -11362,7 +11421,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -11379,7 +11438,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -11396,7 +11455,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -11413,7 +11472,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -11430,7 +11489,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -11447,7 +11506,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -11464,7 +11523,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
@@ -11481,7 +11540,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
@@ -11498,7 +11557,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>21</v>
@@ -11515,7 +11574,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
@@ -11532,7 +11591,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
@@ -11549,7 +11608,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -11566,7 +11625,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
@@ -11583,7 +11642,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
@@ -11600,7 +11659,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
@@ -11617,7 +11676,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
@@ -11634,7 +11693,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>21</v>
@@ -11651,7 +11710,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>21</v>
@@ -11668,7 +11727,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
@@ -11685,7 +11744,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>21</v>
@@ -11702,7 +11761,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>21</v>
@@ -11719,7 +11778,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>21</v>
@@ -11736,7 +11795,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>21</v>
@@ -11753,7 +11812,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>21</v>
@@ -11770,7 +11829,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>21</v>
@@ -11787,7 +11846,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
@@ -11804,7 +11863,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>21</v>
@@ -11821,7 +11880,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>21</v>
@@ -11838,7 +11897,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>21</v>
@@ -11855,7 +11914,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
@@ -11872,7 +11931,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>21</v>
@@ -11889,7 +11948,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
@@ -11906,7 +11965,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
@@ -11923,7 +11982,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
@@ -11940,7 +11999,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>21</v>
@@ -11956,8 +12015,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -11965,215 +12024,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="60.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="56.77734375" customWidth="1"/>
+    <col min="2" max="2" width="60.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -12181,173 +12239,171 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="51.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B54"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="52.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="52.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -12355,7 +12411,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -12363,7 +12419,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -12371,7 +12427,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -12379,7 +12435,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -12387,7 +12443,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -12395,7 +12451,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -12403,7 +12459,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -12411,7 +12467,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -12419,7 +12475,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -12427,7 +12483,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -12435,7 +12491,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -12443,7 +12499,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -12451,7 +12507,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -12459,7 +12515,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -12467,7 +12523,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -12475,7 +12531,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -12483,7 +12539,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -12491,7 +12547,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -12499,7 +12555,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -12507,7 +12563,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -12515,7 +12571,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -12523,7 +12579,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -12531,7 +12587,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -12539,7 +12595,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -12547,7 +12603,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -12555,7 +12611,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -12563,7 +12619,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -12571,7 +12627,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -12579,7 +12635,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -12587,7 +12643,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -12595,7 +12651,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -12603,7 +12659,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -12611,7 +12667,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
@@ -12619,7 +12675,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
@@ -12627,7 +12683,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>21</v>
@@ -12635,7 +12691,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
@@ -12643,7 +12699,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
@@ -12651,7 +12707,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -12659,7 +12715,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
@@ -12667,7 +12723,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
@@ -12675,7 +12731,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
@@ -12683,7 +12739,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
@@ -12691,7 +12747,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>21</v>
@@ -12699,7 +12755,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>21</v>
@@ -12707,7 +12763,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
@@ -12715,7 +12771,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>21</v>
@@ -12723,7 +12779,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>21</v>
@@ -12731,7 +12787,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>21</v>
@@ -12739,7 +12795,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>21</v>
@@ -12747,7 +12803,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>21</v>
@@ -12755,7 +12811,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>21</v>
@@ -12763,15 +12819,15 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/GraphicalLinuxSubsystem.xlsx
+++ b/GraphicalLinuxSubsystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6876"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6876" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="13" r:id="rId1"/>
@@ -28,14 +28,15 @@
     <sheet name="【1-13】file_operations" sheetId="11" r:id="rId14"/>
     <sheet name="【1-14】vm_operations_struct" sheetId="14" r:id="rId15"/>
     <sheet name="【1-15】module" sheetId="25" r:id="rId16"/>
-    <sheet name="【2-1】手写网络协议" sheetId="12" r:id="rId17"/>
+    <sheet name="【1-16】signal_struct" sheetId="26" r:id="rId17"/>
+    <sheet name="【2-1】手写网络协议" sheetId="12" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'【1-3】task_struct'!$B$5:$D$199</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">'【1-5】mm_struct'!$B$2:$F$63</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">'【1-6】vm_area_struct'!$B$2:$C$25</definedName>
     <definedName name="ExternalData_1" localSheetId="8" hidden="1">'【1-8】page'!$B$2:$C$54</definedName>
-    <definedName name="ExternalData_1" localSheetId="9" hidden="1">'【1-9】rq'!$B$2:$C$62</definedName>
+    <definedName name="ExternalData_1" localSheetId="9" hidden="1">'【1-9】rq'!$B$3:$C$63</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="885">
   <si>
     <t>slab结构体关系</t>
   </si>
@@ -128,9 +129,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">     [0] struct thread_info thread_info;</t>
   </si>
   <si>
     <t xml:space="preserve">     [8] volatile long state;</t>
@@ -482,12 +480,6 @@
     <t>命名空间</t>
   </si>
   <si>
-    <t xml:space="preserve">  [2712] struct signal_struct *signal;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [2720] struct sighand_struct *sighand;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  [2728] sigset_t blocked;</t>
   </si>
   <si>
@@ -495,9 +487,6 @@
   </si>
   <si>
     <t xml:space="preserve">  [2744] sigset_t saved_sigmask;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [2752] struct sigpending pending;</t>
   </si>
   <si>
     <t xml:space="preserve">  [2776] unsigned long sas_ss_sp;</t>
@@ -2373,6 +2362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2389,6 +2379,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2410,6 +2401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3081,15 +3073,325 @@
   <si>
     <t>sched_avg</t>
   </si>
+  <si>
+    <t>指向当前的进程</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     [0] struct thread_info thread_info;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断进程的标识，是否可以被抢占</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPM实现无加锁的切换</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  [2752] struct sigpending pending;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [0] struct list_head list;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [16] sigset_t signal;</t>
+  </si>
+  <si>
+    <t>SIZE: 24</t>
+  </si>
+  <si>
+    <t>struct sigpending {</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigpending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [2712] struct signal_struct *signal;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct signal_struct {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     [0] atomic_t sigcnt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     [4] atomic_t live;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     [8] int nr_threads;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [16] struct list_head thread_head;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [32] wait_queue_head_t wait_chldexit;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [56] struct task_struct *curr_target;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [64] struct sigpending shared_pending;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [88] int group_exit_code;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [92] int notify_count;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [96] struct task_struct *group_exit_task;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [104] int group_stop_count;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [108] unsigned int flags;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [112] unsigned int is_child_subreaper : 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [112] unsigned int has_child_subreaper : 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [116] int posix_timer_id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [120] struct list_head posix_timers;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [136] struct hrtimer real_timer;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [224] struct pid *leader_pid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [232] ktime_t it_real_incr;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [240] struct cpu_itimer it[2];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [288] struct thread_group_cputimer cputimer;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [320] struct task_cputime cputime_expires;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [344] atomic_t tick_dep_mask;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [352] struct list_head cpu_timers[3];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [400] struct pid *tty_old_pgrp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [408] int leader;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [416] struct tty_struct *tty;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [424] struct autogroup *autogroup;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [432] seqlock_t stats_lock;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [440] cputime_t utime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [448] cputime_t stime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [456] cputime_t cutime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [464] cputime_t cstime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [472] cputime_t gtime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [480] cputime_t cgtime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [488] struct prev_cputime prev_cputime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [512] unsigned long nvcsw;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [520] unsigned long nivcsw;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [528] unsigned long cnvcsw;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [536] unsigned long cnivcsw;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [544] unsigned long min_flt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [552] unsigned long maj_flt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [560] unsigned long cmin_flt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [568] unsigned long cmaj_flt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [576] unsigned long inblock;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [584] unsigned long oublock;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [592] unsigned long cinblock;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [600] unsigned long coublock;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [608] unsigned long maxrss;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [616] unsigned long cmaxrss;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [624] struct task_io_accounting ioac;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [680] unsigned long long sum_sched_runtime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [688] struct rlimit rlim[16];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [944] struct pacct_struct pacct;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [1000] struct taskstats *stats;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [1008] unsigned int audit_tty;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [1016] struct tty_audit_buf *tty_audit_buf;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [1024] bool oom_flag_origin;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [1026] short oom_score_adj;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [1028] short oom_score_adj_min;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [1032] struct mm_struct *oom_mm;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [1040] struct mutex cred_guard_mutex;</t>
+  </si>
+  <si>
+    <t>SIZE: 1080</t>
+  </si>
+  <si>
+    <t>回到目录</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>signal_struct</t>
+  </si>
+  <si>
+    <t>typedef struct {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [0] unsigned long sig[1];</t>
+  </si>
+  <si>
+    <t>SIZE: 8</t>
+  </si>
+  <si>
+    <t>} sigset_t;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigset_t</t>
+  </si>
+  <si>
+    <t>信号处理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>见下文</t>
+  </si>
+  <si>
+    <t>见下文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>igset_t表示64个信号</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  [2720] struct sighand_struct *sighand;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct sighand_struct {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     [0] atomic_t count;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [2056] spinlock_t siglock;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [2064] wait_queue_head_t signalfd_wqh;</t>
+  </si>
+  <si>
+    <t>SIZE: 2088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     [8] struct k_sigaction action[64];</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存信号处理函数的地址（do_sigaction 就是设置 sighand 里的信号处理函数。）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3171,8 +3473,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3260,6 +3568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3355,7 +3669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3383,9 +3697,6 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3397,7 +3708,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3407,12 +3718,22 @@
     <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -7386,7 +7707,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="_11__6" displayName="_11__6" ref="B2:C62" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="_11__6" displayName="_11__6" ref="B3:C63" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2"/>
@@ -7682,333 +8003,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="1:13">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="37" t="s">
+        <v>748</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="38" t="s">
-        <v>771</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="38" t="s">
-        <v>753</v>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="37" t="s">
+        <v>767</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="37" t="s">
+        <v>749</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="38" t="s">
-        <v>772</v>
-      </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="B4" s="42" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="37" t="s">
+        <v>768</v>
+      </c>
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>794</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="38" t="s">
-        <v>773</v>
-      </c>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="38" t="s">
-        <v>755</v>
+      <c r="D4" s="40" t="s">
+        <v>790</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>872</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="37" t="s">
+        <v>769</v>
+      </c>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="37" t="s">
+        <v>751</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="38" t="s">
-        <v>774</v>
-      </c>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="38" t="s">
-        <v>756</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="37" t="s">
+        <v>770</v>
+      </c>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="37" t="s">
+        <v>752</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="38" t="s">
-        <v>775</v>
-      </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="38" t="s">
-        <v>757</v>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="L6" s="37" t="s">
+        <v>771</v>
+      </c>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="37" t="s">
+        <v>753</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="38" t="s">
-        <v>776</v>
-      </c>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="38" t="s">
-        <v>758</v>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="L7" s="37" t="s">
+        <v>772</v>
+      </c>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="37" t="s">
+        <v>754</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="38" t="s">
-        <v>777</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="38" t="s">
-        <v>759</v>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="L8" s="37" t="s">
+        <v>773</v>
+      </c>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="37" t="s">
+        <v>755</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="38" t="s">
-        <v>778</v>
-      </c>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="38" t="s">
-        <v>760</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="L9" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="37" t="s">
+        <v>756</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="38" t="s">
-        <v>779</v>
-      </c>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="38" t="s">
-        <v>761</v>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" s="37" t="s">
+        <v>775</v>
+      </c>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="37" t="s">
+        <v>757</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="38" t="s">
-        <v>780</v>
-      </c>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38" t="s">
-        <v>762</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="37" t="s">
+        <v>758</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="38" t="s">
-        <v>781</v>
-      </c>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="38" t="s">
-        <v>763</v>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="37" t="s">
+        <v>777</v>
+      </c>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="37" t="s">
+        <v>759</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="38" t="s">
-        <v>782</v>
-      </c>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="38" t="s">
-        <v>764</v>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="37" t="s">
+        <v>760</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="38" t="s">
-        <v>783</v>
-      </c>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38" t="s">
-        <v>765</v>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="37" t="s">
+        <v>779</v>
+      </c>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="37" t="s">
+        <v>761</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="38" t="s">
-        <v>784</v>
-      </c>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="38" t="s">
-        <v>766</v>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="37" t="s">
+        <v>762</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="H16" s="38" t="s">
-        <v>785</v>
-      </c>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="38" t="s">
-        <v>767</v>
-      </c>
-      <c r="B17" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="37" t="s">
+        <v>763</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>867</v>
+      </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="38" t="s">
-        <v>786</v>
-      </c>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="38" t="s">
-        <v>768</v>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="37" t="s">
+        <v>764</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="38" t="s">
-        <v>787</v>
-      </c>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="38" t="s">
-        <v>769</v>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="37" t="s">
+        <v>783</v>
+      </c>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="37" t="s">
+        <v>765</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="38" t="s">
-        <v>788</v>
-      </c>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="38" t="s">
-        <v>770</v>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="37" t="s">
+        <v>784</v>
+      </c>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="37" t="s">
+        <v>766</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="38" t="s">
-        <v>789</v>
-      </c>
-      <c r="I20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="37" t="s">
+        <v>785</v>
+      </c>
+      <c r="M20" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" location="【1】slab结构体关系!A1" display="slab结构体关系"/>
+    <hyperlink ref="B2" location="'【1-1】slab结构体关系'!A1" display="slab结构体关系"/>
     <hyperlink ref="B4" location="'【1-3】task_struct'!A1" display="task_struct"/>
     <hyperlink ref="B12" location="'【1-11】kmem_cache'!A1" display="kmem_cache"/>
-    <hyperlink ref="I2" location="'【2-1】手写网络协议'!A1" display="手写网络协议"/>
-    <hyperlink ref="B6" location="'【1-5】mm_struct'!A1" display="mm_struct"/>
+    <hyperlink ref="M2" location="'【2-1】手写网络协议'!A1" display="手写网络协议"/>
+    <hyperlink ref="B6" location="'【1-3】task_struct'!A1" display="mm_struct"/>
     <hyperlink ref="B7" location="'【1-6】vm_area_struct'!A1" display="vm_area_struct"/>
+    <hyperlink ref="B10" location="'【1-9】rq'!A1" display="rq"/>
+    <hyperlink ref="B17" location="'【1-16】signal_struct'!A1" display="signal_struct"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8017,32 +8432,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="53.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A2" s="25"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -8050,7 +8462,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -8058,7 +8470,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -8066,7 +8478,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -8074,7 +8486,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -8082,7 +8494,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -8090,7 +8502,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -8098,7 +8510,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -8106,7 +8518,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -8114,7 +8526,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -8122,7 +8534,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -8130,7 +8542,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -8138,7 +8550,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -8146,7 +8558,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -8154,7 +8566,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -8162,7 +8574,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -8170,23 +8582,23 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
+      <c r="B20" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -8194,7 +8606,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -8202,7 +8614,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -8210,7 +8622,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -8218,7 +8630,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -8226,7 +8638,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -8234,7 +8646,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -8242,7 +8654,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -8250,7 +8662,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
@@ -8258,7 +8670,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -8266,7 +8678,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -8274,7 +8686,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -8282,7 +8694,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -8290,7 +8702,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
@@ -8298,7 +8710,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>20</v>
@@ -8306,7 +8718,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -8314,7 +8726,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -8322,7 +8734,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -8330,7 +8742,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -8338,7 +8750,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -8346,7 +8758,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -8354,7 +8766,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -8362,7 +8774,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -8370,7 +8782,7 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -8378,7 +8790,7 @@
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -8386,7 +8798,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -8394,7 +8806,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -8402,7 +8814,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
@@ -8410,7 +8822,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
@@ -8418,7 +8830,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
@@ -8426,7 +8838,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
@@ -8434,7 +8846,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -8442,7 +8854,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -8450,7 +8862,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
@@ -8458,7 +8870,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
@@ -8466,7 +8878,7 @@
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
@@ -8474,7 +8886,7 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>20</v>
@@ -8482,7 +8894,7 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
@@ -8490,7 +8902,7 @@
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>20</v>
@@ -8498,7 +8910,7 @@
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
@@ -8506,7 +8918,7 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="2" t="s">
-        <v>219</v>
+        <v>432</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
@@ -8514,11 +8926,17 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="2" t="s">
-        <v>437</v>
+        <v>215</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C63" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -8544,163 +8962,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -8725,255 +9143,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="19" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="19" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="17" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="19" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="18" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -9002,47 +9420,47 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -9067,167 +9485,167 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -9252,82 +9670,82 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -9352,317 +9770,317 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -9673,6 +10091,356 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="43" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>865</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R98"/>
   <sheetViews>
@@ -9692,473 +10460,473 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="18" customFormat="1"/>
     <row r="14" spans="1:9">
       <c r="B14" s="1"/>
       <c r="H14" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G15" s="19"/>
-      <c r="H15" s="27"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="17" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="C16" s="18" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="28"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="30" t="s">
-        <v>678</v>
-      </c>
-      <c r="H17" s="30">
+      <c r="G17" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="H17" s="29">
         <v>513</v>
       </c>
-      <c r="I17" s="31" t="s">
-        <v>729</v>
+      <c r="I17" s="30" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="3:18">
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="28" t="s">
-        <v>679</v>
-      </c>
-      <c r="H18" s="28">
+      <c r="G18" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="H18" s="27">
         <v>1027</v>
       </c>
-      <c r="I18" s="32" t="s">
-        <v>730</v>
+      <c r="I18" s="31" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="3:18">
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="28" t="s">
-        <v>712</v>
-      </c>
-      <c r="H19" s="28">
+      <c r="G19" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="H19" s="27">
         <v>134678021</v>
       </c>
-      <c r="I19" s="33" t="s">
-        <v>731</v>
+      <c r="I19" s="32" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="3:18">
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="28" t="s">
-        <v>713</v>
-      </c>
-      <c r="H20" s="28">
+      <c r="G20" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="H20" s="27">
         <v>202050057</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="21" spans="3:18">
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="34" t="s">
-        <v>714</v>
-      </c>
-      <c r="H21" s="34">
+      <c r="G21" s="33" t="s">
+        <v>710</v>
+      </c>
+      <c r="H21" s="33">
         <v>13</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="3:18">
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="34" t="s">
-        <v>715</v>
-      </c>
-      <c r="H22" s="34">
+      <c r="G22" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="H22" s="33">
         <v>32</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="3:18">
       <c r="C23" s="18" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="34" t="s">
-        <v>716</v>
-      </c>
-      <c r="H23" s="34">
+      <c r="G23" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="H23" s="33">
         <v>1</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="3:18">
       <c r="F24" s="18"/>
-      <c r="G24" s="34" t="s">
-        <v>717</v>
-      </c>
-      <c r="H24" s="34">
+      <c r="G24" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="H24" s="33">
         <v>1</v>
       </c>
-      <c r="I24" s="35"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="3:18">
       <c r="F25" s="18"/>
-      <c r="G25" s="34" t="s">
-        <v>718</v>
-      </c>
-      <c r="H25" s="34">
+      <c r="G25" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="H25" s="33">
         <v>0</v>
       </c>
-      <c r="I25" s="35"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="3:18">
       <c r="F26" s="18"/>
-      <c r="G26" s="34" t="s">
-        <v>719</v>
-      </c>
-      <c r="H26" s="34">
+      <c r="G26" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="H26" s="33">
         <v>0</v>
       </c>
-      <c r="I26" s="35"/>
+      <c r="I26" s="34"/>
       <c r="R26">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="3:18">
       <c r="F27" s="18"/>
-      <c r="G27" s="34" t="s">
-        <v>720</v>
-      </c>
-      <c r="H27" s="34">
+      <c r="G27" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="H27" s="33">
         <v>0</v>
       </c>
-      <c r="I27" s="35"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="3:18">
       <c r="F28" s="18"/>
-      <c r="G28" s="34" t="s">
-        <v>721</v>
-      </c>
-      <c r="H28" s="34">
+      <c r="G28" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="H28" s="33">
         <v>0</v>
       </c>
-      <c r="I28" s="35"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="3:18">
       <c r="F29" s="18"/>
-      <c r="G29" s="28" t="s">
-        <v>722</v>
-      </c>
-      <c r="H29" s="28">
+      <c r="G29" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="H29" s="27">
         <v>4111</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="3:18">
       <c r="F30" s="18"/>
-      <c r="G30" s="28" t="s">
-        <v>681</v>
-      </c>
-      <c r="H30" s="28">
+      <c r="G30" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="H30" s="27">
         <v>4625</v>
       </c>
-      <c r="I30" s="32" t="s">
-        <v>733</v>
+      <c r="I30" s="31" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="3:18">
       <c r="F31" s="18"/>
-      <c r="G31" s="28" t="s">
-        <v>723</v>
-      </c>
-      <c r="H31" s="29">
+      <c r="G31" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="H31" s="28">
         <v>5139</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="3:18">
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="J32" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" s="18" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="48" spans="6:7" s="18" customFormat="1"/>
     <row r="51" spans="3:9">
       <c r="C51" s="18" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="19" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D52" s="19"/>
       <c r="F52" s="19" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G52" s="19"/>
       <c r="I52" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="I54" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="19"/>
       <c r="D56" s="19" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="I56" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="I58" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="18" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="18" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="19"/>
       <c r="D61" s="19" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="18" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="18" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="19"/>
       <c r="D62" s="19" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="19"/>
       <c r="D63" s="19" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G63" s="19"/>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="19"/>
       <c r="D64" s="19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" s="19" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" s="36" customFormat="1"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" s="35" customFormat="1"/>
     <row r="91" spans="3:4">
       <c r="C91" s="18" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="C92" s="23" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D92" s="23"/>
     </row>
     <row r="93" spans="3:4">
       <c r="C93" s="23" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D93" s="23"/>
     </row>
     <row r="94" spans="3:4">
       <c r="C94" s="23"/>
       <c r="D94" s="23" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="C95" s="23"/>
       <c r="D95" s="23" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="C96" s="23"/>
       <c r="D96" s="23" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="97" spans="3:4">
       <c r="C97" s="23"/>
       <c r="D97" s="23" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="23" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D98" s="23"/>
     </row>
@@ -10187,41 +10955,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" s="15"/>
@@ -10256,8 +11024,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="13:13">
-      <c r="M1" s="26" t="s">
-        <v>751</v>
+      <c r="M1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -10273,24 +11041,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="3"/>
     <col min="2" max="2" width="81.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="175.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10310,11 +11078,11 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
+      <c r="B6" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>793</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
@@ -10322,7 +11090,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -10333,7 +11101,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -10344,7 +11112,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -10355,7 +11123,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
@@ -10366,7 +11134,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -10377,21 +11145,21 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
+      <c r="C13" s="21" t="s">
+        <v>794</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
@@ -10399,10 +11167,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -10410,7 +11178,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -10421,7 +11189,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
@@ -10432,7 +11200,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -10443,7 +11211,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
@@ -10454,7 +11222,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>20</v>
@@ -10465,43 +11233,43 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="21" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="20" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="20" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>20</v>
@@ -10509,7 +11277,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>20</v>
@@ -10520,10 +11288,10 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="22" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>20</v>
@@ -10531,7 +11299,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>20</v>
@@ -10542,7 +11310,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>20</v>
@@ -10553,7 +11321,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>20</v>
@@ -10564,7 +11332,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>20</v>
@@ -10575,7 +11343,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>20</v>
@@ -10586,10 +11354,10 @@
     </row>
     <row r="31" spans="2:4" ht="15.6">
       <c r="B31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>20</v>
@@ -10597,7 +11365,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>20</v>
@@ -10608,7 +11376,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>20</v>
@@ -10619,7 +11387,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>20</v>
@@ -10630,7 +11398,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>20</v>
@@ -10641,7 +11409,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>20</v>
@@ -10652,7 +11420,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>20</v>
@@ -10663,27 +11431,27 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>20</v>
@@ -10691,7 +11459,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>20</v>
@@ -10700,7 +11468,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>20</v>
@@ -10711,7 +11479,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>20</v>
@@ -10722,7 +11490,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>20</v>
@@ -10733,7 +11501,7 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>20</v>
@@ -10744,7 +11512,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>20</v>
@@ -10755,7 +11523,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>20</v>
@@ -10766,7 +11534,7 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>20</v>
@@ -10777,7 +11545,7 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>20</v>
@@ -10788,7 +11556,7 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>20</v>
@@ -10799,7 +11567,7 @@
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>20</v>
@@ -10810,7 +11578,7 @@
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>20</v>
@@ -10821,7 +11589,7 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>20</v>
@@ -10832,7 +11600,7 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>20</v>
@@ -10843,7 +11611,7 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>20</v>
@@ -10854,7 +11622,7 @@
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>20</v>
@@ -10865,7 +11633,7 @@
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>20</v>
@@ -10876,7 +11644,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>20</v>
@@ -10887,7 +11655,7 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>20</v>
@@ -10898,7 +11666,7 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>20</v>
@@ -10909,7 +11677,7 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>20</v>
@@ -10920,7 +11688,7 @@
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>20</v>
@@ -10931,7 +11699,7 @@
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>20</v>
@@ -10942,7 +11710,7 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>20</v>
@@ -10953,7 +11721,7 @@
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>20</v>
@@ -10964,7 +11732,7 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>20</v>
@@ -10975,7 +11743,7 @@
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>20</v>
@@ -10986,7 +11754,7 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>20</v>
@@ -10997,7 +11765,7 @@
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>20</v>
@@ -11008,7 +11776,7 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>20</v>
@@ -11019,7 +11787,7 @@
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>20</v>
@@ -11030,7 +11798,7 @@
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>20</v>
@@ -11041,7 +11809,7 @@
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>20</v>
@@ -11052,7 +11820,7 @@
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>20</v>
@@ -11063,7 +11831,7 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>20</v>
@@ -11074,7 +11842,7 @@
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>20</v>
@@ -11085,7 +11853,7 @@
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>20</v>
@@ -11096,7 +11864,7 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>20</v>
@@ -11107,7 +11875,7 @@
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>20</v>
@@ -11118,7 +11886,7 @@
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>20</v>
@@ -11129,7 +11897,7 @@
     </row>
     <row r="81" spans="2:4">
       <c r="B81" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>20</v>
@@ -11140,7 +11908,7 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>20</v>
@@ -11151,7 +11919,7 @@
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>20</v>
@@ -11162,7 +11930,7 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>20</v>
@@ -11173,12 +11941,12 @@
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>20</v>
@@ -11189,10 +11957,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
@@ -11200,10 +11968,10 @@
     </row>
     <row r="88" spans="2:4">
       <c r="B88" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
@@ -11211,7 +11979,7 @@
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>20</v>
@@ -11222,7 +11990,7 @@
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>20</v>
@@ -11233,10 +12001,10 @@
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
@@ -11244,7 +12012,7 @@
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>20</v>
@@ -11255,7 +12023,7 @@
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>20</v>
@@ -11266,7 +12034,7 @@
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>20</v>
@@ -11277,7 +12045,7 @@
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>20</v>
@@ -11288,7 +12056,7 @@
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>20</v>
@@ -11299,7 +12067,7 @@
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>20</v>
@@ -11310,7 +12078,7 @@
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>20</v>
@@ -11321,7 +12089,7 @@
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>20</v>
@@ -11332,7 +12100,7 @@
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>20</v>
@@ -11343,7 +12111,7 @@
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>20</v>
@@ -11354,7 +12122,7 @@
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>20</v>
@@ -11365,7 +12133,7 @@
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>20</v>
@@ -11376,7 +12144,7 @@
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>20</v>
@@ -11387,76 +12155,76 @@
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="D105" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="45" t="s">
+        <v>801</v>
+      </c>
+      <c r="C106" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="45" t="s">
+        <v>877</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>875</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="3" t="s">
+      <c r="C108" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="3" t="s">
+      <c r="C109" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="B110" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>20</v>
+      <c r="C110" s="5" t="s">
+        <v>874</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>20</v>
+      <c r="B111" s="49" t="s">
+        <v>795</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>875</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>20</v>
@@ -11464,7 +12232,7 @@
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>20</v>
@@ -11475,7 +12243,7 @@
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>20</v>
@@ -11486,7 +12254,7 @@
     </row>
     <row r="114" spans="2:4">
       <c r="B114" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>20</v>
@@ -11497,7 +12265,7 @@
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>20</v>
@@ -11508,7 +12276,7 @@
     </row>
     <row r="116" spans="2:4">
       <c r="B116" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>20</v>
@@ -11519,7 +12287,7 @@
     </row>
     <row r="117" spans="2:4">
       <c r="B117" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>20</v>
@@ -11530,7 +12298,7 @@
     </row>
     <row r="118" spans="2:4">
       <c r="B118" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>20</v>
@@ -11541,7 +12309,7 @@
     </row>
     <row r="119" spans="2:4">
       <c r="B119" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>20</v>
@@ -11552,7 +12320,7 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>20</v>
@@ -11563,7 +12331,7 @@
     </row>
     <row r="121" spans="2:4">
       <c r="B121" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>20</v>
@@ -11574,7 +12342,7 @@
     </row>
     <row r="122" spans="2:4">
       <c r="B122" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>20</v>
@@ -11585,7 +12353,7 @@
     </row>
     <row r="123" spans="2:4">
       <c r="B123" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>20</v>
@@ -11596,7 +12364,7 @@
     </row>
     <row r="124" spans="2:4">
       <c r="B124" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>20</v>
@@ -11607,7 +12375,7 @@
     </row>
     <row r="125" spans="2:4">
       <c r="B125" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>20</v>
@@ -11618,7 +12386,7 @@
     </row>
     <row r="126" spans="2:4">
       <c r="B126" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>20</v>
@@ -11629,7 +12397,7 @@
     </row>
     <row r="127" spans="2:4">
       <c r="B127" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>20</v>
@@ -11640,7 +12408,7 @@
     </row>
     <row r="128" spans="2:4">
       <c r="B128" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>20</v>
@@ -11651,7 +12419,7 @@
     </row>
     <row r="129" spans="2:4">
       <c r="B129" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>20</v>
@@ -11662,7 +12430,7 @@
     </row>
     <row r="130" spans="2:4">
       <c r="B130" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>20</v>
@@ -11673,7 +12441,7 @@
     </row>
     <row r="131" spans="2:4">
       <c r="B131" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>20</v>
@@ -11684,7 +12452,7 @@
     </row>
     <row r="132" spans="2:4">
       <c r="B132" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>20</v>
@@ -11695,7 +12463,7 @@
     </row>
     <row r="133" spans="2:4">
       <c r="B133" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>20</v>
@@ -11706,7 +12474,7 @@
     </row>
     <row r="134" spans="2:4">
       <c r="B134" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>20</v>
@@ -11717,7 +12485,7 @@
     </row>
     <row r="135" spans="2:4">
       <c r="B135" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>20</v>
@@ -11728,7 +12496,7 @@
     </row>
     <row r="136" spans="2:4">
       <c r="B136" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>20</v>
@@ -11739,7 +12507,7 @@
     </row>
     <row r="137" spans="2:4">
       <c r="B137" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>20</v>
@@ -11750,7 +12518,7 @@
     </row>
     <row r="138" spans="2:4">
       <c r="B138" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>20</v>
@@ -11761,7 +12529,7 @@
     </row>
     <row r="139" spans="2:4">
       <c r="B139" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>20</v>
@@ -11772,7 +12540,7 @@
     </row>
     <row r="140" spans="2:4">
       <c r="B140" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>20</v>
@@ -11783,7 +12551,7 @@
     </row>
     <row r="141" spans="2:4">
       <c r="B141" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>20</v>
@@ -11794,7 +12562,7 @@
     </row>
     <row r="142" spans="2:4">
       <c r="B142" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>20</v>
@@ -11805,7 +12573,7 @@
     </row>
     <row r="143" spans="2:4">
       <c r="B143" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>20</v>
@@ -11816,7 +12584,7 @@
     </row>
     <row r="144" spans="2:4">
       <c r="B144" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>20</v>
@@ -11827,7 +12595,7 @@
     </row>
     <row r="145" spans="2:4">
       <c r="B145" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>20</v>
@@ -11838,7 +12606,7 @@
     </row>
     <row r="146" spans="2:4">
       <c r="B146" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>20</v>
@@ -11849,7 +12617,7 @@
     </row>
     <row r="147" spans="2:4">
       <c r="B147" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>20</v>
@@ -11860,7 +12628,7 @@
     </row>
     <row r="148" spans="2:4">
       <c r="B148" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>20</v>
@@ -11871,7 +12639,7 @@
     </row>
     <row r="149" spans="2:4">
       <c r="B149" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>20</v>
@@ -11882,7 +12650,7 @@
     </row>
     <row r="150" spans="2:4">
       <c r="B150" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>20</v>
@@ -11893,7 +12661,7 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>20</v>
@@ -11904,7 +12672,7 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>20</v>
@@ -11915,7 +12683,7 @@
     </row>
     <row r="153" spans="2:4">
       <c r="B153" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>20</v>
@@ -11926,7 +12694,7 @@
     </row>
     <row r="154" spans="2:4">
       <c r="B154" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>20</v>
@@ -11937,7 +12705,7 @@
     </row>
     <row r="155" spans="2:4">
       <c r="B155" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>20</v>
@@ -11948,7 +12716,7 @@
     </row>
     <row r="156" spans="2:4">
       <c r="B156" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>20</v>
@@ -11959,7 +12727,7 @@
     </row>
     <row r="157" spans="2:4">
       <c r="B157" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>20</v>
@@ -11970,7 +12738,7 @@
     </row>
     <row r="158" spans="2:4">
       <c r="B158" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>20</v>
@@ -11981,7 +12749,7 @@
     </row>
     <row r="159" spans="2:4">
       <c r="B159" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>20</v>
@@ -11992,7 +12760,7 @@
     </row>
     <row r="160" spans="2:4">
       <c r="B160" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>20</v>
@@ -12003,7 +12771,7 @@
     </row>
     <row r="161" spans="2:4">
       <c r="B161" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>20</v>
@@ -12014,7 +12782,7 @@
     </row>
     <row r="162" spans="2:4">
       <c r="B162" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>20</v>
@@ -12025,7 +12793,7 @@
     </row>
     <row r="163" spans="2:4">
       <c r="B163" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>20</v>
@@ -12036,7 +12804,7 @@
     </row>
     <row r="164" spans="2:4">
       <c r="B164" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>20</v>
@@ -12047,7 +12815,7 @@
     </row>
     <row r="165" spans="2:4">
       <c r="B165" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>20</v>
@@ -12058,7 +12826,7 @@
     </row>
     <row r="166" spans="2:4">
       <c r="B166" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>20</v>
@@ -12069,7 +12837,7 @@
     </row>
     <row r="167" spans="2:4">
       <c r="B167" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>20</v>
@@ -12080,7 +12848,7 @@
     </row>
     <row r="168" spans="2:4">
       <c r="B168" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>20</v>
@@ -12091,7 +12859,7 @@
     </row>
     <row r="169" spans="2:4">
       <c r="B169" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>20</v>
@@ -12102,7 +12870,7 @@
     </row>
     <row r="170" spans="2:4">
       <c r="B170" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>20</v>
@@ -12113,7 +12881,7 @@
     </row>
     <row r="171" spans="2:4">
       <c r="B171" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>20</v>
@@ -12124,7 +12892,7 @@
     </row>
     <row r="172" spans="2:4">
       <c r="B172" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>20</v>
@@ -12135,7 +12903,7 @@
     </row>
     <row r="173" spans="2:4">
       <c r="B173" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>20</v>
@@ -12146,7 +12914,7 @@
     </row>
     <row r="174" spans="2:4">
       <c r="B174" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>20</v>
@@ -12157,7 +12925,7 @@
     </row>
     <row r="175" spans="2:4">
       <c r="B175" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>20</v>
@@ -12168,7 +12936,7 @@
     </row>
     <row r="176" spans="2:4">
       <c r="B176" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>20</v>
@@ -12179,7 +12947,7 @@
     </row>
     <row r="177" spans="2:4">
       <c r="B177" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>20</v>
@@ -12190,7 +12958,7 @@
     </row>
     <row r="178" spans="2:4">
       <c r="B178" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>20</v>
@@ -12201,7 +12969,7 @@
     </row>
     <row r="179" spans="2:4">
       <c r="B179" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>20</v>
@@ -12212,7 +12980,7 @@
     </row>
     <row r="180" spans="2:4">
       <c r="B180" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>20</v>
@@ -12223,7 +12991,7 @@
     </row>
     <row r="181" spans="2:4">
       <c r="B181" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>20</v>
@@ -12234,7 +13002,7 @@
     </row>
     <row r="182" spans="2:4">
       <c r="B182" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>20</v>
@@ -12245,7 +13013,7 @@
     </row>
     <row r="183" spans="2:4">
       <c r="B183" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>20</v>
@@ -12256,7 +13024,7 @@
     </row>
     <row r="184" spans="2:4">
       <c r="B184" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>20</v>
@@ -12267,7 +13035,7 @@
     </row>
     <row r="185" spans="2:4">
       <c r="B185" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>20</v>
@@ -12278,7 +13046,7 @@
     </row>
     <row r="186" spans="2:4">
       <c r="B186" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>20</v>
@@ -12289,7 +13057,7 @@
     </row>
     <row r="187" spans="2:4">
       <c r="B187" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>20</v>
@@ -12300,7 +13068,7 @@
     </row>
     <row r="188" spans="2:4">
       <c r="B188" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>20</v>
@@ -12311,7 +13079,7 @@
     </row>
     <row r="189" spans="2:4">
       <c r="B189" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>20</v>
@@ -12322,7 +13090,7 @@
     </row>
     <row r="190" spans="2:4">
       <c r="B190" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>20</v>
@@ -12333,7 +13101,7 @@
     </row>
     <row r="191" spans="2:4">
       <c r="B191" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>20</v>
@@ -12344,7 +13112,7 @@
     </row>
     <row r="192" spans="2:4">
       <c r="B192" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>20</v>
@@ -12355,7 +13123,7 @@
     </row>
     <row r="193" spans="2:4">
       <c r="B193" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>20</v>
@@ -12366,7 +13134,7 @@
     </row>
     <row r="194" spans="2:4">
       <c r="B194" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>20</v>
@@ -12377,7 +13145,7 @@
     </row>
     <row r="195" spans="2:4">
       <c r="B195" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>20</v>
@@ -12388,7 +13156,7 @@
     </row>
     <row r="196" spans="2:4">
       <c r="B196" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>20</v>
@@ -12399,10 +13167,10 @@
     </row>
     <row r="197" spans="2:4">
       <c r="B197" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>20</v>
@@ -12410,7 +13178,7 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>20</v>
@@ -12421,7 +13189,7 @@
     </row>
     <row r="199" spans="2:4">
       <c r="B199" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>20</v>
@@ -12432,104 +13200,104 @@
     </row>
     <row r="201" spans="2:4">
       <c r="B201" s="17" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="202" spans="2:4">
       <c r="B202" s="18" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="205" spans="2:4">
       <c r="B205" s="23" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="206" spans="2:4">
       <c r="B206" s="19" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="207" spans="2:4">
       <c r="B207" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="208" spans="2:4">
       <c r="B208" s="19" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="19" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="219" spans="2:3">
@@ -12540,73 +13308,167 @@
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="17" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="19" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="23" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="40" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="38" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
       <c r="B228" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="3" t="s">
+    <row r="233" spans="2:3">
+      <c r="B233" s="3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="3" t="s">
+    <row r="234" spans="2:3">
+      <c r="B234" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="3" t="s">
-        <v>674</v>
+    <row r="238" spans="2:3">
+      <c r="B238" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="C238" s="13"/>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="C239" s="13"/>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="C240" s="13"/>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C241" s="13"/>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="C242" s="13"/>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="46" t="s">
+        <v>868</v>
+      </c>
+      <c r="C245" s="47" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="46" t="s">
+        <v>869</v>
+      </c>
+      <c r="C246" s="46"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="46" t="s">
+        <v>871</v>
+      </c>
+      <c r="C247" s="46"/>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="46" t="s">
+        <v>870</v>
+      </c>
+      <c r="C248" s="46"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="48" t="s">
+        <v>883</v>
+      </c>
+      <c r="C253" s="48" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="3" t="s">
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -12636,53 +13498,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -12708,13 +13570,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12731,7 +13593,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12748,7 +13610,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12765,7 +13627,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -12782,24 +13644,24 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -12816,7 +13678,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -12833,7 +13695,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -12850,7 +13712,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -12867,7 +13729,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -12884,7 +13746,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -12901,7 +13763,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -12918,7 +13780,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -12935,7 +13797,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -12952,7 +13814,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -12969,7 +13831,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -12986,7 +13848,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -13003,7 +13865,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -13020,7 +13882,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -13037,7 +13899,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -13054,7 +13916,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -13071,7 +13933,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -13088,7 +13950,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -13105,7 +13967,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -13122,7 +13984,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -13139,7 +14001,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -13156,7 +14018,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -13173,7 +14035,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
@@ -13190,7 +14052,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -13207,7 +14069,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -13224,7 +14086,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -13241,7 +14103,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -13258,7 +14120,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
@@ -13275,7 +14137,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>20</v>
@@ -13292,7 +14154,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -13309,7 +14171,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -13326,7 +14188,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -13343,7 +14205,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -13360,7 +14222,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -13377,7 +14239,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -13394,7 +14256,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -13411,7 +14273,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -13428,7 +14290,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -13445,7 +14307,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -13462,7 +14324,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -13479,7 +14341,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -13496,7 +14358,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
@@ -13513,7 +14375,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
@@ -13530,7 +14392,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
@@ -13547,7 +14409,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
@@ -13564,7 +14426,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -13581,7 +14443,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -13598,7 +14460,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
@@ -13615,7 +14477,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
@@ -13632,7 +14494,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
@@ -13649,7 +14511,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>20</v>
@@ -13666,7 +14528,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
@@ -13683,7 +14545,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>20</v>
@@ -13700,7 +14562,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
@@ -13717,7 +14579,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
@@ -13734,7 +14596,7 @@
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
@@ -13751,7 +14613,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>20</v>
@@ -13791,151 +14653,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -13963,138 +14825,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -14119,13 +14981,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
-        <v>751</v>
+      <c r="A1" s="25" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -14133,7 +14995,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -14141,7 +15003,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -14149,7 +15011,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -14157,7 +15019,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -14165,7 +15027,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -14173,7 +15035,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -14181,7 +15043,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -14189,7 +15051,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -14197,7 +15059,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -14205,7 +15067,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -14213,7 +15075,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -14221,7 +15083,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -14229,7 +15091,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -14237,7 +15099,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -14245,7 +15107,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -14253,7 +15115,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -14261,7 +15123,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -14269,7 +15131,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -14277,7 +15139,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -14285,7 +15147,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -14293,7 +15155,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -14301,7 +15163,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -14309,7 +15171,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -14317,7 +15179,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -14325,7 +15187,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -14333,7 +15195,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -14341,7 +15203,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
@@ -14349,7 +15211,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -14357,7 +15219,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -14365,7 +15227,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -14373,7 +15235,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -14381,7 +15243,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
@@ -14389,7 +15251,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>20</v>
@@ -14397,7 +15259,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -14405,7 +15267,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -14413,7 +15275,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -14421,7 +15283,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -14429,7 +15291,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -14437,7 +15299,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -14445,7 +15307,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -14453,7 +15315,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -14461,7 +15323,7 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -14469,7 +15331,7 @@
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -14477,7 +15339,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -14485,7 +15347,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -14493,7 +15355,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
@@ -14501,7 +15363,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
@@ -14509,7 +15371,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
@@ -14517,7 +15379,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
@@ -14525,7 +15387,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -14533,7 +15395,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -14541,7 +15403,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>

--- a/GraphicalLinuxSubsystem.xlsx
+++ b/GraphicalLinuxSubsystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6876" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6876" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,8 @@
     <sheet name="【1-14】vm_operations_struct" sheetId="14" r:id="rId15"/>
     <sheet name="【1-15】module" sheetId="25" r:id="rId16"/>
     <sheet name="【1-16】signal_struct" sheetId="26" r:id="rId17"/>
-    <sheet name="【2-1】手写网络协议" sheetId="12" r:id="rId18"/>
+    <sheet name="【1-17】pt_regs" sheetId="27" r:id="rId18"/>
+    <sheet name="【2-1】手写网络协议" sheetId="12" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'【1-3】task_struct'!$B$5:$D$199</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="957">
   <si>
     <t>slab结构体关系</t>
   </si>
@@ -742,9 +743,6 @@
   </si>
   <si>
     <t xml:space="preserve">  [4672] atomic_t stack_refcount;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [4736] struct thread_struct thread;</t>
   </si>
   <si>
     <t>处理器特有结构体-处理器上下文</t>
@@ -3135,9 +3133,6 @@
     <t xml:space="preserve">    [56] struct task_struct *curr_target;</t>
   </si>
   <si>
-    <t xml:space="preserve">    [64] struct sigpending shared_pending;</t>
-  </si>
-  <si>
     <t xml:space="preserve">    [88] int group_exit_code;</t>
   </si>
   <si>
@@ -3361,9 +3356,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>struct sighand_struct {</t>
-  </si>
-  <si>
     <t xml:space="preserve">     [0] atomic_t count;</t>
   </si>
   <si>
@@ -3381,6 +3373,254 @@
   </si>
   <si>
     <t>保存信号处理函数的地址（do_sigaction 就是设置 sighand 里的信号处理函数。）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct sighand_struct {</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct k_sigaction {</t>
+  </si>
+  <si>
+    <t>struct sigaction {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    __sighandler_t sa_handler;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    unsigned long sa_flags;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    __sigrestore_t sa_restorer;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sigset_t sa_mask;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论如图所示当调用signal()会修改在PCB中sighand_struct-&gt;action[]回调函数。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是所谓的注册函数。但是9信号不能被重新注册，不能执行新的回调。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>见下文（个人理解signal和sigaction注册才能用上此结构体）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>见下文（个人理解：只有）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程独享的结构体（见下文）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    [64] struct sigpending shared_pending;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill(发送来的信号要在此结构体（task_struct-&gt;signal-&gt;shared_pending）中注册)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill针对进程信号发送而言</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [0] struct list_head list;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  [16] sigset_t signal;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-31不可靠信号，放置在sigset_t(如果存在信号，则丢弃)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>32-64可靠信号，放置在list中，（链表中都可以执行）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    [0] unsigned long r15;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [8] unsigned long r14;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [16] unsigned long r13;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [24] unsigned long r12;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [32] unsigned long bp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [40] unsigned long bx;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [48] unsigned long r11;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [56] unsigned long r10;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [64] unsigned long r9;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [72] unsigned long r8;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [80] unsigned long ax;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [88] unsigned long cx;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [96] unsigned long dx;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [104] unsigned long si;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [112] unsigned long di;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [120] unsigned long orig_ax;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [128] unsigned long ip;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [136] unsigned long cs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [144] unsigned long flags;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [152] unsigned long sp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [160] unsigned long ss;</t>
+  </si>
+  <si>
+    <t>SIZE: 168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [4736] struct thread_struct thread;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核栈信息(为啥是void*类型?)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt_sigframe</t>
+  </si>
+  <si>
+    <t>struct rt_sigframe {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [0] char *pretcode;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [8] struct ucontext uc;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [312] struct siginfo info;</t>
+  </si>
+  <si>
+    <t>SIZE: 440</t>
+  </si>
+  <si>
+    <t>pt_regs</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ksignal</t>
+  </si>
+  <si>
+    <t>struct ksignal {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [0] struct k_sigaction ka;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [160] int sig;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct sigaction sa;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct pt_regs {</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [32] siginfo_t info;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    [0] int si_signo;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [4] int si_errno;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [8] int si_code;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        union {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            int _pad[28];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            struct {...} _kill;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            struct {...} _timer;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            struct {...} _rt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            struct {...} _sigchld;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            struct {...} _sigfault;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            struct {...} _sigpoll;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            struct {...} _sigsys;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [16] } _sifields;</t>
+  </si>
+  <si>
+    <t>} siginfo_t;</t>
+  </si>
+  <si>
+    <t>typedef struct siginfo {</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>siginfo</t>
+  </si>
+  <si>
+    <t>setup_rt_frame-&gt;get_sigframe(创建一个用户栈强行把信号调用 加进去)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回到用户层继续执行，问题来了（信号2和信号9如何修改用户栈的）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3391,7 +3631,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3476,11 +3716,18 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3577,8 +3824,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3653,6 +3906,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3669,7 +4021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3723,9 +4075,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3734,6 +4083,27 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -5748,6 +6118,383 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="https://img-blog.csdn.net/20170321140028195"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="701040" y="22860"/>
+          <a:ext cx="5318760" cy="1973580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3604260</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="https://img-blog.csdn.net/20180513231933291?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3NvdWxsc2o=/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="701040" y="11993880"/>
+          <a:ext cx="5113020" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1844040</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1501140</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="https://img-blog.csdn.net/20180513233934591?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3NvdWxsc2o=/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11269980" y="6058070"/>
+          <a:ext cx="4869180" cy="2354409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3155474</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>20537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="4272198"/>
+          <a:ext cx="4740434" cy="1783379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3771900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>143373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915900" y="3685444"/>
+          <a:ext cx="3086100" cy="1395689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="http://www.itdaan.com/imgs/3/7/5/7/31/3d3023e1b21a1be67b0d7282e96d38e3.jpe"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8267700" y="11795760"/>
+          <a:ext cx="5951220" cy="2346960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>275643</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19613880" y="9065930"/>
+          <a:ext cx="2851203" cy="2944494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2125980</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>6866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>459927</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>75914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="11894066"/>
+          <a:ext cx="6502587" cy="1714968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -6927,7 +7674,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>6440004</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>81569</xdr:rowOff>
+      <xdr:rowOff>73949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6952,6 +7699,357 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10384898</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>145769</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="组合 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11833860" y="45986700"/>
+          <a:ext cx="10362038" cy="4496789"/>
+          <a:chOff x="6393180" y="46306740"/>
+          <a:chExt cx="10362038" cy="4496789"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="组合 9"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6393180" y="46306740"/>
+            <a:ext cx="10362038" cy="4496789"/>
+            <a:chOff x="6332220" y="46299120"/>
+            <a:chExt cx="10362038" cy="4496789"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="图片 2"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6332220" y="46466760"/>
+              <a:ext cx="4695238" cy="3761905"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="图片 3"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10987020" y="46299120"/>
+              <a:ext cx="5707238" cy="4496789"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="文本框 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8305800" y="47503080"/>
+              <a:ext cx="1158240" cy="243840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>4 =100(sig=3)</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文本框 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8366760" y="49377600"/>
+              <a:ext cx="1158240" cy="243840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>8 =1000(sig=4)</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="文本框 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12931140" y="46344840"/>
+              <a:ext cx="1463040" cy="220980"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>handle= 0x4005bd</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="文本框 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12969240" y="47068740"/>
+              <a:ext cx="1463040" cy="220980"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>handler= 0x4005de</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9265920" y="46459140"/>
+            <a:ext cx="2240280" cy="327660"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9349740" y="47320200"/>
+            <a:ext cx="2446020" cy="1356360"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7228,376 +8326,316 @@
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3566160</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>130201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3810000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>574665</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>173075</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="https://img-blog.csdn.net/20170321140028195"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="组合 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="701040" y="22860"/>
-          <a:ext cx="5318760" cy="1973580"/>
+          <a:off x="4175760" y="13480441"/>
+          <a:ext cx="6899265" cy="2968954"/>
+          <a:chOff x="4259580" y="13206121"/>
+          <a:chExt cx="6899265" cy="2968954"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3604260</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="https://img-blog.csdn.net/20180513231933291?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3NvdWxsc2o=/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="701040" y="11993880"/>
-          <a:ext cx="5113020" cy="2019300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1844040</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>23030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1501140</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>182879</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr="https://img-blog.csdn.net/20180513233934591?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3NvdWxsc2o=/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11269980" y="6058070"/>
-          <a:ext cx="4869180" cy="2354409"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>65958</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3155474</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>20537</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="624840" y="4272198"/>
-          <a:ext cx="4740434" cy="1783379"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>27844</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3771900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>143373</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12915900" y="3685444"/>
-          <a:ext cx="3086100" cy="1395689"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8" descr="http://www.itdaan.com/imgs/3/7/5/7/31/3d3023e1b21a1be67b0d7282e96d38e3.jpe"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8267700" y="11795760"/>
-          <a:ext cx="5951220" cy="2346960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>104810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>275643</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>123224</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19613880" y="9065930"/>
-          <a:ext cx="2851203" cy="2944494"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2125980</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>6866</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>459927</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>75914</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16764000" y="11894066"/>
-          <a:ext cx="6502587" cy="1714968"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="组合 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4259580" y="13251389"/>
+            <a:ext cx="3344679" cy="2923686"/>
+            <a:chOff x="4259580" y="13251389"/>
+            <a:chExt cx="3344679" cy="2923686"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="图片 1"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4259580" y="13251389"/>
+              <a:ext cx="2790305" cy="1302568"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="图片 2"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4274821" y="14531340"/>
+              <a:ext cx="3329438" cy="1643735"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="文本框 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5402580" y="14020800"/>
+            <a:ext cx="1524000" cy="259080"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2=10(kill</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>发送</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>信号</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="文本框 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5448300" y="15598140"/>
+            <a:ext cx="1524000" cy="259080"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4=100(kill</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>发送</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>信号</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="图片 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7056120" y="13206121"/>
+            <a:ext cx="4102725" cy="1566908"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="文本框 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9243060" y="14340840"/>
+            <a:ext cx="1524000" cy="259080"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>xxx=xx</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>(kill</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>发送</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>40</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>信号</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8031,7 +9069,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>0</v>
@@ -8045,15 +9083,15 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="L2" s="37" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="37" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>1</v>
@@ -8067,13 +9105,13 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="L3" s="37" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>2</v>
@@ -8082,26 +9120,26 @@
         <v>14</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="L4" s="37" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>3</v>
@@ -8115,13 +9153,13 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="L5" s="37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="37" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>4</v>
@@ -8135,13 +9173,13 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="L6" s="37" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="37" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
@@ -8155,13 +9193,13 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="L7" s="37" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="37" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -8175,13 +9213,13 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="L8" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="37" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
@@ -8195,13 +9233,13 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="L9" s="37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="37" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>8</v>
@@ -8215,13 +9253,13 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" s="37" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="37" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>9</v>
@@ -8235,13 +9273,13 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="37" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>10</v>
@@ -8255,13 +9293,13 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" s="37" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>11</v>
@@ -8275,13 +9313,13 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>12</v>
@@ -8295,13 +9333,13 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>13</v>
@@ -8315,16 +9353,16 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -8335,16 +9373,16 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="37" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -8355,31 +9393,39 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="37" t="s">
-        <v>764</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+        <v>763</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>954</v>
+      </c>
       <c r="F18" s="16"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="37" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -8391,13 +9437,13 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="37" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -8409,7 +9455,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -8424,6 +9470,7 @@
     <hyperlink ref="B7" location="'【1-6】vm_area_struct'!A1" display="vm_area_struct"/>
     <hyperlink ref="B10" location="'【1-9】rq'!A1" display="rq"/>
     <hyperlink ref="B17" location="'【1-16】signal_struct'!A1" display="signal_struct"/>
+    <hyperlink ref="B18" location="'【1-17】pt_regs'!A1" display="pt_regs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8446,7 +9493,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8454,7 +9501,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -8462,7 +9509,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -8470,7 +9517,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -8478,7 +9525,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -8486,7 +9533,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -8494,7 +9541,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -8502,7 +9549,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -8510,7 +9557,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -8518,7 +9565,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -8526,7 +9573,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -8534,7 +9581,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -8542,7 +9589,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -8550,7 +9597,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -8558,7 +9605,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -8566,7 +9613,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -8574,7 +9621,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -8582,23 +9629,23 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>791</v>
+      <c r="C20" s="41" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -8606,7 +9653,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -8614,7 +9661,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -8622,7 +9669,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -8630,7 +9677,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -8638,7 +9685,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -8646,7 +9693,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -8654,7 +9701,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -8662,7 +9709,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
@@ -8670,7 +9717,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -8678,7 +9725,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -8686,7 +9733,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -8694,7 +9741,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -8702,7 +9749,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
@@ -8710,7 +9757,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>20</v>
@@ -8718,7 +9765,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -8726,7 +9773,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -8734,7 +9781,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -8742,7 +9789,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -8750,7 +9797,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -8758,7 +9805,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -8766,7 +9813,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -8774,7 +9821,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -8782,7 +9829,7 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -8790,7 +9837,7 @@
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -8798,7 +9845,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -8806,7 +9853,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -8814,7 +9861,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
@@ -8822,7 +9869,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
@@ -8830,7 +9877,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
@@ -8838,7 +9885,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
@@ -8846,7 +9893,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -8854,7 +9901,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -8862,7 +9909,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
@@ -8870,7 +9917,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
@@ -8878,7 +9925,7 @@
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
@@ -8886,7 +9933,7 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>20</v>
@@ -8894,7 +9941,7 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
@@ -8902,7 +9949,7 @@
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>20</v>
@@ -8910,7 +9957,7 @@
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
@@ -8918,7 +9965,7 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
@@ -8926,7 +9973,7 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
@@ -8934,7 +9981,7 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
     </row>
@@ -8963,162 +10010,162 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -9144,254 +10191,254 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -9420,47 +10467,47 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -9485,167 +10532,167 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -9670,82 +10717,82 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -9770,317 +10817,317 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -10092,347 +11139,669 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="42" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="47" t="s">
+        <v>897</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="47" t="s">
+        <v>898</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="13" t="s">
+        <v>797</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="43" t="s">
-        <v>866</v>
+      <c r="A1" s="42" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>802</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>803</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>804</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>805</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>806</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>807</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>808</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>809</v>
+        <v>907</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>810</v>
+        <v>908</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>811</v>
+        <v>909</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>812</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>813</v>
+        <v>911</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>814</v>
+        <v>912</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>815</v>
+        <v>913</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>816</v>
+        <v>914</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>817</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>818</v>
+        <v>916</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>819</v>
+        <v>917</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>820</v>
+        <v>918</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>821</v>
+        <v>919</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>822</v>
+        <v>920</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>823</v>
+        <v>921</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>824</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>828</v>
+        <v>922</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>829</v>
+        <v>926</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>831</v>
+        <v>928</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>832</v>
+        <v>929</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>833</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>836</v>
+        <v>930</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>837</v>
+        <v>933</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>838</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>839</v>
+        <v>938</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>840</v>
+        <v>935</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>841</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>844</v>
+        <v>922</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>845</v>
+        <v>953</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>846</v>
+        <v>939</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>847</v>
+        <v>940</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>848</v>
+        <v>941</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>849</v>
+        <v>942</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>850</v>
+        <v>943</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>851</v>
+        <v>944</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>852</v>
+        <v>945</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>853</v>
+        <v>946</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>854</v>
+        <v>947</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>855</v>
+        <v>948</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>856</v>
+        <v>949</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>857</v>
+        <v>950</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>858</v>
+        <v>951</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
-        <v>865</v>
+        <v>952</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
   </hyperlinks>
@@ -10440,7 +11809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R98"/>
   <sheetViews>
@@ -10461,39 +11830,39 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="18" customFormat="1"/>
     <row r="14" spans="1:9">
       <c r="B14" s="1"/>
       <c r="H14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>680</v>
-      </c>
       <c r="F15" s="19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="26"/>
       <c r="I15" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="C16" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="27"/>
@@ -10501,75 +11870,75 @@
     <row r="17" spans="3:18">
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H17" s="29">
         <v>513</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="3:18">
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H18" s="27">
         <v>1027</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="3:18">
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H19" s="27">
         <v>134678021</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="3:18">
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H20" s="27">
         <v>202050057</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="3:18">
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="33" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H21" s="33">
         <v>13</v>
@@ -10581,7 +11950,7 @@
       <c r="D22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H22" s="33">
         <v>32</v>
@@ -10590,12 +11959,12 @@
     </row>
     <row r="23" spans="3:18">
       <c r="C23" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H23" s="33">
         <v>1</v>
@@ -10605,7 +11974,7 @@
     <row r="24" spans="3:18">
       <c r="F24" s="18"/>
       <c r="G24" s="33" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H24" s="33">
         <v>1</v>
@@ -10615,7 +11984,7 @@
     <row r="25" spans="3:18">
       <c r="F25" s="18"/>
       <c r="G25" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H25" s="33">
         <v>0</v>
@@ -10625,7 +11994,7 @@
     <row r="26" spans="3:18">
       <c r="F26" s="18"/>
       <c r="G26" s="33" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H26" s="33">
         <v>0</v>
@@ -10638,7 +12007,7 @@
     <row r="27" spans="3:18">
       <c r="F27" s="18"/>
       <c r="G27" s="33" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H27" s="33">
         <v>0</v>
@@ -10648,7 +12017,7 @@
     <row r="28" spans="3:18">
       <c r="F28" s="18"/>
       <c r="G28" s="33" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H28" s="33">
         <v>0</v>
@@ -10658,275 +12027,275 @@
     <row r="29" spans="3:18">
       <c r="F29" s="18"/>
       <c r="G29" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H29" s="27">
         <v>4111</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="3:18">
       <c r="F30" s="18"/>
       <c r="G30" s="27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H30" s="27">
         <v>4625</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="3:18">
       <c r="F31" s="18"/>
       <c r="G31" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H31" s="28">
         <v>5139</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="3:18">
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="J32" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="48" spans="6:7" s="18" customFormat="1"/>
     <row r="51" spans="3:9">
       <c r="C51" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>694</v>
-      </c>
       <c r="F51" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D52" s="19"/>
       <c r="F52" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G52" s="19"/>
       <c r="I52" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I54" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="19"/>
       <c r="D56" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I56" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="I58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="18" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="19"/>
       <c r="D61" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="19"/>
       <c r="D62" s="19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="19"/>
       <c r="D63" s="19" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G63" s="19"/>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="19"/>
       <c r="D64" s="19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>695</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="87" spans="3:4" s="35" customFormat="1"/>
     <row r="91" spans="3:4">
       <c r="C91" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>704</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="C92" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D92" s="23"/>
     </row>
     <row r="93" spans="3:4">
       <c r="C93" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D93" s="23"/>
     </row>
     <row r="94" spans="3:4">
       <c r="C94" s="23"/>
       <c r="D94" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="C95" s="23"/>
       <c r="D95" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="C96" s="23"/>
       <c r="D96" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="97" spans="3:4">
       <c r="C97" s="23"/>
       <c r="D97" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D98" s="23"/>
     </row>
@@ -10956,40 +12325,40 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" s="15"/>
@@ -11025,7 +12394,7 @@
   <sheetData>
     <row r="1" spans="13:13">
       <c r="M1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -11041,10 +12410,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -11058,7 +12427,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11079,10 +12448,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>792</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>793</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
@@ -11100,11 +12469,11 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
+      <c r="C8" s="22" t="s">
+        <v>924</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
@@ -11159,7 +12528,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
@@ -11236,40 +12605,40 @@
         <v>35</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>632</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>633</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>20</v>
@@ -11288,10 +12657,10 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>20</v>
@@ -12160,27 +13529,24 @@
       <c r="C105" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="45" t="s">
-        <v>801</v>
-      </c>
-      <c r="C106" s="44" t="s">
-        <v>873</v>
+      <c r="B106" s="44" t="s">
+        <v>800</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>871</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="45" t="s">
-        <v>877</v>
-      </c>
-      <c r="C107" s="45" t="s">
+      <c r="B107" s="44" t="s">
         <v>875</v>
+      </c>
+      <c r="C107" s="44" t="s">
+        <v>891</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>20</v>
@@ -12191,7 +13557,7 @@
         <v>125</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>20</v>
@@ -12202,7 +13568,7 @@
         <v>126</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>20</v>
@@ -12213,18 +13579,18 @@
         <v>127</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="49" t="s">
-        <v>795</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>875</v>
+      <c r="B111" s="48" t="s">
+        <v>794</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>892</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>20</v>
@@ -13167,10 +14533,10 @@
     </row>
     <row r="197" spans="2:4">
       <c r="B197" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="C197" s="14" t="s">
         <v>213</v>
-      </c>
-      <c r="C197" s="14" t="s">
-        <v>214</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>20</v>
@@ -13178,7 +14544,7 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>20</v>
@@ -13189,7 +14555,7 @@
     </row>
     <row r="199" spans="2:4">
       <c r="B199" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>20</v>
@@ -13198,107 +14564,122 @@
         <v>20</v>
       </c>
     </row>
+    <row r="200" spans="2:4" ht="15" thickBot="1"/>
     <row r="201" spans="2:4">
-      <c r="B201" s="17" t="s">
+      <c r="B201" s="55" t="s">
+        <v>654</v>
+      </c>
+      <c r="C201" s="56"/>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="57" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="202" spans="2:4">
-      <c r="B202" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="C202" s="21" t="s">
+      <c r="C202" s="58" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" s="59" t="s">
+        <v>640</v>
+      </c>
+      <c r="C203" s="60"/>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" s="59" t="s">
+        <v>641</v>
+      </c>
+      <c r="C204" s="60"/>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" s="61" t="s">
+        <v>642</v>
+      </c>
+      <c r="C205" s="62" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" s="63" t="s">
+        <v>643</v>
+      </c>
+      <c r="C206" s="60"/>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="63" t="s">
+        <v>644</v>
+      </c>
+      <c r="C207" s="60"/>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" s="63" t="s">
+        <v>645</v>
+      </c>
+      <c r="C208" s="64" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="63" t="s">
+        <v>646</v>
+      </c>
+      <c r="C209" s="60"/>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="59" t="s">
+        <v>647</v>
+      </c>
+      <c r="C210" s="60"/>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="59" t="s">
+        <v>648</v>
+      </c>
+      <c r="C211" s="60"/>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="59" t="s">
+        <v>649</v>
+      </c>
+      <c r="C212" s="60"/>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="59" t="s">
+        <v>650</v>
+      </c>
+      <c r="C213" s="60"/>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="59" t="s">
+        <v>651</v>
+      </c>
+      <c r="C214" s="60"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="59" t="s">
+        <v>652</v>
+      </c>
+      <c r="C215" s="60"/>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="63" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="203" spans="2:4">
-      <c r="B203" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4">
-      <c r="B204" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4">
-      <c r="B205" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="C205" s="24" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4">
-      <c r="B206" s="19" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4">
-      <c r="B207" s="19" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4">
-      <c r="B208" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3">
-      <c r="B209" s="19" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3">
-      <c r="B211" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3">
-      <c r="B212" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3">
-      <c r="B213" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3">
-      <c r="B214" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3">
-      <c r="B215" t="s">
+      <c r="C216" s="64" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C217" s="60"/>
+    </row>
+    <row r="218" spans="2:3" ht="15" thickBot="1">
+      <c r="B218" s="65" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="216" spans="2:3">
-      <c r="B216" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="C216" s="22" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3">
-      <c r="B217" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3">
-      <c r="B218" t="s">
-        <v>654</v>
-      </c>
+      <c r="C218" s="66"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219"/>
@@ -13308,167 +14689,244 @@
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="234" spans="2:3">
       <c r="B234" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="48" t="s">
-        <v>799</v>
+      <c r="B238" s="47" t="s">
+        <v>798</v>
       </c>
       <c r="C238" s="13"/>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C239" s="13"/>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C240" s="13"/>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C241" s="13"/>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C242" s="13"/>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="46" t="s">
+      <c r="B245" s="45" t="s">
+        <v>866</v>
+      </c>
+      <c r="C245" s="46" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="45" t="s">
+        <v>867</v>
+      </c>
+      <c r="C246" s="45"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="45" t="s">
+        <v>869</v>
+      </c>
+      <c r="C247" s="45"/>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="45" t="s">
         <v>868</v>
       </c>
-      <c r="C245" s="47" t="s">
+      <c r="C248" s="45"/>
+    </row>
+    <row r="250" spans="2:3" ht="15" thickBot="1"/>
+    <row r="251" spans="2:3">
+      <c r="B251" s="50" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="51" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="246" spans="2:3">
-      <c r="B246" s="46" t="s">
-        <v>869</v>
-      </c>
-      <c r="C246" s="46"/>
-    </row>
-    <row r="247" spans="2:3">
-      <c r="B247" s="46" t="s">
-        <v>871</v>
-      </c>
-      <c r="C247" s="46"/>
-    </row>
-    <row r="248" spans="2:3">
-      <c r="B248" s="46" t="s">
-        <v>870</v>
-      </c>
-      <c r="C248" s="46"/>
-    </row>
-    <row r="251" spans="2:3">
-      <c r="B251" s="3" t="s">
+    <row r="253" spans="2:3">
+      <c r="B253" s="52" t="s">
+        <v>880</v>
+      </c>
+      <c r="C253" s="47" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="51" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="51" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="252" spans="2:3">
-      <c r="B252" s="3" t="s">
+      <c r="C255" s="54" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C256" s="54" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" s="51" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="253" spans="2:3">
-      <c r="B253" s="48" t="s">
+    <row r="258" spans="2:3">
+      <c r="B258" s="51"/>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" s="51" t="s">
         <v>883</v>
       </c>
-      <c r="C253" s="48" t="s">
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" s="51" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="51" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="51"/>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="51"/>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" s="51" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="3" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="3" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3">
-      <c r="B256" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" s="3" t="s">
-        <v>882</v>
+    <row r="266" spans="2:3">
+      <c r="B266" s="67" t="s">
+        <v>885</v>
+      </c>
+      <c r="C266" s="24" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" s="51" t="s">
+        <v>886</v>
+      </c>
+      <c r="C267" s="24" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="51" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" s="51" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" s="51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" ht="15" thickBot="1">
+      <c r="B271" s="53" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -13499,52 +14957,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -13571,12 +15029,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -13593,7 +15051,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -13610,7 +15068,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -13627,7 +15085,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -13644,24 +15102,24 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -13678,7 +15136,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -13695,7 +15153,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -13712,7 +15170,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -13729,7 +15187,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -13746,7 +15204,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -13763,7 +15221,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -13780,7 +15238,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -13797,7 +15255,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -13814,7 +15272,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -13831,7 +15289,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -13848,7 +15306,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -13865,7 +15323,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -13882,7 +15340,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -13899,7 +15357,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -13916,7 +15374,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -13933,7 +15391,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -13950,7 +15408,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -13967,7 +15425,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -13984,7 +15442,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -14001,7 +15459,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -14018,7 +15476,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -14035,7 +15493,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
@@ -14052,7 +15510,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -14069,7 +15527,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -14086,7 +15544,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -14103,7 +15561,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -14120,7 +15578,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
@@ -14137,7 +15595,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>20</v>
@@ -14154,7 +15612,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -14171,7 +15629,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -14188,7 +15646,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -14205,7 +15663,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -14222,7 +15680,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -14239,7 +15697,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -14256,7 +15714,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -14273,7 +15731,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -14290,7 +15748,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -14307,7 +15765,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -14324,7 +15782,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -14341,7 +15799,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -14358,7 +15816,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
@@ -14375,7 +15833,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
@@ -14392,7 +15850,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
@@ -14409,7 +15867,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
@@ -14426,7 +15884,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -14443,7 +15901,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -14460,7 +15918,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
@@ -14477,7 +15935,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
@@ -14494,7 +15952,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
@@ -14511,7 +15969,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>20</v>
@@ -14528,7 +15986,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
@@ -14545,7 +16003,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>20</v>
@@ -14562,7 +16020,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
@@ -14579,7 +16037,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
@@ -14596,7 +16054,7 @@
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
@@ -14613,7 +16071,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>20</v>
@@ -14654,150 +16112,150 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -14826,137 +16284,137 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -14982,12 +16440,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -14995,7 +16453,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -15003,7 +16461,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -15011,7 +16469,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -15019,7 +16477,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -15027,7 +16485,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -15035,7 +16493,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -15043,7 +16501,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -15051,7 +16509,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -15059,7 +16517,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -15067,7 +16525,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -15075,7 +16533,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -15083,7 +16541,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -15091,7 +16549,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -15099,7 +16557,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -15107,7 +16565,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -15115,7 +16573,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -15123,7 +16581,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -15131,7 +16589,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -15139,7 +16597,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -15147,7 +16605,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -15155,7 +16613,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -15163,7 +16621,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -15171,7 +16629,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -15179,7 +16637,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -15187,7 +16645,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -15195,7 +16653,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -15203,7 +16661,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
@@ -15211,7 +16669,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -15219,7 +16677,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -15227,7 +16685,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -15235,7 +16693,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -15243,7 +16701,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
@@ -15251,7 +16709,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>20</v>
@@ -15259,7 +16717,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -15267,7 +16725,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -15275,7 +16733,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -15283,7 +16741,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -15291,7 +16749,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -15299,7 +16757,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -15307,7 +16765,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -15315,7 +16773,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -15323,7 +16781,7 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -15331,7 +16789,7 @@
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -15339,7 +16797,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -15347,7 +16805,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -15355,7 +16813,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
@@ -15363,7 +16821,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
@@ -15371,7 +16829,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
@@ -15379,7 +16837,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
@@ -15387,7 +16845,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -15395,7 +16853,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -15403,7 +16861,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>

--- a/GraphicalLinuxSubsystem.xlsx
+++ b/GraphicalLinuxSubsystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6876" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6876" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,10 @@
     <sheet name="【1-15】module" sheetId="25" r:id="rId16"/>
     <sheet name="【1-16】signal_struct" sheetId="26" r:id="rId17"/>
     <sheet name="【1-17】pt_regs" sheetId="27" r:id="rId18"/>
-    <sheet name="【2-1】手写网络协议" sheetId="12" r:id="rId19"/>
+    <sheet name="【1-18】stack_trace" sheetId="30" r:id="rId19"/>
+    <sheet name="【2-1】手写网络协议" sheetId="12" r:id="rId20"/>
+    <sheet name="【2-2】用户栈和内核栈" sheetId="28" r:id="rId21"/>
+    <sheet name="【2-3】多进程和多线程的区别" sheetId="29" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'【1-3】task_struct'!$B$5:$D$199</definedName>
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="983">
   <si>
     <t>slab结构体关系</t>
   </si>
@@ -133,9 +136,6 @@
   </si>
   <si>
     <t xml:space="preserve">     [8] volatile long state;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [16] void *stack;</t>
   </si>
   <si>
     <t xml:space="preserve">    [24] atomic_t usage;</t>
@@ -3076,14 +3076,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     [0] struct thread_info thread_info;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断进程的标识，是否可以被抢占</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>SPM实现无加锁的切换</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -3507,9 +3499,6 @@
     <t xml:space="preserve">  [152] unsigned long sp;</t>
   </si>
   <si>
-    <t xml:space="preserve">  [160] unsigned long ss;</t>
-  </si>
-  <si>
     <t>SIZE: 168</t>
   </si>
   <si>
@@ -3622,6 +3611,156 @@
   <si>
     <t>返回到用户层继续执行，问题来了（信号2和信号9如何修改用户栈的）</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>体系相关的参数在此结构体中</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    [16] void *stack;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     [0] struct thread_info thread_info;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  [160] unsigned long ss;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户栈和内核栈</t>
+  </si>
+  <si>
+    <t>stack_trace</t>
+  </si>
+  <si>
+    <t>struct stack_trace {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [0] unsigned int nr_entries;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [4] unsigned int max_entries;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [8] unsigned long *entries;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [16] int skip;</t>
+  </si>
+  <si>
+    <t>栈顶指针</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令指针寄存器</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>多进程和多线程的区别</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/103027724</t>
+  </si>
+  <si>
+    <r>
+      <t>线程在内核中也有自己的P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CB但是并不关在init_task上。</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>由内核知道共享m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程组长(管理子线程)主线程和子线程task_struct和group_leader一样</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程和线程</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu调度</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下文切换</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据共享</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>多核利用率</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PU上下文</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程上下文</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户空间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核空间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局变量共享，用户栈属于自己私有</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3631,7 +3770,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3705,6 +3844,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4083,9 +4229,6 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4104,6 +4247,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -6484,6 +6630,509 @@
         <a:xfrm>
           <a:off x="16764000" y="11894066"/>
           <a:ext cx="6502587" cy="1714968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>558858</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>143947</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="组合 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="617220" y="428822"/>
+          <a:ext cx="9695238" cy="6704504"/>
+          <a:chOff x="4907280" y="1325880"/>
+          <a:chExt cx="9695238" cy="6666667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="组合 8"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4907280" y="1325880"/>
+            <a:ext cx="9695238" cy="6666667"/>
+            <a:chOff x="1097280" y="1645920"/>
+            <a:chExt cx="9695238" cy="6666667"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="5" name="组合 4"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1097280" y="1645920"/>
+              <a:ext cx="9695238" cy="6666667"/>
+              <a:chOff x="762000" y="1767840"/>
+              <a:chExt cx="9695238" cy="6666667"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="2" name="图片 1"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="762000" y="1767840"/>
+                <a:ext cx="9695238" cy="6666667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="3" name="文本框 2"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4610100" y="6286500"/>
+                <a:ext cx="1493520" cy="259080"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:t>最低位置</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="文本框 3"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4564380" y="3695700"/>
+                <a:ext cx="1737360" cy="457200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000"/>
+                      </a:outerShdw>
+                      <a:reflection endPos="0" dist="38100" dir="5400000" sy="-100000" algn="bl"/>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>pt_regs</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000"/>
+                      </a:outerShdw>
+                      <a:reflection endPos="0" dist="38100" dir="5400000" sy="-100000" algn="bl"/>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000"/>
+                      </a:outerShdw>
+                      <a:reflection endPos="0" dist="38100" dir="5400000" sy="-100000" algn="bl"/>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>结构体</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000"/>
+                      </a:outerShdw>
+                      <a:reflection endPos="0" dist="38100" dir="5400000" sy="-100000" algn="bl"/>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>保存用户</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000"/>
+                      </a:outerShdw>
+                      <a:reflection endPos="0" dist="38100" dir="5400000" sy="-100000" algn="bl"/>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>CPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000"/>
+                      </a:outerShdw>
+                      <a:reflection endPos="0" dist="38100" dir="5400000" sy="-100000" algn="bl"/>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>上下文信息</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="文本框 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3063240" y="3962400"/>
+              <a:ext cx="1737360" cy="251460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                    <a:reflection endPos="0" dist="38100" dir="5400000" sy="-100000" algn="bl"/>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>64</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                    <a:reflection endPos="0" dist="38100" dir="5400000" sy="-100000" algn="bl"/>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>位内核栈是</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                    <a:reflection endPos="0" dist="38100" dir="5400000" sy="-100000" algn="bl"/>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>16K(0x4000)</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="左大括号 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8564880" y="3710940"/>
+            <a:ext cx="175260" cy="1485900"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftBrace">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>71592</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>157264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3444240" y="8161020"/>
+          <a:ext cx="6380952" cy="6809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>196832</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3754742</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196832" y="838200"/>
+          <a:ext cx="4777110" cy="4239685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9044,7 +9693,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9055,7 +9704,7 @@
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9069,7 +9718,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>0</v>
@@ -9083,15 +9732,15 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="L2" s="37" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>1</v>
@@ -9105,13 +9754,15 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="L3" s="37" t="s">
-        <v>767</v>
-      </c>
-      <c r="M3" s="16"/>
+        <v>766</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>2</v>
@@ -9120,26 +9771,28 @@
         <v>14</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="L4" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="M4" s="16"/>
+        <v>767</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="37" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>3</v>
@@ -9153,13 +9806,13 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="L5" s="37" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>4</v>
@@ -9173,13 +9826,13 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="L6" s="37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="37" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
@@ -9193,13 +9846,13 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="L7" s="37" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="37" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -9213,13 +9866,13 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="L8" s="37" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="37" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
@@ -9233,13 +9886,13 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="L9" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="37" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>8</v>
@@ -9253,13 +9906,13 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" s="37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="37" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>9</v>
@@ -9273,13 +9926,13 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" s="37" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="37" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>10</v>
@@ -9293,13 +9946,13 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="37" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>11</v>
@@ -9313,13 +9966,13 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" s="37" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>12</v>
@@ -9333,13 +9986,13 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>13</v>
@@ -9353,16 +10006,16 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -9373,16 +10026,16 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -9393,25 +10046,25 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="37" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="3"/>
@@ -9419,15 +10072,17 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="37" t="s">
-        <v>764</v>
-      </c>
-      <c r="B19" s="16"/>
+        <v>763</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>958</v>
+      </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -9437,13 +10092,13 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="37" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -9455,7 +10110,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -9471,6 +10126,9 @@
     <hyperlink ref="B10" location="'【1-9】rq'!A1" display="rq"/>
     <hyperlink ref="B17" location="'【1-16】signal_struct'!A1" display="signal_struct"/>
     <hyperlink ref="B18" location="'【1-17】pt_regs'!A1" display="pt_regs"/>
+    <hyperlink ref="M3" location="'【2-2】用户栈和内核栈'!A1" display="用户栈和内核栈"/>
+    <hyperlink ref="B19" location="'【1-18】stack_trace'!A1" display="stack_trace"/>
+    <hyperlink ref="M4" location="'【2-3】多进程和多线程的区别'!A1" display="多进程和多线程的区别"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9493,7 +10151,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9501,7 +10159,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -9509,7 +10167,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -9517,7 +10175,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -9525,7 +10183,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -9533,7 +10191,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -9541,7 +10199,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -9549,7 +10207,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -9557,7 +10215,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -9565,7 +10223,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -9573,7 +10231,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -9581,7 +10239,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -9589,7 +10247,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -9597,7 +10255,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -9605,7 +10263,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -9613,7 +10271,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -9621,7 +10279,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -9629,7 +10287,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -9637,15 +10295,15 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -9653,7 +10311,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -9661,7 +10319,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -9669,7 +10327,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -9677,7 +10335,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -9685,7 +10343,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -9693,7 +10351,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -9701,7 +10359,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -9709,7 +10367,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
@@ -9717,7 +10375,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -9725,7 +10383,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -9733,7 +10391,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -9741,7 +10399,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -9749,7 +10407,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
@@ -9757,7 +10415,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>20</v>
@@ -9765,7 +10423,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -9773,7 +10431,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -9781,7 +10439,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -9789,7 +10447,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -9797,7 +10455,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -9805,7 +10463,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -9813,7 +10471,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -9821,7 +10479,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -9829,7 +10487,7 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -9837,7 +10495,7 @@
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -9845,7 +10503,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -9853,7 +10511,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -9861,7 +10519,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
@@ -9869,7 +10527,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
@@ -9877,7 +10535,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
@@ -9885,7 +10543,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
@@ -9893,7 +10551,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -9901,7 +10559,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -9909,7 +10567,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
@@ -9917,7 +10575,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
@@ -9925,7 +10583,7 @@
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
@@ -9933,7 +10591,7 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>20</v>
@@ -9941,7 +10599,7 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
@@ -9949,7 +10607,7 @@
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>20</v>
@@ -9957,7 +10615,7 @@
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
@@ -9965,7 +10623,7 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
@@ -9973,7 +10631,7 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
@@ -9981,7 +10639,7 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
     </row>
@@ -10010,162 +10668,162 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -10191,254 +10849,254 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -10467,47 +11125,47 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -10532,167 +11190,167 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -10717,82 +11375,82 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -10817,317 +11475,317 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -11151,372 +11809,372 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="42" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="18" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="47" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="47" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="47" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -11531,277 +12189,349 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="42" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>937</v>
+      <c r="B3" s="17" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="19" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="C20" s="19" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" s="19" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="C23" s="19" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="17" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="42" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>794</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
   </hyperlinks>
@@ -11809,7 +12539,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R98"/>
   <sheetViews>
@@ -11830,39 +12632,39 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="18" customFormat="1"/>
     <row r="14" spans="1:9">
       <c r="B14" s="1"/>
       <c r="H14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>678</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>679</v>
-      </c>
       <c r="F15" s="19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="26"/>
       <c r="I15" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="C16" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="27"/>
@@ -11870,75 +12672,75 @@
     <row r="17" spans="3:18">
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H17" s="29">
         <v>513</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="3:18">
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H18" s="27">
         <v>1027</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="3:18">
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H19" s="27">
         <v>134678021</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="3:18">
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H20" s="27">
         <v>202050057</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="3:18">
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="33" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H21" s="33">
         <v>13</v>
@@ -11950,7 +12752,7 @@
       <c r="D22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="33" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H22" s="33">
         <v>32</v>
@@ -11959,12 +12761,12 @@
     </row>
     <row r="23" spans="3:18">
       <c r="C23" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H23" s="33">
         <v>1</v>
@@ -11974,7 +12776,7 @@
     <row r="24" spans="3:18">
       <c r="F24" s="18"/>
       <c r="G24" s="33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H24" s="33">
         <v>1</v>
@@ -11984,7 +12786,7 @@
     <row r="25" spans="3:18">
       <c r="F25" s="18"/>
       <c r="G25" s="33" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H25" s="33">
         <v>0</v>
@@ -11994,7 +12796,7 @@
     <row r="26" spans="3:18">
       <c r="F26" s="18"/>
       <c r="G26" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H26" s="33">
         <v>0</v>
@@ -12007,7 +12809,7 @@
     <row r="27" spans="3:18">
       <c r="F27" s="18"/>
       <c r="G27" s="33" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H27" s="33">
         <v>0</v>
@@ -12017,7 +12819,7 @@
     <row r="28" spans="3:18">
       <c r="F28" s="18"/>
       <c r="G28" s="33" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H28" s="33">
         <v>0</v>
@@ -12027,275 +12829,275 @@
     <row r="29" spans="3:18">
       <c r="F29" s="18"/>
       <c r="G29" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H29" s="27">
         <v>4111</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="3:18">
       <c r="F30" s="18"/>
       <c r="G30" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H30" s="27">
         <v>4625</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="3:18">
       <c r="F31" s="18"/>
       <c r="G31" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H31" s="28">
         <v>5139</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="32" spans="3:18">
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="J32" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="48" spans="6:7" s="18" customFormat="1"/>
     <row r="51" spans="3:9">
       <c r="C51" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>693</v>
-      </c>
       <c r="F51" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D52" s="19"/>
       <c r="F52" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G52" s="19"/>
       <c r="I52" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I54" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="19"/>
       <c r="D56" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I56" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="I58" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="18" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="19"/>
       <c r="D61" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="19"/>
       <c r="D62" s="19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="19"/>
       <c r="D63" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G63" s="19"/>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="19"/>
       <c r="D64" s="19" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>694</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="87" spans="3:4" s="35" customFormat="1"/>
     <row r="91" spans="3:4">
       <c r="C91" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>703</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="C92" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D92" s="23"/>
     </row>
     <row r="93" spans="3:4">
       <c r="C93" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D93" s="23"/>
     </row>
     <row r="94" spans="3:4">
       <c r="C94" s="23"/>
       <c r="D94" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="C95" s="23"/>
       <c r="D95" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="C96" s="23"/>
       <c r="D96" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="97" spans="3:4">
       <c r="C97" s="23"/>
       <c r="D97" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D98" s="23"/>
     </row>
@@ -12310,74 +13112,122 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="D13" s="15"/>
+        <v>745</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:F5"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="H2" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="C3" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="F3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4" s="17" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="F7" t="s">
+        <v>973</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="G8" s="17" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" t="s">
+        <v>974</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="G18" s="17" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" s="17" t="s">
+        <v>975</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -12394,7 +13244,7 @@
   <sheetData>
     <row r="1" spans="13:13">
       <c r="M1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -12412,9 +13262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -12427,7 +13275,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12448,10 +13296,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="21" t="s">
-        <v>791</v>
+        <v>955</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>792</v>
+        <v>953</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
@@ -12470,10 +13318,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="22" t="s">
-        <v>22</v>
+        <v>954</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
@@ -12481,7 +13329,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -12492,7 +13340,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
@@ -12503,7 +13351,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -12514,7 +13362,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -12525,10 +13373,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
@@ -12536,10 +13384,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -12547,7 +13395,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -12558,7 +13406,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
@@ -12569,7 +13417,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -12580,7 +13428,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
@@ -12591,7 +13439,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>20</v>
@@ -12602,43 +13450,43 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>631</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>632</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>20</v>
@@ -12646,7 +13494,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>20</v>
@@ -12657,10 +13505,10 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>20</v>
@@ -12668,7 +13516,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>20</v>
@@ -12679,7 +13527,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>20</v>
@@ -12690,7 +13538,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>20</v>
@@ -12701,7 +13549,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>20</v>
@@ -12712,7 +13560,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>20</v>
@@ -12723,10 +13571,10 @@
     </row>
     <row r="31" spans="2:4" ht="15.6">
       <c r="B31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>20</v>
@@ -12734,7 +13582,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>20</v>
@@ -12745,7 +13593,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>20</v>
@@ -12756,7 +13604,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>20</v>
@@ -12767,7 +13615,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>20</v>
@@ -12778,7 +13626,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>20</v>
@@ -12789,7 +13637,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>20</v>
@@ -12800,27 +13648,27 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>20</v>
@@ -12828,7 +13676,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>20</v>
@@ -12837,7 +13685,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>20</v>
@@ -12848,7 +13696,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>20</v>
@@ -12859,7 +13707,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>20</v>
@@ -12870,7 +13718,7 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>20</v>
@@ -12881,7 +13729,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>20</v>
@@ -12892,7 +13740,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>20</v>
@@ -12903,7 +13751,7 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>20</v>
@@ -12914,7 +13762,7 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>20</v>
@@ -12925,7 +13773,7 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>20</v>
@@ -12936,7 +13784,7 @@
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>20</v>
@@ -12947,7 +13795,7 @@
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>20</v>
@@ -12958,7 +13806,7 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>20</v>
@@ -12969,7 +13817,7 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>20</v>
@@ -12980,7 +13828,7 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>20</v>
@@ -12991,7 +13839,7 @@
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>20</v>
@@ -13002,7 +13850,7 @@
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>20</v>
@@ -13013,7 +13861,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>20</v>
@@ -13024,7 +13872,7 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>20</v>
@@ -13035,7 +13883,7 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>20</v>
@@ -13046,7 +13894,7 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>20</v>
@@ -13057,7 +13905,7 @@
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>20</v>
@@ -13068,7 +13916,7 @@
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>20</v>
@@ -13079,7 +13927,7 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>20</v>
@@ -13090,7 +13938,7 @@
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>20</v>
@@ -13101,7 +13949,7 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>20</v>
@@ -13112,21 +13960,21 @@
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>20</v>
+      <c r="C68" s="22" t="s">
+        <v>970</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
@@ -13134,7 +13982,7 @@
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>20</v>
@@ -13145,7 +13993,7 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>20</v>
@@ -13156,7 +14004,7 @@
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>20</v>
@@ -13167,7 +14015,7 @@
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>20</v>
@@ -13178,7 +14026,7 @@
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>20</v>
@@ -13189,7 +14037,7 @@
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>20</v>
@@ -13200,7 +14048,7 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>20</v>
@@ -13211,7 +14059,7 @@
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>20</v>
@@ -13222,7 +14070,7 @@
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>20</v>
@@ -13233,7 +14081,7 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>20</v>
@@ -13244,7 +14092,7 @@
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>20</v>
@@ -13255,7 +14103,7 @@
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>20</v>
@@ -13266,7 +14114,7 @@
     </row>
     <row r="81" spans="2:4">
       <c r="B81" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>20</v>
@@ -13277,7 +14125,7 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>20</v>
@@ -13288,7 +14136,7 @@
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>20</v>
@@ -13299,7 +14147,7 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>20</v>
@@ -13310,12 +14158,12 @@
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>20</v>
@@ -13326,10 +14174,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
@@ -13337,10 +14185,10 @@
     </row>
     <row r="88" spans="2:4">
       <c r="B88" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
@@ -13348,7 +14196,7 @@
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>20</v>
@@ -13359,7 +14207,7 @@
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>20</v>
@@ -13370,10 +14218,10 @@
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
@@ -13381,7 +14229,7 @@
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>20</v>
@@ -13392,7 +14240,7 @@
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>20</v>
@@ -13403,7 +14251,7 @@
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>20</v>
@@ -13414,7 +14262,7 @@
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>20</v>
@@ -13425,7 +14273,7 @@
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>20</v>
@@ -13436,7 +14284,7 @@
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>20</v>
@@ -13447,7 +14295,7 @@
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>20</v>
@@ -13458,7 +14306,7 @@
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>20</v>
@@ -13469,7 +14317,7 @@
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>20</v>
@@ -13480,7 +14328,7 @@
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>20</v>
@@ -13491,7 +14339,7 @@
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>20</v>
@@ -13502,7 +14350,7 @@
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>20</v>
@@ -13513,7 +14361,7 @@
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>20</v>
@@ -13524,18 +14372,18 @@
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="44" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>20</v>
@@ -13543,10 +14391,10 @@
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="44" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>20</v>
@@ -13554,10 +14402,10 @@
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>20</v>
@@ -13565,10 +14413,10 @@
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>20</v>
@@ -13576,10 +14424,10 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>20</v>
@@ -13587,10 +14435,10 @@
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="48" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>20</v>
@@ -13598,7 +14446,7 @@
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>20</v>
@@ -13609,7 +14457,7 @@
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>20</v>
@@ -13620,7 +14468,7 @@
     </row>
     <row r="114" spans="2:4">
       <c r="B114" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>20</v>
@@ -13631,7 +14479,7 @@
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>20</v>
@@ -13642,7 +14490,7 @@
     </row>
     <row r="116" spans="2:4">
       <c r="B116" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>20</v>
@@ -13653,7 +14501,7 @@
     </row>
     <row r="117" spans="2:4">
       <c r="B117" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>20</v>
@@ -13664,7 +14512,7 @@
     </row>
     <row r="118" spans="2:4">
       <c r="B118" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>20</v>
@@ -13675,7 +14523,7 @@
     </row>
     <row r="119" spans="2:4">
       <c r="B119" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>20</v>
@@ -13686,7 +14534,7 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>20</v>
@@ -13697,7 +14545,7 @@
     </row>
     <row r="121" spans="2:4">
       <c r="B121" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>20</v>
@@ -13708,7 +14556,7 @@
     </row>
     <row r="122" spans="2:4">
       <c r="B122" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>20</v>
@@ -13719,7 +14567,7 @@
     </row>
     <row r="123" spans="2:4">
       <c r="B123" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>20</v>
@@ -13730,7 +14578,7 @@
     </row>
     <row r="124" spans="2:4">
       <c r="B124" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>20</v>
@@ -13741,7 +14589,7 @@
     </row>
     <row r="125" spans="2:4">
       <c r="B125" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>20</v>
@@ -13752,7 +14600,7 @@
     </row>
     <row r="126" spans="2:4">
       <c r="B126" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>20</v>
@@ -13763,7 +14611,7 @@
     </row>
     <row r="127" spans="2:4">
       <c r="B127" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>20</v>
@@ -13774,7 +14622,7 @@
     </row>
     <row r="128" spans="2:4">
       <c r="B128" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>20</v>
@@ -13785,7 +14633,7 @@
     </row>
     <row r="129" spans="2:4">
       <c r="B129" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>20</v>
@@ -13796,7 +14644,7 @@
     </row>
     <row r="130" spans="2:4">
       <c r="B130" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>20</v>
@@ -13807,7 +14655,7 @@
     </row>
     <row r="131" spans="2:4">
       <c r="B131" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>20</v>
@@ -13818,7 +14666,7 @@
     </row>
     <row r="132" spans="2:4">
       <c r="B132" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>20</v>
@@ -13829,7 +14677,7 @@
     </row>
     <row r="133" spans="2:4">
       <c r="B133" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>20</v>
@@ -13840,7 +14688,7 @@
     </row>
     <row r="134" spans="2:4">
       <c r="B134" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>20</v>
@@ -13851,7 +14699,7 @@
     </row>
     <row r="135" spans="2:4">
       <c r="B135" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>20</v>
@@ -13862,7 +14710,7 @@
     </row>
     <row r="136" spans="2:4">
       <c r="B136" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>20</v>
@@ -13873,7 +14721,7 @@
     </row>
     <row r="137" spans="2:4">
       <c r="B137" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>20</v>
@@ -13884,7 +14732,7 @@
     </row>
     <row r="138" spans="2:4">
       <c r="B138" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>20</v>
@@ -13895,7 +14743,7 @@
     </row>
     <row r="139" spans="2:4">
       <c r="B139" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>20</v>
@@ -13906,7 +14754,7 @@
     </row>
     <row r="140" spans="2:4">
       <c r="B140" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>20</v>
@@ -13917,7 +14765,7 @@
     </row>
     <row r="141" spans="2:4">
       <c r="B141" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>20</v>
@@ -13928,7 +14776,7 @@
     </row>
     <row r="142" spans="2:4">
       <c r="B142" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>20</v>
@@ -13939,7 +14787,7 @@
     </row>
     <row r="143" spans="2:4">
       <c r="B143" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>20</v>
@@ -13950,7 +14798,7 @@
     </row>
     <row r="144" spans="2:4">
       <c r="B144" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>20</v>
@@ -13961,7 +14809,7 @@
     </row>
     <row r="145" spans="2:4">
       <c r="B145" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>20</v>
@@ -13972,7 +14820,7 @@
     </row>
     <row r="146" spans="2:4">
       <c r="B146" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>20</v>
@@ -13983,7 +14831,7 @@
     </row>
     <row r="147" spans="2:4">
       <c r="B147" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>20</v>
@@ -13994,7 +14842,7 @@
     </row>
     <row r="148" spans="2:4">
       <c r="B148" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>20</v>
@@ -14005,7 +14853,7 @@
     </row>
     <row r="149" spans="2:4">
       <c r="B149" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>20</v>
@@ -14016,7 +14864,7 @@
     </row>
     <row r="150" spans="2:4">
       <c r="B150" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>20</v>
@@ -14027,7 +14875,7 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>20</v>
@@ -14038,7 +14886,7 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>20</v>
@@ -14049,7 +14897,7 @@
     </row>
     <row r="153" spans="2:4">
       <c r="B153" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>20</v>
@@ -14060,7 +14908,7 @@
     </row>
     <row r="154" spans="2:4">
       <c r="B154" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>20</v>
@@ -14071,7 +14919,7 @@
     </row>
     <row r="155" spans="2:4">
       <c r="B155" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>20</v>
@@ -14082,7 +14930,7 @@
     </row>
     <row r="156" spans="2:4">
       <c r="B156" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>20</v>
@@ -14093,7 +14941,7 @@
     </row>
     <row r="157" spans="2:4">
       <c r="B157" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>20</v>
@@ -14104,7 +14952,7 @@
     </row>
     <row r="158" spans="2:4">
       <c r="B158" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>20</v>
@@ -14115,7 +14963,7 @@
     </row>
     <row r="159" spans="2:4">
       <c r="B159" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>20</v>
@@ -14126,7 +14974,7 @@
     </row>
     <row r="160" spans="2:4">
       <c r="B160" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>20</v>
@@ -14137,7 +14985,7 @@
     </row>
     <row r="161" spans="2:4">
       <c r="B161" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>20</v>
@@ -14148,7 +14996,7 @@
     </row>
     <row r="162" spans="2:4">
       <c r="B162" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>20</v>
@@ -14159,7 +15007,7 @@
     </row>
     <row r="163" spans="2:4">
       <c r="B163" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>20</v>
@@ -14170,7 +15018,7 @@
     </row>
     <row r="164" spans="2:4">
       <c r="B164" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>20</v>
@@ -14181,7 +15029,7 @@
     </row>
     <row r="165" spans="2:4">
       <c r="B165" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>20</v>
@@ -14192,7 +15040,7 @@
     </row>
     <row r="166" spans="2:4">
       <c r="B166" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>20</v>
@@ -14203,7 +15051,7 @@
     </row>
     <row r="167" spans="2:4">
       <c r="B167" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>20</v>
@@ -14214,7 +15062,7 @@
     </row>
     <row r="168" spans="2:4">
       <c r="B168" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>20</v>
@@ -14225,7 +15073,7 @@
     </row>
     <row r="169" spans="2:4">
       <c r="B169" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>20</v>
@@ -14236,7 +15084,7 @@
     </row>
     <row r="170" spans="2:4">
       <c r="B170" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>20</v>
@@ -14247,7 +15095,7 @@
     </row>
     <row r="171" spans="2:4">
       <c r="B171" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>20</v>
@@ -14258,7 +15106,7 @@
     </row>
     <row r="172" spans="2:4">
       <c r="B172" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>20</v>
@@ -14269,7 +15117,7 @@
     </row>
     <row r="173" spans="2:4">
       <c r="B173" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>20</v>
@@ -14280,7 +15128,7 @@
     </row>
     <row r="174" spans="2:4">
       <c r="B174" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>20</v>
@@ -14291,7 +15139,7 @@
     </row>
     <row r="175" spans="2:4">
       <c r="B175" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>20</v>
@@ -14302,7 +15150,7 @@
     </row>
     <row r="176" spans="2:4">
       <c r="B176" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>20</v>
@@ -14313,7 +15161,7 @@
     </row>
     <row r="177" spans="2:4">
       <c r="B177" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>20</v>
@@ -14324,7 +15172,7 @@
     </row>
     <row r="178" spans="2:4">
       <c r="B178" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>20</v>
@@ -14335,7 +15183,7 @@
     </row>
     <row r="179" spans="2:4">
       <c r="B179" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>20</v>
@@ -14346,7 +15194,7 @@
     </row>
     <row r="180" spans="2:4">
       <c r="B180" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>20</v>
@@ -14357,7 +15205,7 @@
     </row>
     <row r="181" spans="2:4">
       <c r="B181" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>20</v>
@@ -14368,7 +15216,7 @@
     </row>
     <row r="182" spans="2:4">
       <c r="B182" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>20</v>
@@ -14379,7 +15227,7 @@
     </row>
     <row r="183" spans="2:4">
       <c r="B183" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>20</v>
@@ -14390,7 +15238,7 @@
     </row>
     <row r="184" spans="2:4">
       <c r="B184" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>20</v>
@@ -14401,7 +15249,7 @@
     </row>
     <row r="185" spans="2:4">
       <c r="B185" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>20</v>
@@ -14412,7 +15260,7 @@
     </row>
     <row r="186" spans="2:4">
       <c r="B186" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>20</v>
@@ -14423,7 +15271,7 @@
     </row>
     <row r="187" spans="2:4">
       <c r="B187" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>20</v>
@@ -14434,7 +15282,7 @@
     </row>
     <row r="188" spans="2:4">
       <c r="B188" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>20</v>
@@ -14445,7 +15293,7 @@
     </row>
     <row r="189" spans="2:4">
       <c r="B189" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>20</v>
@@ -14456,7 +15304,7 @@
     </row>
     <row r="190" spans="2:4">
       <c r="B190" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>20</v>
@@ -14467,7 +15315,7 @@
     </row>
     <row r="191" spans="2:4">
       <c r="B191" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>20</v>
@@ -14478,7 +15326,7 @@
     </row>
     <row r="192" spans="2:4">
       <c r="B192" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>20</v>
@@ -14489,7 +15337,7 @@
     </row>
     <row r="193" spans="2:4">
       <c r="B193" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>20</v>
@@ -14500,7 +15348,7 @@
     </row>
     <row r="194" spans="2:4">
       <c r="B194" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>20</v>
@@ -14511,7 +15359,7 @@
     </row>
     <row r="195" spans="2:4">
       <c r="B195" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>20</v>
@@ -14522,7 +15370,7 @@
     </row>
     <row r="196" spans="2:4">
       <c r="B196" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>20</v>
@@ -14533,10 +15381,10 @@
     </row>
     <row r="197" spans="2:4">
       <c r="B197" s="14" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>20</v>
@@ -14544,7 +15392,7 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>20</v>
@@ -14555,7 +15403,7 @@
     </row>
     <row r="199" spans="2:4">
       <c r="B199" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>20</v>
@@ -14566,120 +15414,120 @@
     </row>
     <row r="200" spans="2:4" ht="15" thickBot="1"/>
     <row r="201" spans="2:4">
-      <c r="B201" s="55" t="s">
+      <c r="B201" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="C201" s="55"/>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="56" t="s">
         <v>654</v>
       </c>
-      <c r="C201" s="56"/>
-    </row>
-    <row r="202" spans="2:4">
-      <c r="B202" s="57" t="s">
-        <v>655</v>
-      </c>
-      <c r="C202" s="58" t="s">
+      <c r="C202" s="57" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" s="58" t="s">
+        <v>639</v>
+      </c>
+      <c r="C203" s="59"/>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" s="58" t="s">
+        <v>640</v>
+      </c>
+      <c r="C204" s="59"/>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" s="60" t="s">
+        <v>641</v>
+      </c>
+      <c r="C205" s="61" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="C206" s="59"/>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="62" t="s">
+        <v>643</v>
+      </c>
+      <c r="C207" s="59"/>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" s="62" t="s">
+        <v>644</v>
+      </c>
+      <c r="C208" s="63" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="C209" s="59"/>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="58" t="s">
+        <v>646</v>
+      </c>
+      <c r="C210" s="59"/>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="58" t="s">
+        <v>647</v>
+      </c>
+      <c r="C211" s="59"/>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="58" t="s">
+        <v>648</v>
+      </c>
+      <c r="C212" s="59"/>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="58" t="s">
+        <v>649</v>
+      </c>
+      <c r="C213" s="59"/>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="58" t="s">
+        <v>650</v>
+      </c>
+      <c r="C214" s="59"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="58" t="s">
+        <v>651</v>
+      </c>
+      <c r="C215" s="59"/>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="62" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="203" spans="2:4">
-      <c r="B203" s="59" t="s">
-        <v>640</v>
-      </c>
-      <c r="C203" s="60"/>
-    </row>
-    <row r="204" spans="2:4">
-      <c r="B204" s="59" t="s">
-        <v>641</v>
-      </c>
-      <c r="C204" s="60"/>
-    </row>
-    <row r="205" spans="2:4">
-      <c r="B205" s="61" t="s">
-        <v>642</v>
-      </c>
-      <c r="C205" s="62" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4">
-      <c r="B206" s="63" t="s">
-        <v>643</v>
-      </c>
-      <c r="C206" s="60"/>
-    </row>
-    <row r="207" spans="2:4">
-      <c r="B207" s="63" t="s">
-        <v>644</v>
-      </c>
-      <c r="C207" s="60"/>
-    </row>
-    <row r="208" spans="2:4">
-      <c r="B208" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="C208" s="64" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3">
-      <c r="B209" s="63" t="s">
-        <v>646</v>
-      </c>
-      <c r="C209" s="60"/>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" s="59" t="s">
-        <v>647</v>
-      </c>
-      <c r="C210" s="60"/>
-    </row>
-    <row r="211" spans="2:3">
-      <c r="B211" s="59" t="s">
-        <v>648</v>
-      </c>
-      <c r="C211" s="60"/>
-    </row>
-    <row r="212" spans="2:3">
-      <c r="B212" s="59" t="s">
-        <v>649</v>
-      </c>
-      <c r="C212" s="60"/>
-    </row>
-    <row r="213" spans="2:3">
-      <c r="B213" s="59" t="s">
-        <v>650</v>
-      </c>
-      <c r="C213" s="60"/>
-    </row>
-    <row r="214" spans="2:3">
-      <c r="B214" s="59" t="s">
-        <v>651</v>
-      </c>
-      <c r="C214" s="60"/>
-    </row>
-    <row r="215" spans="2:3">
-      <c r="B215" s="59" t="s">
+      <c r="C216" s="63" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C217" s="59"/>
+    </row>
+    <row r="218" spans="2:3" ht="15" thickBot="1">
+      <c r="B218" s="64" t="s">
         <v>652</v>
       </c>
-      <c r="C215" s="60"/>
-    </row>
-    <row r="216" spans="2:3">
-      <c r="B216" s="63" t="s">
-        <v>661</v>
-      </c>
-      <c r="C216" s="64" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3">
-      <c r="B217" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="C217" s="60"/>
-    </row>
-    <row r="218" spans="2:3" ht="15" thickBot="1">
-      <c r="B218" s="65" t="s">
-        <v>653</v>
-      </c>
-      <c r="C218" s="66"/>
+      <c r="C218" s="65"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219"/>
@@ -14689,244 +15537,244 @@
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="234" spans="2:3">
       <c r="B234" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="238" spans="2:3">
       <c r="B238" s="47" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C238" s="13"/>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" s="13" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C239" s="13"/>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="13" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C240" s="13"/>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C241" s="13"/>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C242" s="13"/>
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="45" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C245" s="46" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" s="45" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C246" s="45"/>
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="45" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C247" s="45"/>
     </row>
     <row r="248" spans="2:3">
       <c r="B248" s="45" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C248" s="45"/>
     </row>
     <row r="250" spans="2:3" ht="15" thickBot="1"/>
     <row r="251" spans="2:3">
-      <c r="B251" s="50" t="s">
+      <c r="B251" s="49" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="50" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="51" t="s">
+        <v>877</v>
+      </c>
+      <c r="C253" s="47" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="50" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="50" t="s">
+        <v>875</v>
+      </c>
+      <c r="C255" s="53" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C256" s="53" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" s="50" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" s="50"/>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" s="50" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" s="50" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="50" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="50"/>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="50"/>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" s="50" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" s="66" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="252" spans="2:3">
-      <c r="B252" s="51" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3">
-      <c r="B253" s="52" t="s">
-        <v>880</v>
-      </c>
-      <c r="C253" s="47" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="51" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="51" t="s">
-        <v>878</v>
-      </c>
-      <c r="C255" s="54" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3">
-      <c r="B256" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C256" s="54" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3">
-      <c r="B257" s="51" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3">
-      <c r="B258" s="51"/>
-    </row>
-    <row r="259" spans="2:3">
-      <c r="B259" s="51" t="s">
+      <c r="C266" s="24" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" s="50" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="260" spans="2:3">
-      <c r="B260" s="51" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3">
-      <c r="B261" s="51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3">
-      <c r="B262" s="51" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3">
-      <c r="B263" s="51"/>
-    </row>
-    <row r="264" spans="2:3">
-      <c r="B264" s="51"/>
-    </row>
-    <row r="265" spans="2:3">
-      <c r="B265" s="51" t="s">
+      <c r="C267" s="24" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="50" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="266" spans="2:3">
-      <c r="B266" s="67" t="s">
+    <row r="269" spans="2:3">
+      <c r="B269" s="50" t="s">
         <v>885</v>
       </c>
-      <c r="C266" s="24" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3">
-      <c r="B267" s="51" t="s">
-        <v>886</v>
-      </c>
-      <c r="C267" s="24" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3">
-      <c r="B268" s="51" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3">
-      <c r="B269" s="51" t="s">
-        <v>888</v>
-      </c>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="51" t="s">
-        <v>214</v>
+      <c r="B270" s="50" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="15" thickBot="1">
-      <c r="B271" s="53" t="s">
-        <v>614</v>
+      <c r="B271" s="52" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -14957,52 +15805,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -15029,12 +15877,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -15051,7 +15899,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -15068,7 +15916,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -15085,7 +15933,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -15102,24 +15950,24 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -15136,7 +15984,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -15153,7 +16001,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -15170,7 +16018,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -15187,7 +16035,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -15204,7 +16052,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -15221,7 +16069,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -15238,7 +16086,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -15255,7 +16103,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -15272,7 +16120,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -15289,7 +16137,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -15306,7 +16154,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -15323,7 +16171,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -15340,7 +16188,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -15357,7 +16205,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -15374,7 +16222,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -15391,7 +16239,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -15408,7 +16256,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -15425,7 +16273,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -15442,7 +16290,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -15459,7 +16307,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -15476,7 +16324,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -15493,7 +16341,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
@@ -15510,7 +16358,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -15527,7 +16375,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -15544,7 +16392,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -15561,7 +16409,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -15578,7 +16426,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
@@ -15595,7 +16443,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>20</v>
@@ -15612,7 +16460,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -15629,7 +16477,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -15646,7 +16494,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -15663,7 +16511,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -15680,7 +16528,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -15697,7 +16545,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -15714,7 +16562,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -15731,7 +16579,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -15748,7 +16596,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -15765,7 +16613,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -15782,7 +16630,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -15799,7 +16647,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -15816,7 +16664,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
@@ -15833,7 +16681,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
@@ -15850,7 +16698,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
@@ -15867,7 +16715,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
@@ -15884,7 +16732,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -15901,7 +16749,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -15918,7 +16766,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
@@ -15935,7 +16783,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
@@ -15952,7 +16800,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
@@ -15969,7 +16817,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>20</v>
@@ -15986,7 +16834,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
@@ -16003,7 +16851,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>20</v>
@@ -16020,7 +16868,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
@@ -16037,7 +16885,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
@@ -16054,7 +16902,7 @@
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
@@ -16071,7 +16919,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>20</v>
@@ -16112,150 +16960,150 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -16284,137 +17132,137 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -16440,12 +17288,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -16453,7 +17301,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -16461,7 +17309,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -16469,7 +17317,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -16477,7 +17325,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -16485,7 +17333,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -16493,7 +17341,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -16501,7 +17349,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -16509,7 +17357,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -16517,7 +17365,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -16525,7 +17373,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -16533,7 +17381,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -16541,7 +17389,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -16549,7 +17397,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -16557,7 +17405,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -16565,7 +17413,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -16573,7 +17421,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -16581,7 +17429,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -16589,7 +17437,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -16597,7 +17445,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -16605,7 +17453,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -16613,7 +17461,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -16621,7 +17469,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -16629,7 +17477,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -16637,7 +17485,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -16645,7 +17493,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -16653,7 +17501,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -16661,7 +17509,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
@@ -16669,7 +17517,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -16677,7 +17525,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -16685,7 +17533,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -16693,7 +17541,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -16701,7 +17549,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
@@ -16709,7 +17557,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>20</v>
@@ -16717,7 +17565,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -16725,7 +17573,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -16733,7 +17581,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -16741,7 +17589,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -16749,7 +17597,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -16757,7 +17605,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -16765,7 +17613,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -16773,7 +17621,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -16781,7 +17629,7 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -16789,7 +17637,7 @@
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -16797,7 +17645,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -16805,7 +17653,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
@@ -16813,7 +17661,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
@@ -16821,7 +17669,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
@@ -16829,7 +17677,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
@@ -16837,7 +17685,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
@@ -16845,7 +17693,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -16853,7 +17701,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -16861,7 +17709,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>

--- a/GraphicalLinuxSubsystem.xlsx
+++ b/GraphicalLinuxSubsystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140" firstSheet="20" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140" firstSheet="19" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="13" r:id="rId1"/>
@@ -35,8 +35,9 @@
     <sheet name="【2-1】手写网络协议" sheetId="12" r:id="rId21"/>
     <sheet name="【2-2】用户栈和内核栈" sheetId="28" r:id="rId22"/>
     <sheet name="【2-3】多进程和多线程的区别" sheetId="29" r:id="rId23"/>
-    <sheet name="【3-1】缺页中断调用" sheetId="32" r:id="rId24"/>
-    <sheet name="【3-2】调度" sheetId="33" r:id="rId25"/>
+    <sheet name="【2-4】红黑树变化" sheetId="34" r:id="rId24"/>
+    <sheet name="【3-1】缺页中断调用" sheetId="32" r:id="rId25"/>
+    <sheet name="【3-2】调度" sheetId="33" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'【1-3】task_struct'!$B$5:$D$199</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1085">
   <si>
     <r>
       <rPr>
@@ -3962,6 +3963,126 @@
     <t>jmp __switch_to</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>红黑树变换</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树性质：</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.根节点是黑色</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.每个叶子节点都是空的黑色节点</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.红色节点的子节点必须是黑色（红色不能相连）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.任意一个节点到子节点的黑色节点个数相同</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种变换规则：</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.变色</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.左旋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.右旋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例分析：</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号的插入流程：19-5-12-7</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7属于红色不符合要求：</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：6号的父亲和叔叔属于红色节点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法：变色</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct rb_node {</t>
+  </si>
+  <si>
+    <t>unsigned long  __rb_parent_color;</t>
+  </si>
+  <si>
+    <t>struct rb_node *rb_right;</t>
+  </si>
+  <si>
+    <t>struct rb_node *rb_left;</t>
+  </si>
+  <si>
+    <t>} __attribute__((aligned(sizeof(long))));</t>
+  </si>
+  <si>
+    <t>struct rb_root {</t>
+  </si>
+  <si>
+    <t>struct rb_node *rb_node;</t>
+  </si>
 </sst>
 </file>
 
@@ -3970,7 +4091,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4059,6 +4180,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4069,6 +4191,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -4407,7 +4535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4500,10 +4628,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4512,20 +4645,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -7458,6 +7590,3623 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="流程图: 联系 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4397040" y="2186940"/>
+          <a:ext cx="312120" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="右箭头 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5425440" y="5242560"/>
+          <a:ext cx="1097280" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>变色</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="右箭头 196"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8686800" y="7124700"/>
+          <a:ext cx="720090" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>左旋</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62016</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>453603</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>13804</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直接箭头连接符 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="195" idx="5"/>
+          <a:endCxn id="192" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3110016" y="8314480"/>
+          <a:ext cx="391587" cy="305442"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411628</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112508</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="组合 99"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1091453" y="4424082"/>
+          <a:ext cx="9683375" cy="6849485"/>
+          <a:chOff x="1091453" y="4424082"/>
+          <a:chExt cx="9683375" cy="6849485"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="72" name="组合 71"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1669080" y="4424082"/>
+            <a:ext cx="3367740" cy="2757992"/>
+            <a:chOff x="1859580" y="4023360"/>
+            <a:chExt cx="3367740" cy="2811780"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="50" name="组合 49"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1859580" y="4023360"/>
+              <a:ext cx="3367740" cy="2811780"/>
+              <a:chOff x="2461560" y="2941320"/>
+              <a:chExt cx="3367740" cy="2811780"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="22" name="流程图: 联系 21"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2461560" y="5463540"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>6</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="23" name="流程图: 联系 22"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5517180" y="4160520"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>35</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="24" name="流程图: 联系 23"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4297980" y="4876800"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>13</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="25" name="流程图: 联系 24"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3055920" y="4838700"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>7</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="19" name="流程图: 联系 18"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4023660" y="2941320"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>19</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="26" name="流程图: 联系 25"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3078780" y="3429000"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>5</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="28" name="流程图: 联系 27"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4877100" y="3429000"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>30</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="32" name="流程图: 联系 31"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3688380" y="4168140"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>12</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="33" name="流程图: 联系 32"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2461560" y="4145280"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="19" idx="3"/>
+              <a:endCxn id="26" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2743211" y="4270515"/>
+              <a:ext cx="724178" cy="282930"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="19" idx="5"/>
+              <a:endCxn id="28" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3688091" y="4270515"/>
+              <a:ext cx="632738" cy="282930"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="26" idx="3"/>
+              <a:endCxn id="33" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2125991" y="4758195"/>
+              <a:ext cx="396518" cy="511530"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="26" idx="5"/>
+              <a:endCxn id="32" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2743211" y="4758195"/>
+              <a:ext cx="499249" cy="491985"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="28" idx="6"/>
+              <a:endCxn id="23" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4587240" y="4655820"/>
+              <a:ext cx="373669" cy="629145"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="44" name="直接箭头连接符 43"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="32" idx="3"/>
+              <a:endCxn id="25" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2720351" y="5497335"/>
+              <a:ext cx="411758" cy="465810"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="32" idx="5"/>
+              <a:endCxn id="24" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3352811" y="5497335"/>
+              <a:ext cx="388898" cy="503910"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="25" idx="3"/>
+              <a:endCxn id="22" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2125991" y="6167895"/>
+              <a:ext cx="373658" cy="420090"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="159" name="组合 158"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7200900" y="4454562"/>
+            <a:ext cx="3367740" cy="2757992"/>
+            <a:chOff x="1859580" y="4023360"/>
+            <a:chExt cx="3367740" cy="2811780"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="160" name="组合 159"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1859580" y="4023360"/>
+              <a:ext cx="3367740" cy="2811780"/>
+              <a:chOff x="2461560" y="2941320"/>
+              <a:chExt cx="3367740" cy="2811780"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="169" name="流程图: 联系 168"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2461560" y="5463540"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>6</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="170" name="流程图: 联系 169"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5517180" y="4160520"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>35</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="171" name="流程图: 联系 170"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4297980" y="4876800"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>13</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="172" name="流程图: 联系 171"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3055920" y="4838700"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>7</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="173" name="流程图: 联系 172"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4023660" y="2941320"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>19</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="174" name="流程图: 联系 173"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3078780" y="3429000"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>5</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="175" name="流程图: 联系 174"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4877100" y="3429000"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>30</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="176" name="流程图: 联系 175"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3688380" y="4168140"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>12</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="177" name="流程图: 联系 176"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2461560" y="4145280"/>
+                <a:ext cx="312120" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="161" name="直接箭头连接符 160"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="173" idx="3"/>
+              <a:endCxn id="174" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2743211" y="4270515"/>
+              <a:ext cx="724178" cy="282930"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="162" name="直接箭头连接符 161"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="173" idx="5"/>
+              <a:endCxn id="175" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3688091" y="4270515"/>
+              <a:ext cx="632738" cy="282930"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="163" name="直接箭头连接符 162"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="174" idx="3"/>
+              <a:endCxn id="177" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2125991" y="4758195"/>
+              <a:ext cx="396518" cy="511530"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="164" name="直接箭头连接符 163"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="174" idx="5"/>
+              <a:endCxn id="176" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2743211" y="4758195"/>
+              <a:ext cx="499249" cy="491985"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="165" name="直接箭头连接符 164"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="175" idx="6"/>
+              <a:endCxn id="170" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4587240" y="4655820"/>
+              <a:ext cx="373669" cy="629145"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="166" name="直接箭头连接符 165"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="176" idx="3"/>
+              <a:endCxn id="172" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2720351" y="5497335"/>
+              <a:ext cx="411758" cy="465810"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="167" name="直接箭头连接符 166"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="176" idx="5"/>
+              <a:endCxn id="171" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3352811" y="5497335"/>
+              <a:ext cx="388898" cy="503910"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="168" name="直接箭头连接符 167"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="172" idx="3"/>
+              <a:endCxn id="169" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2125991" y="6167895"/>
+              <a:ext cx="373658" cy="420090"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="104" name="组合 103"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6873688" y="8515576"/>
+            <a:ext cx="3901140" cy="2757991"/>
+            <a:chOff x="6721288" y="7959764"/>
+            <a:chExt cx="3901140" cy="2757991"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="105" name="组合 104"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="6721288" y="7959764"/>
+              <a:ext cx="3901140" cy="2757991"/>
+              <a:chOff x="1326180" y="4023360"/>
+              <a:chExt cx="3901140" cy="2811780"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="108" name="组合 107"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="1326180" y="4023360"/>
+                <a:ext cx="3901140" cy="2811780"/>
+                <a:chOff x="1928160" y="2941320"/>
+                <a:chExt cx="3901140" cy="2811780"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="116" name="流程图: 联系 115"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2461560" y="5463540"/>
+                  <a:ext cx="312120" cy="289560"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>6</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="117" name="流程图: 联系 116"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5517180" y="4160520"/>
+                  <a:ext cx="312120" cy="289560"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>35</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="118" name="流程图: 联系 117"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3886500" y="4206239"/>
+                  <a:ext cx="312120" cy="289560"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>13</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="119" name="流程图: 联系 118"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3055920" y="4838700"/>
+                  <a:ext cx="312120" cy="289560"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>7</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="120" name="流程图: 联系 119"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4023660" y="2941320"/>
+                  <a:ext cx="312120" cy="289560"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>19</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="121" name="流程图: 联系 120"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2476800" y="4168140"/>
+                  <a:ext cx="312120" cy="289560"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>5</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="122" name="流程图: 联系 121"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4877100" y="3429000"/>
+                  <a:ext cx="312120" cy="289560"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>30</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="123" name="流程图: 联系 122"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3276900" y="3421380"/>
+                  <a:ext cx="312120" cy="289560"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>12</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="124" name="流程图: 联系 123"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1928160" y="4869181"/>
+                  <a:ext cx="312120" cy="289560"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>1</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="109" name="直接箭头连接符 108"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="120" idx="5"/>
+                <a:endCxn id="122" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3688091" y="4270515"/>
+                <a:ext cx="632738" cy="282930"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="110" name="直接箭头连接符 109"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="121" idx="3"/>
+                <a:endCxn id="124" idx="7"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="1592591" y="5497336"/>
+                <a:ext cx="327938" cy="496290"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="112" name="直接箭头连接符 111"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="122" idx="6"/>
+                <a:endCxn id="117" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4587240" y="4655820"/>
+                <a:ext cx="373669" cy="629145"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="113" name="直接箭头连接符 112"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="121" idx="5"/>
+                <a:endCxn id="119" idx="7"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2141231" y="5497336"/>
+                <a:ext cx="579120" cy="465809"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="114" name="直接箭头连接符 113"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="123" idx="5"/>
+                <a:endCxn id="118" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2941331" y="4750575"/>
+                <a:ext cx="388898" cy="580109"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="115" name="直接箭头连接符 114"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="119" idx="3"/>
+                <a:endCxn id="116" idx="7"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="2125991" y="6167895"/>
+                <a:ext cx="373658" cy="420090"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="106" name="直接箭头连接符 105"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="123" idx="3"/>
+              <a:endCxn id="121" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="7536339" y="8672636"/>
+              <a:ext cx="579398" cy="531252"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="107" name="直接箭头连接符 106"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="120" idx="2"/>
+              <a:endCxn id="123" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="8336439" y="8100958"/>
+              <a:ext cx="480349" cy="370514"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="79" name="组合 78"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1091453" y="8475465"/>
+            <a:ext cx="3703917" cy="2726384"/>
+            <a:chOff x="1091453" y="8072053"/>
+            <a:chExt cx="3703917" cy="2726384"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="17" name="组合 16"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1091453" y="8072053"/>
+              <a:ext cx="3703917" cy="2726384"/>
+              <a:chOff x="6963335" y="7991370"/>
+              <a:chExt cx="3703917" cy="2726384"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="178" name="组合 177"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="6963335" y="7991370"/>
+                <a:ext cx="3703917" cy="2726384"/>
+                <a:chOff x="1568227" y="4055583"/>
+                <a:chExt cx="3703917" cy="2779557"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="179" name="组合 178"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="1568227" y="4055583"/>
+                  <a:ext cx="3703917" cy="2779557"/>
+                  <a:chOff x="2170207" y="2973543"/>
+                  <a:chExt cx="3703917" cy="2779557"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="188" name="流程图: 联系 187"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="2461560" y="5463540"/>
+                    <a:ext cx="312120" cy="289560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartConnector">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr lvl="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                      <a:t>6</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="189" name="流程图: 联系 188"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5562004" y="4855125"/>
+                    <a:ext cx="312120" cy="289560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartConnector">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr lvl="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                      <a:t>35</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="190" name="流程图: 联系 189"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3886500" y="4206239"/>
+                    <a:ext cx="312120" cy="289560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartConnector">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr lvl="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                      <a:t>13</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="191" name="流程图: 联系 190"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3109708" y="4235490"/>
+                    <a:ext cx="312120" cy="289560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartConnector">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr lvl="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                      <a:t>7</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="192" name="流程图: 联系 191"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4534648" y="3489692"/>
+                    <a:ext cx="312120" cy="289560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartConnector">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr lvl="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                      <a:t>19</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="193" name="流程图: 联系 192"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="2772635" y="3619767"/>
+                    <a:ext cx="312120" cy="289560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartConnector">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr lvl="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="194" name="流程图: 联系 193"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5119147" y="4151025"/>
+                    <a:ext cx="312120" cy="289560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartConnector">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr lvl="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                      <a:t>30</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="195" name="流程图: 联系 194"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3922359" y="2973543"/>
+                    <a:ext cx="312120" cy="289560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartConnector">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr lvl="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                      <a:t>12</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="196" name="流程图: 联系 195"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="2170207" y="4229413"/>
+                    <a:ext cx="312120" cy="289560"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="flowChartConnector">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr lvl="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                      <a:t>1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="181" name="直接箭头连接符 180"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="192" idx="5"/>
+                  <a:endCxn id="194" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4199079" y="4818887"/>
+                  <a:ext cx="363797" cy="456583"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="182" name="直接箭头连接符 181"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="193" idx="3"/>
+                  <a:endCxn id="196" idx="7"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipH="1">
+                  <a:off x="1834638" y="4948962"/>
+                  <a:ext cx="381726" cy="404896"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="184" name="直接箭头连接符 183"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="194" idx="6"/>
+                  <a:endCxn id="189" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4829287" y="5377845"/>
+                  <a:ext cx="176446" cy="601725"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="185" name="直接箭头连接符 184"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="193" idx="5"/>
+                  <a:endCxn id="191" idx="7"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2437066" y="4948962"/>
+                  <a:ext cx="337073" cy="410973"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="187" name="直接箭头连接符 186"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="191" idx="3"/>
+                  <a:endCxn id="188" idx="7"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipH="1">
+                  <a:off x="2125991" y="5564685"/>
+                  <a:ext cx="427446" cy="1023300"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="195" idx="3"/>
+                <a:endCxn id="193" idx="7"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="7832174" y="8233797"/>
+                <a:ext cx="929022" cy="433029"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="78" name="直接箭头连接符 77"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="192" idx="3"/>
+              <a:endCxn id="190" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3074157" y="8820755"/>
+              <a:ext cx="427446" cy="502006"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="85" name="曲线连接符 84"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="24" idx="4"/>
+            <a:endCxn id="171" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="6366737" y="3890267"/>
+            <a:ext cx="11114" cy="5421469"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -2331114"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="87" name="曲线连接符 86"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="32" idx="7"/>
+            <a:endCxn id="176" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="5802630" y="3028709"/>
+            <a:ext cx="30480" cy="5311118"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -886463"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="89" name="曲线连接符 88"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="25" idx="6"/>
+            <a:endCxn id="172" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2575560" y="6427177"/>
+            <a:ext cx="5219700" cy="30480"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 54637"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="96" name="曲线连接符 95"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="174" idx="1"/>
+            <a:endCxn id="121" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1" flipV="1">
+            <a:off x="5272926" y="7169618"/>
+            <a:ext cx="4786013" cy="395792"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -5645"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>64705</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>148657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590848</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>35344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="曲线连接符 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="4"/>
+          <a:endCxn id="192" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6211492" y="5906999"/>
+          <a:ext cx="424570" cy="5402943"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 163639"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>555812</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="左箭头 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5728447" y="8471648"/>
+          <a:ext cx="923365" cy="493058"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>右旋</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -10007,7 +13756,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10119,7 +13868,9 @@
       <c r="I5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="70" t="s">
+        <v>1063</v>
+      </c>
       <c r="L5" s="69"/>
       <c r="M5" s="68"/>
     </row>
@@ -10415,6 +14166,7 @@
     <hyperlink ref="B20" location="'【1-19】file'!A1" display="file"/>
     <hyperlink ref="M2" location="'【3-1】缺页中断调用'!A1" display="缺页中断调用"/>
     <hyperlink ref="B13" location="'【1-12】vm_fault'!A1" display="vm_fault"/>
+    <hyperlink ref="J5" location="'【2-4】红黑树变化'!A1" display="红黑树变换"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12848,36 +16600,36 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" s="67"/>
@@ -13691,6 +17443,193 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.399999999999999">
+      <c r="K2" s="79" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.399999999999999">
+      <c r="C3" s="82" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D3" s="82"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+    </row>
+    <row r="4" spans="1:16" ht="17.399999999999999">
+      <c r="D4" s="82" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79" t="s">
+        <v>1080</v>
+      </c>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.399999999999999">
+      <c r="D5" s="82" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.399999999999999">
+      <c r="D6" s="75" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K6" s="79" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="D7" s="82" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+    </row>
+    <row r="8" spans="1:16" ht="17.399999999999999">
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+    </row>
+    <row r="9" spans="1:16" ht="17.399999999999999">
+      <c r="C9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+    </row>
+    <row r="10" spans="1:16" ht="17.399999999999999">
+      <c r="D10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+    </row>
+    <row r="11" spans="1:16" ht="17.399999999999999">
+      <c r="D11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K11" s="79" t="s">
+        <v>945</v>
+      </c>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="D12" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="D15" s="75" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="D16" s="75" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="82" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="75" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D17:F17"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13718,80 +17657,80 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.6">
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="83" t="s">
         <v>1007</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:21" ht="15.6">
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="84" t="s">
         <v>1008</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="7" spans="1:21" ht="15.6">
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="85" t="s">
         <v>1009</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="4"/>
       <c r="K7" s="75" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.6">
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="85" t="s">
         <v>1025</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="78" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="81" t="s">
         <v>1026</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
     </row>
     <row r="9" spans="1:21" ht="15.6">
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="85" t="s">
         <v>1010</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
       <c r="K9" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.6">
       <c r="E11" s="2"/>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="86" t="s">
         <v>1021</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
       <c r="K11" t="s">
         <v>1028</v>
       </c>
@@ -13809,12 +17748,12 @@
     </row>
     <row r="13" spans="1:21" ht="15.6">
       <c r="E13" s="2"/>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="87" t="s">
         <v>1011</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
       <c r="K13" s="2" t="s">
         <v>1012</v>
       </c>
@@ -13886,12 +17825,12 @@
     <row r="18" spans="5:23" ht="15.6">
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="87" t="s">
         <v>1013</v>
       </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -13963,12 +17902,12 @@
     </row>
     <row r="24" spans="5:23" ht="15.6">
       <c r="E24" s="2"/>
-      <c r="G24" s="84" t="s">
+      <c r="G24" s="87" t="s">
         <v>1014</v>
       </c>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -14001,6 +17940,9 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="C4:J4"/>
@@ -14008,9 +17950,6 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="G13:J13"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
@@ -14021,13 +17960,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -14042,67 +17979,67 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.399999999999999">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="79" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.399999999999999">
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="88" t="s">
         <v>1030</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
     </row>
     <row r="7" spans="1:11" ht="17.399999999999999">
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="88" t="s">
         <v>1032</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="9" spans="1:11" ht="17.399999999999999">
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="88" t="s">
         <v>1033</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="1:11" ht="17.399999999999999">
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="88" t="s">
         <v>1034</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
       <c r="K10" s="75" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.399999999999999">
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="88" t="s">
         <v>1035</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
       <c r="K11" s="75" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.399999999999999">
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="80" t="s">
         <v>1038</v>
       </c>
       <c r="K12" s="75" t="s">
@@ -14110,263 +18047,263 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.399999999999999">
-      <c r="E13" s="87"/>
+      <c r="E13" s="80"/>
       <c r="K13" s="75"/>
     </row>
     <row r="14" spans="1:11" ht="17.399999999999999">
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="75"/>
     </row>
     <row r="15" spans="1:11" ht="17.399999999999999">
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
       <c r="K15" s="75"/>
     </row>
     <row r="16" spans="1:11" ht="17.399999999999999">
-      <c r="E16" s="87"/>
-      <c r="F16" s="87" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="80" t="s">
         <v>1042</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="75"/>
     </row>
     <row r="17" spans="5:15" ht="17.399999999999999">
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87" t="s">
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80" t="s">
         <v>1043</v>
       </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
       <c r="K17" s="75"/>
     </row>
     <row r="18" spans="5:15" ht="17.399999999999999">
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87" t="s">
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80" t="s">
         <v>1044</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="75"/>
     </row>
     <row r="19" spans="5:15" ht="17.399999999999999">
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87" t="s">
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80" t="s">
         <v>1045</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
       <c r="K19" s="75"/>
       <c r="O19" s="75" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="20" spans="5:15" ht="17.399999999999999">
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87" t="s">
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80" t="s">
         <v>1047</v>
       </c>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="75"/>
       <c r="O20" s="75" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="21" spans="5:15" ht="17.399999999999999">
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87" t="s">
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80" t="s">
         <v>1049</v>
       </c>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
       <c r="K21" s="75"/>
       <c r="O21" s="75" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="22" spans="5:15" ht="17.399999999999999">
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87" t="s">
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80" t="s">
         <v>1051</v>
       </c>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
       <c r="K22" s="75"/>
       <c r="O22" s="75" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="23" spans="5:15" ht="17.399999999999999">
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87" t="s">
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80" t="s">
         <v>1052</v>
       </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
       <c r="K23" s="75"/>
       <c r="O23" s="75" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="24" spans="5:15" ht="17.399999999999999">
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
       <c r="K24" s="75"/>
       <c r="O24" s="75"/>
     </row>
     <row r="25" spans="5:15" ht="17.399999999999999">
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87" t="s">
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80" t="s">
         <v>1055</v>
       </c>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="75"/>
       <c r="O25" s="75"/>
     </row>
     <row r="26" spans="5:15" ht="17.399999999999999">
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87" t="s">
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80" t="s">
         <v>1056</v>
       </c>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
       <c r="K26" s="75"/>
       <c r="O26" s="75"/>
     </row>
     <row r="27" spans="5:15" ht="17.399999999999999">
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87" t="s">
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80" t="s">
         <v>997</v>
       </c>
-      <c r="J27" s="87"/>
+      <c r="J27" s="80"/>
       <c r="K27" s="75"/>
       <c r="O27" s="75" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="28" spans="5:15" ht="17.399999999999999">
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87" t="s">
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80" t="s">
         <v>1058</v>
       </c>
-      <c r="J28" s="87"/>
+      <c r="J28" s="80"/>
       <c r="K28" s="75"/>
       <c r="O28" s="75" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="29" spans="5:15" ht="17.399999999999999">
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87" t="s">
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80" t="s">
         <v>1062</v>
       </c>
       <c r="K29" s="75"/>
       <c r="O29" s="75"/>
     </row>
     <row r="30" spans="5:15" ht="17.399999999999999">
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87" t="s">
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80" t="s">
         <v>1059</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="80"/>
       <c r="K30" s="75"/>
       <c r="O30" s="75"/>
     </row>
     <row r="31" spans="5:15" ht="17.399999999999999">
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87" t="s">
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80" t="s">
         <v>1060</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="80"/>
       <c r="K31" s="75"/>
       <c r="O31" s="75"/>
     </row>
     <row r="32" spans="5:15" ht="17.399999999999999">
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
       <c r="K32" s="75"/>
       <c r="O32" s="75"/>
     </row>
     <row r="33" spans="5:15" ht="17.399999999999999">
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
       <c r="K33" s="75"/>
       <c r="O33" s="75"/>
     </row>
     <row r="34" spans="5:15" ht="17.399999999999999">
-      <c r="E34" s="87"/>
+      <c r="E34" s="80"/>
       <c r="K34" s="75"/>
     </row>
     <row r="35" spans="5:15" ht="17.399999999999999">
-      <c r="E35" s="87"/>
+      <c r="E35" s="80"/>
       <c r="K35" s="75"/>
     </row>
     <row r="36" spans="5:15" ht="17.399999999999999">
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="80" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="37" spans="5:15" ht="17.399999999999999">
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="80" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -18074,10 +22011,10 @@
       <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="25" t="s">

--- a/GraphicalLinuxSubsystem.xlsx
+++ b/GraphicalLinuxSubsystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140" firstSheet="19" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="13" r:id="rId1"/>
@@ -36,8 +36,10 @@
     <sheet name="【2-2】用户栈和内核栈" sheetId="28" r:id="rId22"/>
     <sheet name="【2-3】多进程和多线程的区别" sheetId="29" r:id="rId23"/>
     <sheet name="【2-4】红黑树变化" sheetId="34" r:id="rId24"/>
-    <sheet name="【3-1】缺页中断调用" sheetId="32" r:id="rId25"/>
-    <sheet name="【3-2】调度" sheetId="33" r:id="rId26"/>
+    <sheet name="【2-5】IPC汇总" sheetId="36" r:id="rId25"/>
+    <sheet name="【3-1】缺页中断调用" sheetId="32" r:id="rId26"/>
+    <sheet name="【3-2】调度" sheetId="33" r:id="rId27"/>
+    <sheet name="【3-3】内核socket" sheetId="35" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'【1-3】task_struct'!$B$5:$D$199</definedName>
@@ -74,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1160">
   <si>
     <r>
       <rPr>
@@ -3892,10 +3894,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>pick_next_task_fair(struct rq *rq, struct task_struct *prev, struct rq_flags *rf)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>struct cfs_rq *cfs_rq = &amp;rq-&gt;cfs;</t>
   </si>
   <si>
@@ -4066,22 +4064,400 @@
     <t>struct rb_node {</t>
   </si>
   <si>
+    <t>struct rb_node *rb_right;</t>
+  </si>
+  <si>
+    <t>struct rb_node *rb_left;</t>
+  </si>
+  <si>
+    <t>} __attribute__((aligned(sizeof(long))));</t>
+  </si>
+  <si>
+    <t>struct rb_root {</t>
+  </si>
+  <si>
+    <t>struct rb_node *rb_node;</t>
+  </si>
+  <si>
+    <t>1.红黑树数据结构定义</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.红黑树有那些性质</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.红黑树时间复杂度</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.红黑树对于BST和AVL有什么优势</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.红黑树相对于哈希表，有什么优势</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 颜色</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 父节点指针</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 右子树指针</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 左子树指针</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>unsigned long  __rb_parent_color;</t>
-  </si>
-  <si>
-    <t>struct rb_node *rb_right;</t>
-  </si>
-  <si>
-    <t>struct rb_node *rb_left;</t>
-  </si>
-  <si>
-    <t>} __attribute__((aligned(sizeof(long))));</t>
-  </si>
-  <si>
-    <t>struct rb_root {</t>
-  </si>
-  <si>
-    <t>struct rb_node *rb_node;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>__rb_parent_color;</t>
+  </si>
+  <si>
+    <t>牛逼的讲解：https://blog.csdn.net/cwcmcw/article/details/17174891</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 40, 30, 60, 90, 70, 20, 50, 80</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseA1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseA2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseA3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseB1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseB2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseB3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>左旋和右旋个人理解就是一个降级别和增级别的过程</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick_next_task_fair(struct rq *rq, struct task_struct *prev, struct rq_flags *rf)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>取出红黑树中最小的</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ocket</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>int retval;</t>
+  </si>
+  <si>
+    <t>struct socket *sock;</t>
+  </si>
+  <si>
+    <t>int flags;</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>if (SOCK_NONBLOCK != O_NONBLOCK &amp;&amp; (flags &amp; SOCK_NONBLOCK))</t>
+  </si>
+  <si>
+    <t>flags = (flags &amp; ~SOCK_NONBLOCK) | O_NONBLOCK;</t>
+  </si>
+  <si>
+    <t>retval = sock_create(family, type, protocol, &amp;sock);</t>
+  </si>
+  <si>
+    <t>retval = sock_map_fd(sock, flags &amp; (O_CLOEXEC | O_NONBLOCK));</t>
+  </si>
+  <si>
+    <t>return retval;</t>
+  </si>
+  <si>
+    <t>SYSCALL_DEFINE3(socket, int, family, int, type, int, protocol)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准字体</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket()</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ocket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结构体</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sock_create(int family, int type, int protocol, struct socket **res)</t>
+  </si>
+  <si>
+    <t>return __sock_create(current-&gt;nsproxy-&gt;net_ns, family, type, protocol, res, 0);</t>
+  </si>
+  <si>
+    <t>int __sock_create(struct net *net, int family, int type, int protocol,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct socket **res, int kern)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int err;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct socket *sock;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>const struct net_proto_family *pf;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>......</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sock = sock_alloc();</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sock-&gt;type = type;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf = rcu_dereference(net_families[family]);</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>err = pf-&gt;create(net, sock, protocol, kern);</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>*res = sock;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>return 0;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSCALL_DEFINE3(bind, int, fd, struct sockaddr __user *, umyaddr, int, addrlen)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct socket *sock;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct sockaddr_storage address;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int err, fput_needed;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sock = sockfd_lookup_light(fd, &amp;err, &amp;fput_needed);</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (sock) {</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>err = move_addr_to_kernel(umyaddr, addrlen, &amp;address);</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (err &gt;= 0) {</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind()</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>fput_light(sock-&gt;file, fput_needed);</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>return err;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>err = sock-&gt;ops-&gt;bind(sock,(struct sockaddr *)&amp;address, addrlen);</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC汇总</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享内存</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息队列</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4091,7 +4467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4198,8 +4574,64 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF353535"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4344,8 +4776,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -4519,6 +4957,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4535,7 +5066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4633,6 +5164,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4654,10 +5188,39 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -7848,8 +8411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1091453" y="4424082"/>
-          <a:ext cx="9683375" cy="6849485"/>
+          <a:off x="1091453" y="4442460"/>
+          <a:ext cx="9683375" cy="6985748"/>
           <a:chOff x="1091453" y="4424082"/>
           <a:chExt cx="9683375" cy="6849485"/>
         </a:xfrm>
@@ -11204,6 +11767,4294 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533848</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>134023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="图片 90" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/6/66/Red-black_tree_example.svg/450px-Red-black_tree_example.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6194612" y="2478688"/>
+          <a:ext cx="3483236" cy="1644629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312120</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="流程图: 联系 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="12595412"/>
+          <a:ext cx="312120" cy="282388"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446591</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="流程图: 联系 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1353671" y="14200094"/>
+          <a:ext cx="312120" cy="282388"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150756</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="组合 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3155577" y="14442589"/>
+          <a:ext cx="652779" cy="825649"/>
+          <a:chOff x="3155577" y="14226988"/>
+          <a:chExt cx="652779" cy="811305"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="流程图: 联系 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3155577" y="14226988"/>
+            <a:ext cx="312120" cy="282388"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="流程图: 联系 94"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3496236" y="14755905"/>
+            <a:ext cx="312120" cy="282388"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>40</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>430307</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132827</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>94128</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="流程图: 联系 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1649507" y="12586446"/>
+          <a:ext cx="312120" cy="282388"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>331693</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>80684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>43179</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3379693" y="16882784"/>
+          <a:ext cx="930686" cy="1404769"/>
+          <a:chOff x="5038164" y="14191130"/>
+          <a:chExt cx="930686" cy="1376082"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="102" name="组合 101"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5056095" y="14191130"/>
+            <a:ext cx="912755" cy="829233"/>
+            <a:chOff x="3039036" y="14218024"/>
+            <a:chExt cx="912755" cy="829233"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="103" name="流程图: 联系 102"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3039036" y="14218024"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="125" name="流程图: 联系 124"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3639671" y="14764869"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>40</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="126" name="流程图: 联系 125"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5038164" y="15284824"/>
+            <a:ext cx="312120" cy="282388"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>30</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61109</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>40338</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4849907" y="14403145"/>
+          <a:ext cx="1307202" cy="1159133"/>
+          <a:chOff x="4697507" y="16620565"/>
+          <a:chExt cx="1307202" cy="1134032"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="136" name="组合 135"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4697507" y="17454282"/>
+            <a:ext cx="1307202" cy="300315"/>
+            <a:chOff x="2644589" y="14746942"/>
+            <a:chExt cx="1307202" cy="300315"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="138" name="流程图: 联系 137"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2644589" y="14746942"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="139" name="流程图: 联系 138"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3639671" y="14764869"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>40</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="流程图: 联系 139"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5199529" y="16620565"/>
+            <a:ext cx="312120" cy="282388"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>30</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>519954</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>500380</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>103096</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7835154" y="16811066"/>
+          <a:ext cx="1809226" cy="1740050"/>
+          <a:chOff x="7082118" y="14128376"/>
+          <a:chExt cx="1809226" cy="1707777"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="141" name="组合 140"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7082118" y="14128376"/>
+            <a:ext cx="1307202" cy="1134032"/>
+            <a:chOff x="4697507" y="16620565"/>
+            <a:chExt cx="1307202" cy="1134032"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="142" name="组合 141"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="4697507" y="17454282"/>
+              <a:ext cx="1307202" cy="300315"/>
+              <a:chOff x="2644589" y="14746942"/>
+              <a:chExt cx="1307202" cy="300315"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="144" name="流程图: 联系 143"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2644589" y="14746942"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="145" name="流程图: 联系 144"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3639671" y="14764869"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>40</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="143" name="流程图: 联系 142"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5199529" y="16620565"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>30</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="流程图: 联系 145"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8579224" y="15553765"/>
+            <a:ext cx="312120" cy="282388"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>60</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>555812</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>536238</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>138954</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="154" name="组合 153"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7871012" y="14286604"/>
+          <a:ext cx="1809226" cy="1740050"/>
+          <a:chOff x="7082118" y="14128376"/>
+          <a:chExt cx="1809226" cy="1707777"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="155" name="组合 154"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7082118" y="14128376"/>
+            <a:ext cx="1307202" cy="1134032"/>
+            <a:chOff x="4697507" y="16620565"/>
+            <a:chExt cx="1307202" cy="1134032"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="157" name="组合 156"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="4697507" y="17454282"/>
+              <a:ext cx="1307202" cy="300315"/>
+              <a:chOff x="2644589" y="14746942"/>
+              <a:chExt cx="1307202" cy="300315"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="180" name="流程图: 联系 179"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2644589" y="14746942"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="183" name="流程图: 联系 182"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3639671" y="14764869"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>40</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="158" name="流程图: 联系 157"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5199529" y="16620565"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>30</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="流程图: 联系 155"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8579224" y="15553765"/>
+            <a:ext cx="312120" cy="282388"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>60</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>482449</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="组合 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11519647" y="14268675"/>
+          <a:ext cx="2374002" cy="2243865"/>
+          <a:chOff x="11519647" y="14056660"/>
+          <a:chExt cx="2374002" cy="2200834"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="204" name="组合 203"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11519647" y="14056660"/>
+            <a:ext cx="1809226" cy="1707777"/>
+            <a:chOff x="7082118" y="14128376"/>
+            <a:chExt cx="1809226" cy="1707777"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="205" name="组合 204"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7082118" y="14128376"/>
+              <a:ext cx="1307202" cy="1134032"/>
+              <a:chOff x="4697507" y="16620565"/>
+              <a:chExt cx="1307202" cy="1134032"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="207" name="组合 206"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="4697507" y="17454282"/>
+                <a:ext cx="1307202" cy="300315"/>
+                <a:chOff x="2644589" y="14746942"/>
+                <a:chExt cx="1307202" cy="300315"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="209" name="流程图: 联系 208"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2644589" y="14746942"/>
+                  <a:ext cx="312120" cy="282388"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>10</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="210" name="流程图: 联系 209"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3639671" y="14764869"/>
+                  <a:ext cx="312120" cy="282388"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>40</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="208" name="流程图: 联系 207"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5199529" y="16620565"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>30</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="206" name="流程图: 联系 205"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8579224" y="15553765"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>60</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="211" name="流程图: 联系 210"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13581529" y="15975106"/>
+            <a:ext cx="312120" cy="282388"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>90</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>502024</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>437626</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>174810</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="212" name="组合 211"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11474824" y="17842005"/>
+          <a:ext cx="2374002" cy="2243865"/>
+          <a:chOff x="11519647" y="14056660"/>
+          <a:chExt cx="2374002" cy="2200834"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="213" name="组合 212"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11519647" y="14056660"/>
+            <a:ext cx="1809226" cy="1707777"/>
+            <a:chOff x="7082118" y="14128376"/>
+            <a:chExt cx="1809226" cy="1707777"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="215" name="组合 214"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7082118" y="14128376"/>
+              <a:ext cx="1307202" cy="1134032"/>
+              <a:chOff x="4697507" y="16620565"/>
+              <a:chExt cx="1307202" cy="1134032"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="217" name="组合 216"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="4697507" y="17454282"/>
+                <a:ext cx="1307202" cy="300315"/>
+                <a:chOff x="2644589" y="14746942"/>
+                <a:chExt cx="1307202" cy="300315"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="219" name="流程图: 联系 218"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2644589" y="14746942"/>
+                  <a:ext cx="312120" cy="282388"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>10</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="220" name="流程图: 联系 219"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3639671" y="14764869"/>
+                  <a:ext cx="312120" cy="282388"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartConnector">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr lvl="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                    <a:t>40</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="218" name="流程图: 联系 217"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5199529" y="16620565"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>30</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="216" name="流程图: 联系 215"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8579224" y="15553765"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>60</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="214" name="流程图: 联系 213"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13581529" y="15975106"/>
+            <a:ext cx="312120" cy="282388"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>90</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312120</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="流程图: 联系 220"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="20125765"/>
+          <a:ext cx="312120" cy="282388"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312120</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="流程图: 联系 221"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="20125765"/>
+          <a:ext cx="312120" cy="282388"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>410732</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>103093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="流程图: 联系 239"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2537012" y="20125764"/>
+          <a:ext cx="312120" cy="282388"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259229</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>56931</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="组合 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7665720" y="21663660"/>
+          <a:ext cx="1127909" cy="1413291"/>
+          <a:chOff x="7658100" y="21366480"/>
+          <a:chExt cx="1127909" cy="1413291"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="245" name="组合 244"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7658100" y="21930364"/>
+            <a:ext cx="1127909" cy="849407"/>
+            <a:chOff x="4043082" y="21784235"/>
+            <a:chExt cx="1127909" cy="833803"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="246" name="流程图: 联系 245"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4858871" y="21802165"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>B</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="247" name="流程图: 联系 246"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4521349" y="22335650"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>C</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="248" name="流程图: 联系 247"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4043082" y="21784235"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>A</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="246" idx="3"/>
+            <a:endCxn id="247" idx="7"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8402778" y="22194174"/>
+            <a:ext cx="116820" cy="340053"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="249" name="流程图: 联系 248"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8100060" y="21366480"/>
+            <a:ext cx="312120" cy="289559"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="249" idx="3"/>
+            <a:endCxn id="248" idx="7"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="7924511" y="21613634"/>
+            <a:ext cx="221258" cy="358859"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="249" idx="5"/>
+            <a:endCxn id="246" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8366471" y="21613634"/>
+            <a:ext cx="153127" cy="377125"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>385482</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>161366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177649</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>94130</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="组合 46"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4043082" y="21535466"/>
+          <a:ext cx="1620967" cy="1395804"/>
+          <a:chOff x="4043082" y="21535466"/>
+          <a:chExt cx="1620967" cy="1395804"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="239" name="流程图: 联系 238"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4428565" y="21535466"/>
+            <a:ext cx="312120" cy="289559"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="组合 34"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4043082" y="21782620"/>
+            <a:ext cx="1620967" cy="1148650"/>
+            <a:chOff x="4043082" y="21782620"/>
+            <a:chExt cx="1620967" cy="1148650"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="9" name="组合 8"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="4043082" y="22150443"/>
+              <a:ext cx="1620967" cy="780827"/>
+              <a:chOff x="4043082" y="21784235"/>
+              <a:chExt cx="1620967" cy="766483"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="232" name="流程图: 联系 231"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4858871" y="21802165"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>B</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="233" name="流程图: 联系 232"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5351929" y="22268330"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="234" name="流程图: 联系 233"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4043082" y="21784235"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>A</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="232" idx="5"/>
+              <a:endCxn id="233" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5125282" y="22414253"/>
+              <a:ext cx="272356" cy="271473"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="239" idx="3"/>
+              <a:endCxn id="234" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4199142" y="21782620"/>
+              <a:ext cx="275132" cy="367823"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="239" idx="5"/>
+              <a:endCxn id="232" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4694976" y="21782620"/>
+              <a:ext cx="209604" cy="428218"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>188258</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231438</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>165848</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="255" name="组合 254"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1407458" y="22012387"/>
+          <a:ext cx="1262380" cy="1356361"/>
+          <a:chOff x="1407458" y="22012387"/>
+          <a:chExt cx="1262380" cy="1356361"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="组合 7"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1407458" y="22012387"/>
+            <a:ext cx="1262380" cy="1356361"/>
+            <a:chOff x="1057835" y="21613906"/>
+            <a:chExt cx="1262380" cy="1331259"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="223" name="流程图: 联系 222"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1353670" y="21613906"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="224" name="流程图: 联系 223"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2008095" y="22662777"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="225" name="流程图: 联系 224"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1649505" y="22268330"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="226" name="流程图: 联系 225"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1057835" y="22259365"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="250" name="直接箭头连接符 249"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="223" idx="3"/>
+            <a:endCxn id="226" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1563518" y="22257965"/>
+            <a:ext cx="185484" cy="412052"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="252" name="直接箭头连接符 251"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="223" idx="5"/>
+            <a:endCxn id="225" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1969704" y="22257965"/>
+            <a:ext cx="75133" cy="463321"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="254" name="直接箭头连接符 253"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="225" idx="5"/>
+            <a:endCxn id="224" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2265539" y="22924729"/>
+            <a:ext cx="137888" cy="198441"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>182876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431350</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>167636</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="256" name="组合 255"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1356360" y="23751536"/>
+          <a:ext cx="903790" cy="1447800"/>
+          <a:chOff x="1407458" y="22012383"/>
+          <a:chExt cx="903790" cy="1447800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="257" name="组合 256"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1407458" y="22012383"/>
+            <a:ext cx="903790" cy="1447800"/>
+            <a:chOff x="1057835" y="21613906"/>
+            <a:chExt cx="903790" cy="1421006"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="261" name="流程图: 联系 260"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1353670" y="21613906"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="262" name="流程图: 联系 261"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1436595" y="22752524"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="263" name="流程图: 联系 262"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1649505" y="22268330"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="264" name="流程图: 联系 263"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1057835" y="22259365"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="258" name="直接箭头连接符 257"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="261" idx="3"/>
+            <a:endCxn id="264" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1563518" y="22257965"/>
+            <a:ext cx="185484" cy="412052"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="259" name="直接箭头连接符 258"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="261" idx="5"/>
+            <a:endCxn id="263" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1969704" y="22257965"/>
+            <a:ext cx="75133" cy="463321"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="260" name="直接箭头连接符 259"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="263" idx="3"/>
+            <a:endCxn id="262" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1942278" y="22924725"/>
+            <a:ext cx="102559" cy="247745"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259229</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>115645</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="273" name="组合 272"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4008120" y="23736300"/>
+          <a:ext cx="1127909" cy="1411045"/>
+          <a:chOff x="4043082" y="21535466"/>
+          <a:chExt cx="1127909" cy="1411045"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="274" name="流程图: 联系 273"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4428565" y="21535466"/>
+            <a:ext cx="312120" cy="289559"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="275" name="组合 274"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4043082" y="21782620"/>
+            <a:ext cx="1127909" cy="1163891"/>
+            <a:chOff x="4043082" y="21782620"/>
+            <a:chExt cx="1127909" cy="1163891"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="276" name="组合 275"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="4043082" y="22150444"/>
+              <a:ext cx="1127909" cy="796067"/>
+              <a:chOff x="4043082" y="21784235"/>
+              <a:chExt cx="1127909" cy="781443"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="280" name="流程图: 联系 279"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4858871" y="21802165"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>B</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="281" name="流程图: 联系 280"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4536589" y="22283290"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="282" name="流程图: 联系 281"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4043082" y="21784235"/>
+                <a:ext cx="312120" cy="282388"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartConnector">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>A</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="277" name="直接箭头连接符 276"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="280" idx="3"/>
+              <a:endCxn id="281" idx="7"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4803000" y="22414254"/>
+              <a:ext cx="101580" cy="286713"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="278" name="直接箭头连接符 277"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="274" idx="3"/>
+              <a:endCxn id="282" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4199142" y="21782620"/>
+              <a:ext cx="275132" cy="367823"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="279" name="直接箭头连接符 278"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="274" idx="5"/>
+              <a:endCxn id="280" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4694976" y="21782620"/>
+              <a:ext cx="209604" cy="428218"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561787</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>64547</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="283" name="组合 282"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7620000" y="23743920"/>
+          <a:ext cx="1476187" cy="1352327"/>
+          <a:chOff x="7658100" y="21366480"/>
+          <a:chExt cx="1476187" cy="1352327"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="284" name="组合 283"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7658100" y="21930360"/>
+            <a:ext cx="1476187" cy="788447"/>
+            <a:chOff x="4043082" y="21784235"/>
+            <a:chExt cx="1476187" cy="773963"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="289" name="流程图: 联系 288"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4858871" y="21802165"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>B</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="290" name="流程图: 联系 289"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5207149" y="22275810"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>C</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="291" name="流程图: 联系 290"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4043082" y="21784235"/>
+              <a:ext cx="312120" cy="282388"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                <a:t>A</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="285" name="直接箭头连接符 284"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="289" idx="6"/>
+            <a:endCxn id="290" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8786009" y="22092463"/>
+            <a:ext cx="81867" cy="380800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="286" name="流程图: 联系 285"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8100060" y="21366480"/>
+            <a:ext cx="312120" cy="289559"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="287" name="直接箭头连接符 286"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="286" idx="3"/>
+            <a:endCxn id="291" idx="7"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="7924511" y="21613634"/>
+            <a:ext cx="221258" cy="358859"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="288" name="直接箭头连接符 287"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="286" idx="5"/>
+            <a:endCxn id="289" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8366471" y="21613634"/>
+            <a:ext cx="153127" cy="377125"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561522</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>142863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>126908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="图片 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561522" y="25357443"/>
+          <a:ext cx="5656397" cy="3275885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>312420</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13313" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s13313"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -13821,8 +18672,12 @@
       <c r="J3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="68"/>
+      <c r="L3" s="94" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="71" t="s">
@@ -13850,8 +18705,12 @@
       <c r="J4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="68"/>
+      <c r="L4" s="94" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="69" t="s">
@@ -13869,7 +18728,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="L5" s="69"/>
       <c r="M5" s="68"/>
@@ -13889,7 +18748,9 @@
       <c r="I6" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="68"/>
+      <c r="J6" s="93" t="s">
+        <v>1156</v>
+      </c>
       <c r="L6" s="69"/>
       <c r="M6" s="68"/>
     </row>
@@ -14167,9 +19028,11 @@
     <hyperlink ref="M2" location="'【3-1】缺页中断调用'!A1" display="缺页中断调用"/>
     <hyperlink ref="B13" location="'【1-12】vm_fault'!A1" display="vm_fault"/>
     <hyperlink ref="J5" location="'【2-4】红黑树变化'!A1" display="红黑树变换"/>
+    <hyperlink ref="M3" location="'【3-2】调度'!A1" display="调度"/>
+    <hyperlink ref="M4" location="'【3-3】内核socket'!A1" display="socket"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16600,36 +21463,36 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" s="67"/>
@@ -17442,130 +22305,157 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="17.399999999999999">
+      <c r="T1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="17.399999999999999">
       <c r="K2" s="79" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="L2" s="79"/>
       <c r="M2" s="79"/>
       <c r="N2" s="79"/>
       <c r="O2" s="79"/>
       <c r="P2" s="79"/>
-    </row>
-    <row r="3" spans="1:16" ht="17.399999999999999">
-      <c r="C3" s="82" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D3" s="82"/>
+      <c r="T2" s="75" t="s">
+        <v>1083</v>
+      </c>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.399999999999999">
+      <c r="C3" s="85" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D3" s="85"/>
       <c r="K3" s="79"/>
       <c r="L3" s="79" t="s">
-        <v>1079</v>
+        <v>1092</v>
       </c>
       <c r="M3" s="79"/>
       <c r="N3" s="79"/>
       <c r="O3" s="79"/>
       <c r="P3" s="79"/>
-    </row>
-    <row r="4" spans="1:16" ht="17.399999999999999">
-      <c r="D4" s="82" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E4" s="82"/>
+      <c r="U3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="17.399999999999999">
+      <c r="D4" s="85" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E4" s="85"/>
       <c r="K4" s="79"/>
       <c r="L4" s="79" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="M4" s="79"/>
       <c r="N4" s="79"/>
       <c r="O4" s="79"/>
       <c r="P4" s="79"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.399999999999999">
-      <c r="D5" s="82" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="U4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="17.399999999999999">
+      <c r="D5" s="85" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
       <c r="K5" s="79"/>
       <c r="L5" s="79" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="M5" s="79"/>
       <c r="N5" s="79"/>
       <c r="O5" s="79"/>
       <c r="P5" s="79"/>
-    </row>
-    <row r="6" spans="1:16" ht="17.399999999999999">
+      <c r="U5" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="17.399999999999999">
       <c r="D6" s="75" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K6" s="79" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="L6" s="79"/>
       <c r="M6" s="79"/>
       <c r="N6" s="79"/>
       <c r="O6" s="79"/>
       <c r="P6" s="79"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="D7" s="82" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-    </row>
-    <row r="8" spans="1:16" ht="17.399999999999999">
+      <c r="U6" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="D7" s="85" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+    </row>
+    <row r="8" spans="1:23" ht="17.399999999999999">
       <c r="K8" s="79"/>
       <c r="L8" s="79"/>
       <c r="M8" s="79"/>
       <c r="N8" s="79"/>
       <c r="O8" s="79"/>
-    </row>
-    <row r="9" spans="1:16" ht="17.399999999999999">
+      <c r="T8" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17.399999999999999">
       <c r="C9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K9" s="79" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L9" s="79"/>
       <c r="M9" s="79"/>
       <c r="N9" s="79"/>
       <c r="O9" s="79"/>
-    </row>
-    <row r="10" spans="1:16" ht="17.399999999999999">
+      <c r="U9" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="17.399999999999999">
       <c r="D10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K10" s="79"/>
       <c r="L10" s="79" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="M10" s="79"/>
       <c r="N10" s="79"/>
       <c r="O10" s="79"/>
     </row>
-    <row r="11" spans="1:16" ht="17.399999999999999">
+    <row r="11" spans="1:23" ht="17.399999999999999">
       <c r="D11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K11" s="79" t="s">
         <v>945</v>
@@ -17575,40 +22465,84 @@
       <c r="N11" s="79"/>
       <c r="O11" s="79"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:23">
       <c r="D12" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="C14" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="C14" t="s">
+    <row r="15" spans="1:23">
+      <c r="D15" s="75" t="s">
+        <v>1075</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="D16" s="75" t="s">
+        <v>1076</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20">
+      <c r="D17" s="85" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="D15" s="75" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="D16" s="75" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="82" t="s">
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="T17" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20">
+      <c r="D18" s="75" t="s">
         <v>1074</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="75" t="s">
-        <v>1075</v>
-      </c>
     </row>
     <row r="53" spans="9:9">
-      <c r="I53" s="89"/>
+      <c r="I53" s="81"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="82" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117" s="83" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F117" s="83" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L117" s="83" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="B119" s="75" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="B129" s="83" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F129" s="83" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L129" s="83" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -17625,10 +22559,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PDF" shapeId="13313" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>167640</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>312420</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PDF" shapeId="13313" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" s="75" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="75" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="75" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W26"/>
   <sheetViews>
@@ -17657,80 +22658,80 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.6">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="86" t="s">
         <v>1007</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:21" ht="15.6">
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="87" t="s">
         <v>1008</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
     </row>
     <row r="7" spans="1:21" ht="15.6">
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="88" t="s">
         <v>1009</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="4"/>
       <c r="K7" s="75" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.6">
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="88" t="s">
         <v>1025</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="81" t="s">
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="84" t="s">
         <v>1026</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
     </row>
     <row r="9" spans="1:21" ht="15.6">
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="88" t="s">
         <v>1010</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
       <c r="K9" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.6">
       <c r="E11" s="2"/>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="89" t="s">
         <v>1021</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
       <c r="K11" t="s">
         <v>1028</v>
       </c>
@@ -17748,12 +22749,12 @@
     </row>
     <row r="13" spans="1:21" ht="15.6">
       <c r="E13" s="2"/>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="90" t="s">
         <v>1011</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
       <c r="K13" s="2" t="s">
         <v>1012</v>
       </c>
@@ -17825,12 +22826,12 @@
     <row r="18" spans="5:23" ht="15.6">
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="87" t="s">
+      <c r="G18" s="90" t="s">
         <v>1013</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -17902,12 +22903,12 @@
     </row>
     <row r="24" spans="5:23" ht="15.6">
       <c r="E24" s="2"/>
-      <c r="G24" s="87" t="s">
+      <c r="G24" s="90" t="s">
         <v>1014</v>
       </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -17960,9 +22961,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17984,56 +22985,56 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.399999999999999">
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="92" t="s">
         <v>1030</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
     </row>
     <row r="7" spans="1:11" ht="17.399999999999999">
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="92" t="s">
         <v>1032</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
     </row>
     <row r="9" spans="1:11" ht="17.399999999999999">
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="92" t="s">
         <v>1033</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
     </row>
     <row r="10" spans="1:11" ht="17.399999999999999">
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="92" t="s">
         <v>1034</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
       <c r="K10" s="75" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.399999999999999">
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="92" t="s">
         <v>1035</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
       <c r="K11" s="75" t="s">
         <v>1037</v>
       </c>
@@ -18079,99 +23080,104 @@
       <c r="J16" s="80"/>
       <c r="K16" s="75"/>
     </row>
-    <row r="17" spans="5:15" ht="17.399999999999999">
+    <row r="17" spans="5:22" ht="17.399999999999999">
       <c r="E17" s="80"/>
       <c r="F17" s="80"/>
       <c r="G17" s="80" t="s">
-        <v>1043</v>
+        <v>1104</v>
       </c>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="75"/>
-    </row>
-    <row r="18" spans="5:15" ht="17.399999999999999">
+      <c r="T17" s="91" t="s">
+        <v>1105</v>
+      </c>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+    </row>
+    <row r="18" spans="5:22" ht="17.399999999999999">
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="80"/>
       <c r="H18" s="80" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="75"/>
     </row>
-    <row r="19" spans="5:15" ht="17.399999999999999">
+    <row r="19" spans="5:22" ht="17.399999999999999">
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="80"/>
       <c r="H19" s="80" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I19" s="80"/>
       <c r="J19" s="80"/>
       <c r="K19" s="75"/>
       <c r="O19" s="75" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="20" spans="5:15" ht="17.399999999999999">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="20" spans="5:22" ht="17.399999999999999">
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
       <c r="H20" s="80" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I20" s="80"/>
       <c r="J20" s="80"/>
       <c r="K20" s="75"/>
       <c r="O20" s="75" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="21" spans="5:15" ht="17.399999999999999">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="21" spans="5:22" ht="17.399999999999999">
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="80"/>
       <c r="H21" s="80" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
       <c r="K21" s="75"/>
       <c r="O21" s="75" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="22" spans="5:15" ht="17.399999999999999">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="5:22" ht="17.399999999999999">
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="80"/>
       <c r="H22" s="80" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I22" s="80"/>
       <c r="J22" s="80"/>
       <c r="K22" s="75"/>
       <c r="O22" s="75" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15" ht="17.399999999999999">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="23" spans="5:22" ht="17.399999999999999">
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I23" s="80"/>
       <c r="J23" s="80"/>
       <c r="K23" s="75"/>
       <c r="O23" s="75" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="24" spans="5:15" ht="17.399999999999999">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="24" spans="5:22" ht="17.399999999999999">
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
@@ -18181,31 +23187,31 @@
       <c r="K24" s="75"/>
       <c r="O24" s="75"/>
     </row>
-    <row r="25" spans="5:15" ht="17.399999999999999">
+    <row r="25" spans="5:22" ht="17.399999999999999">
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="80"/>
       <c r="H25" s="80" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I25" s="80"/>
       <c r="J25" s="80"/>
       <c r="K25" s="75"/>
       <c r="O25" s="75"/>
     </row>
-    <row r="26" spans="5:15" ht="17.399999999999999">
+    <row r="26" spans="5:22" ht="17.399999999999999">
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="80"/>
       <c r="H26" s="80" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I26" s="80"/>
       <c r="J26" s="80"/>
       <c r="K26" s="75"/>
       <c r="O26" s="75"/>
     </row>
-    <row r="27" spans="5:15" ht="17.399999999999999">
+    <row r="27" spans="5:22" ht="17.399999999999999">
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="80"/>
@@ -18216,60 +23222,60 @@
       <c r="J27" s="80"/>
       <c r="K27" s="75"/>
       <c r="O27" s="75" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="28" spans="5:15" ht="17.399999999999999">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="28" spans="5:22" ht="17.399999999999999">
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="80"/>
       <c r="H28" s="80"/>
       <c r="I28" s="80" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="J28" s="80"/>
       <c r="K28" s="75"/>
       <c r="O28" s="75" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="29" spans="5:15" ht="17.399999999999999">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="29" spans="5:22" ht="17.399999999999999">
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="80"/>
       <c r="H29" s="80"/>
       <c r="I29" s="80"/>
       <c r="J29" s="80" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K29" s="75"/>
       <c r="O29" s="75"/>
     </row>
-    <row r="30" spans="5:15" ht="17.399999999999999">
+    <row r="30" spans="5:22" ht="17.399999999999999">
       <c r="E30" s="80"/>
       <c r="F30" s="80"/>
       <c r="G30" s="80"/>
       <c r="H30" s="80"/>
       <c r="I30" s="80" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="J30" s="80"/>
       <c r="K30" s="75"/>
       <c r="O30" s="75"/>
     </row>
-    <row r="31" spans="5:15" ht="17.399999999999999">
+    <row r="31" spans="5:22" ht="17.399999999999999">
       <c r="E31" s="80"/>
       <c r="F31" s="80"/>
       <c r="G31" s="80"/>
       <c r="H31" s="80"/>
       <c r="I31" s="80" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="J31" s="80"/>
       <c r="K31" s="75"/>
       <c r="O31" s="75"/>
     </row>
-    <row r="32" spans="5:15" ht="17.399999999999999">
+    <row r="32" spans="5:22" ht="17.399999999999999">
       <c r="E32" s="80"/>
       <c r="F32" s="80"/>
       <c r="G32" s="80"/>
@@ -18308,7 +23314,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="T17:V17"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="E9:I9"/>
@@ -18321,6 +23328,916 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS37"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:45" ht="18.600000000000001">
+      <c r="C3" s="95" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+    </row>
+    <row r="4" spans="1:45" ht="18">
+      <c r="C4" s="95"/>
+      <c r="D4" s="109" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E4" s="115"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+    </row>
+    <row r="5" spans="1:45" ht="18">
+      <c r="C5" s="95"/>
+      <c r="D5" s="96" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="99"/>
+      <c r="Q5" s="96" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="99"/>
+      <c r="AG5" s="109" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AH5" s="98"/>
+      <c r="AI5" s="98"/>
+      <c r="AJ5" s="98"/>
+      <c r="AK5" s="98"/>
+      <c r="AL5" s="98"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="98"/>
+      <c r="AO5" s="98"/>
+      <c r="AP5" s="98"/>
+      <c r="AQ5" s="98"/>
+      <c r="AR5" s="98"/>
+      <c r="AS5" s="99"/>
+    </row>
+    <row r="6" spans="1:45" ht="18">
+      <c r="C6" s="95"/>
+      <c r="D6" s="100" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="102"/>
+      <c r="Q6" s="100" t="s">
+        <v>1111</v>
+      </c>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="102"/>
+      <c r="AG6" s="110" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="102"/>
+    </row>
+    <row r="7" spans="1:45" ht="18">
+      <c r="C7" s="95"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="102"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="104" t="s">
+        <v>1126</v>
+      </c>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="102"/>
+      <c r="AG7" s="110" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="102"/>
+    </row>
+    <row r="8" spans="1:45" ht="18">
+      <c r="C8" s="95"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="102"/>
+      <c r="Q8" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="108"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="101" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="102"/>
+    </row>
+    <row r="9" spans="1:45" ht="18">
+      <c r="C9" s="95"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="102"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="101" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="102"/>
+    </row>
+    <row r="10" spans="1:45" ht="18">
+      <c r="C10" s="95"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="102"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="101" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="102"/>
+    </row>
+    <row r="11" spans="1:45" ht="18">
+      <c r="C11" s="95"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="102"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="101" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="102"/>
+    </row>
+    <row r="12" spans="1:45" ht="18">
+      <c r="C12" s="95"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="102"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="101" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="102"/>
+    </row>
+    <row r="13" spans="1:45" ht="18">
+      <c r="C13" s="95"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="116" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O13" s="117"/>
+      <c r="P13" s="95"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="101" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="102"/>
+    </row>
+    <row r="14" spans="1:45" ht="18">
+      <c r="C14" s="95"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F14" s="101" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="95"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="101" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="102"/>
+    </row>
+    <row r="15" spans="1:45" ht="18">
+      <c r="C15" s="95"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="102"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="101" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="102"/>
+    </row>
+    <row r="16" spans="1:45" ht="18">
+      <c r="C16" s="95"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="102"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="101" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="102"/>
+    </row>
+    <row r="17" spans="3:45" ht="18">
+      <c r="C17" s="95"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="102"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="101" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="102"/>
+    </row>
+    <row r="18" spans="3:45" ht="18">
+      <c r="C18" s="95"/>
+      <c r="D18" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="108"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="101" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="102"/>
+    </row>
+    <row r="19" spans="3:45" ht="18">
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="101" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="102"/>
+    </row>
+    <row r="20" spans="3:45" ht="18">
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="101" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="102"/>
+    </row>
+    <row r="21" spans="3:45" ht="18">
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="101" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="102"/>
+    </row>
+    <row r="22" spans="3:45" ht="18">
+      <c r="D22" s="113" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E22" s="114"/>
+      <c r="AG22" s="111" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AH22" s="107"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="107"/>
+      <c r="AK22" s="107"/>
+      <c r="AL22" s="107"/>
+      <c r="AM22" s="107"/>
+      <c r="AN22" s="107"/>
+      <c r="AO22" s="107"/>
+      <c r="AP22" s="107"/>
+      <c r="AQ22" s="107"/>
+      <c r="AR22" s="107"/>
+      <c r="AS22" s="108"/>
+    </row>
+    <row r="23" spans="3:45" ht="18">
+      <c r="D23" s="109" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="99"/>
+      <c r="AG23" s="95"/>
+    </row>
+    <row r="24" spans="3:45" ht="18">
+      <c r="D24" s="110" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="102"/>
+    </row>
+    <row r="25" spans="3:45" ht="18">
+      <c r="D25" s="103"/>
+      <c r="E25" s="101" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="102"/>
+    </row>
+    <row r="26" spans="3:45" ht="18">
+      <c r="D26" s="103"/>
+      <c r="E26" s="101" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="102"/>
+    </row>
+    <row r="27" spans="3:45" ht="18">
+      <c r="D27" s="103"/>
+      <c r="E27" s="101" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="102"/>
+    </row>
+    <row r="28" spans="3:45" ht="18">
+      <c r="D28" s="103"/>
+      <c r="E28" s="101" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="102"/>
+    </row>
+    <row r="29" spans="3:45" ht="18">
+      <c r="D29" s="103"/>
+      <c r="E29" s="101" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="102"/>
+    </row>
+    <row r="30" spans="3:45" ht="18">
+      <c r="D30" s="103"/>
+      <c r="F30" s="101" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="102"/>
+    </row>
+    <row r="31" spans="3:45" ht="18">
+      <c r="D31" s="103"/>
+      <c r="E31" s="101" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="102"/>
+    </row>
+    <row r="32" spans="3:45" ht="18">
+      <c r="D32" s="103"/>
+      <c r="F32" s="101" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="102"/>
+    </row>
+    <row r="33" spans="4:16" ht="18">
+      <c r="D33" s="103"/>
+      <c r="E33" s="101" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="102"/>
+    </row>
+    <row r="34" spans="4:16" ht="18">
+      <c r="D34" s="103"/>
+      <c r="F34" s="101" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="102"/>
+    </row>
+    <row r="35" spans="4:16" ht="18">
+      <c r="D35" s="103"/>
+      <c r="E35" s="101" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="102"/>
+    </row>
+    <row r="36" spans="4:16" ht="18">
+      <c r="D36" s="103"/>
+      <c r="E36" s="101" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="102"/>
+    </row>
+    <row r="37" spans="4:16" ht="18">
+      <c r="D37" s="111" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="108"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="回到目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
